--- a/GMLA loading analysis/PMsystem_PRweb/(Output) Data.xlsx
+++ b/GMLA loading analysis/PMsystem_PRweb/(Output) Data.xlsx
@@ -481,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV85"/>
+  <dimension ref="A1:AV82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,20 +803,24 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Bounce(Waldo)</t>
+          <t>Forerunner 265</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -834,14 +838,18 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
+      <c r="AF4" t="n">
+        <v>1</v>
+      </c>
       <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
@@ -861,7 +869,7 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Forerunner 265</t>
+          <t>Forerunner 265s</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -927,25 +935,27 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Forerunner 265s</t>
+          <t>Foretrex 801/901</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
         <v>3</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -961,20 +971,22 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
+      <c r="AB6" t="n">
+        <v>1</v>
+      </c>
       <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
@@ -993,27 +1005,19 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Foretrex 801/901</t>
+          <t>Lily 2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -1021,7 +1025,9 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
@@ -1029,22 +1035,14 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
@@ -1052,7 +1050,9 @@
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
+      <c r="AQ7" t="n">
+        <v>1</v>
+      </c>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
@@ -1063,13 +1063,15 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Lily 2</t>
+          <t>MARQ Carbon</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -1083,9 +1085,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="n">
-        <v>1</v>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
@@ -1094,7 +1094,9 @@
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
+      <c r="AC8" t="n">
+        <v>1</v>
+      </c>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
@@ -1108,9 +1110,7 @@
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr"/>
@@ -1121,24 +1121,26 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>MARQ Carbon</t>
+          <t>Venu 3S</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1152,18 +1154,20 @@
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
+      <c r="AF9" t="n">
+        <v>1</v>
+      </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>1</v>
+      </c>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
@@ -1179,26 +1183,30 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Venu 3S</t>
+          <t>fenix 7 Pro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
@@ -1211,21 +1219,25 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
+      <c r="AB10" t="n">
+        <v>1</v>
+      </c>
       <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
+      <c r="AD10" t="n">
+        <v>1</v>
+      </c>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="n">
+        <v>1</v>
+      </c>
       <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
+      <c r="AI10" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
@@ -1241,24 +1253,30 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Venu Sq 3</t>
+          <t>fenix 7X Pro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -1271,19 +1289,25 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
+      <c r="AB11" t="n">
+        <v>1</v>
+      </c>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
+      <c r="AD11" t="n">
+        <v>1</v>
+      </c>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
+      <c r="AG11" t="n">
+        <v>1</v>
+      </c>
       <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
+      <c r="AI11" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
@@ -1296,30 +1320,32 @@
       <c r="AV11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Hsu, Jason(PQE)</t>
+        </is>
+      </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>fenix 7 Pro</t>
+          <t>ECHOMAP UHD2 (Touch) 6"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1334,23 +1360,21 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
+      <c r="AF12" t="n">
+        <v>1</v>
+      </c>
       <c r="AG12" t="n">
         <v>1</v>
       </c>
       <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
@@ -1369,27 +1393,25 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>fenix 7X Pro</t>
+          <t>ECHOMAP UHD2 (Touch) 7"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1404,23 +1426,21 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
+      <c r="AF13" t="n">
+        <v>1</v>
+      </c>
       <c r="AG13" t="n">
         <v>1</v>
       </c>
       <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
@@ -1436,14 +1456,10 @@
       <c r="AV13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Hsu, Jason(PQE)</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>ECHOMAP UHD2 (Touch) 6"</t>
+          <t>ECHOMAP UHD2 (Touch) 9"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1509,20 +1525,18 @@
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>ECHOMAP UHD2 (Touch) 7"</t>
+          <t>FUSION - WB675 Hide Away Stereo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
+      <c r="H15" t="n">
         <v>3</v>
       </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>1</v>
       </c>
@@ -1542,16 +1556,14 @@
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="n">
         <v>1</v>
       </c>
@@ -1575,29 +1587,29 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>ECHOMAP UHD2 (Touch) 9"</t>
+          <t xml:space="preserve">Force Kraken Trolling Motor </t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>2</v>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
@@ -1608,25 +1620,25 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="n">
+        <v>1</v>
+      </c>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AK16" t="n">
+        <v>1</v>
+      </c>
       <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
+      <c r="AM16" t="n">
+        <v>1</v>
+      </c>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr"/>
@@ -1641,24 +1653,28 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>FUSION - WB675 Hide Away Stereo</t>
+          <t>GMR xHD3 Magnetron Open Arrays</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
         <v>3</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
@@ -1672,7 +1688,9 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
@@ -1680,12 +1698,14 @@
         <v>1</v>
       </c>
       <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="n">
+        <v>1</v>
+      </c>
       <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
+      <c r="AJ17" t="n">
+        <v>1</v>
+      </c>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
@@ -1703,20 +1723,22 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Force Kraken Trolling Motor </t>
+          <t>GPSMAP 9000 - 22"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+      <c r="J18" t="n">
         <v>2</v>
       </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
@@ -1736,16 +1758,18 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
+      <c r="AA18" t="n">
+        <v>1</v>
+      </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="n">
@@ -1769,7 +1793,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>GMR xHD3 Magnetron Open Arrays</t>
+          <t>GPSMAP 9000 - 24"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1778,22 +1802,22 @@
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>2</v>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>3</v>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
@@ -1809,22 +1833,22 @@
       </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AK19" t="n">
+        <v>1</v>
+      </c>
       <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
+      <c r="AM19" t="n">
+        <v>1</v>
+      </c>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr"/>
@@ -1839,7 +1863,7 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>GPSMAP 9000 - 22"</t>
+          <t>GPSMAP 9000 -27"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1909,7 +1933,7 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>GPSMAP 9000 - 24"</t>
+          <t>GPSMAP 9000_Black Box</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1979,14 +2003,14 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>GPSMAP 9000 -27"</t>
+          <t>GSD28</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -1996,14 +2020,14 @@
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>3</v>
       </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
@@ -2014,10 +2038,10 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="n">
+        <v>1</v>
+      </c>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
@@ -2027,14 +2051,14 @@
       </c>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr"/>
@@ -2049,31 +2073,31 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>GPSMAP 9000_Black Box</t>
+          <t>Next gen GMR magnetron domes -GMR 18HD+/xHD NEXT GEN</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>3</v>
+      </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
-        <v>3</v>
-      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
@@ -2084,27 +2108,27 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
+      <c r="AC23" t="n">
+        <v>1</v>
+      </c>
       <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
+      <c r="AE23" t="n">
+        <v>1</v>
+      </c>
       <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="n">
+        <v>1</v>
+      </c>
       <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr"/>
@@ -2119,30 +2143,30 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>GSD28</t>
+          <t>Next gen GMR magnetron domes -GMR 24 XHD NEXT GEN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>2</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
@@ -2155,25 +2179,25 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="n">
+        <v>1</v>
+      </c>
       <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
+      <c r="AE24" t="n">
+        <v>1</v>
+      </c>
       <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="n">
+        <v>1</v>
+      </c>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="n">
         <v>1</v>
       </c>
       <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
@@ -2189,7 +2213,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Next gen GMR magnetron domes -GMR 18HD+/xHD NEXT GEN</t>
+          <t>Prop Drive Cost Down</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -2199,25 +2223,25 @@
         <v>1</v>
       </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>3</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
@@ -2230,25 +2254,25 @@
         <v>1</v>
       </c>
       <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
+      <c r="AQ25" t="n">
+        <v>1</v>
+      </c>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
       <c r="AT25" t="inlineStr"/>
@@ -2259,28 +2283,28 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Next gen GMR magnetron domes -GMR 24 XHD NEXT GEN</t>
+          <t>RV Fixed Displays - 10"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+      <c r="J26" t="n">
         <v>3</v>
       </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
@@ -2295,23 +2319,23 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
@@ -2329,35 +2353,35 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Prop Drive Cost Down</t>
+          <t>RV Fixed Displays - 7"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>3</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="n">
-        <v>1</v>
-      </c>
+      <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
@@ -2365,14 +2389,18 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD27" t="inlineStr"/>
+      <c r="AB27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="n">
+        <v>1</v>
+      </c>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
+      <c r="AG27" t="n">
+        <v>1</v>
+      </c>
       <c r="AH27" t="inlineStr"/>
       <c r="AI27" t="n">
         <v>1</v>
@@ -2380,15 +2408,11 @@
       <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
       <c r="AT27" t="inlineStr"/>
@@ -2399,27 +2423,21 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>RV Fixed Displays - 10"</t>
+          <t>Tread - XL (10")</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="n">
-        <v>2</v>
-      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>3</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2435,22 +2453,16 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
@@ -2466,30 +2478,32 @@
       <c r="AV28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Kuo, Chris</t>
+        </is>
+      </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>RV Fixed Displays - 7"</t>
+          <t>Alpha Dog Collar</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="n">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
         <v>2</v>
       </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>3</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2505,22 +2519,20 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="n">
+        <v>1</v>
+      </c>
       <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr"/>
@@ -2539,21 +2551,25 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Tread - XL (10")</t>
+          <t>Approach Z50</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2575,10 +2591,14 @@
       </c>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
+      <c r="AF30" t="n">
+        <v>1</v>
+      </c>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
+      <c r="AI30" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
@@ -2594,31 +2614,25 @@
       <c r="AV30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Kuo, Chris</t>
-        </is>
-      </c>
+      <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Alpha Dog Collar</t>
+          <t>Dash Cam Live (LTE)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>1</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -2645,9 +2659,7 @@
       </c>
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
@@ -2667,25 +2679,21 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Approach Z50</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>Delta Simple</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="n">
-        <v>2</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="n">
-        <v>3</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2699,22 +2707,18 @@
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
+      <c r="Z32" t="n">
+        <v>1</v>
+      </c>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
@@ -2733,19 +2737,15 @@
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Dash Cam Live (LTE)</t>
+          <t>Descent X1i</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="n">
-        <v>3</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -2755,24 +2755,26 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
+      <c r="X33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1</v>
+      </c>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr"/>
@@ -2782,25 +2784,29 @@
       <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="inlineStr"/>
+      <c r="AO33" t="n">
+        <v>1</v>
+      </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
       <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="inlineStr"/>
-      <c r="AV33" t="inlineStr"/>
+      <c r="AU33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Delta Simple</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
+          <t>Edge 540 840</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
@@ -2808,7 +2814,9 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -2823,9 +2831,7 @@
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
@@ -2833,7 +2839,9 @@
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
+      <c r="AH34" t="n">
+        <v>1</v>
+      </c>
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
       <c r="AK34" t="inlineStr"/>
@@ -2853,10 +2861,12 @@
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Descent X1i</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>Edge Explore 2</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
@@ -2871,21 +2881,17 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="n">
-        <v>1</v>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
-      <c r="X35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="n">
+        <v>1</v>
+      </c>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
@@ -2900,26 +2906,20 @@
       <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr"/>
-      <c r="AO35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
       <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Edge 540 840</t>
+          <t>Tacx NEO 3M</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -2927,17 +2927,21 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>1</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
@@ -2952,17 +2956,21 @@
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
+      <c r="AE36" t="n">
+        <v>1</v>
+      </c>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH36" t="inlineStr"/>
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
+      <c r="AL36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1</v>
+      </c>
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr"/>
@@ -2977,15 +2985,17 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Edge Explore 2</t>
+          <t>Tacx NEO Bike Plus</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -3010,7 +3020,9 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
+      <c r="AC37" t="n">
+        <v>1</v>
+      </c>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
@@ -3035,29 +3047,27 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Tacx NEO 3M</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
+          <t>Tacx NEO Bike Plus_Shifter</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1</v>
-      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
@@ -3067,26 +3077,24 @@
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
+      <c r="Z38" t="n">
+        <v>1</v>
+      </c>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
+      <c r="AC38" t="n">
+        <v>1</v>
+      </c>
       <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="inlineStr"/>
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
       <c r="AK38" t="inlineStr"/>
-      <c r="AL38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr"/>
@@ -3101,24 +3109,28 @@
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>Tacx NEO Bike Plus</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+          <t>Varia eBike Radar Tail Light (eRTL615)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
         <v>3</v>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
@@ -3131,21 +3143,25 @@
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="n">
+        <v>1</v>
+      </c>
       <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
+      <c r="AE39" t="n">
+        <v>1</v>
+      </c>
       <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
+      <c r="AG39" t="n">
+        <v>1</v>
+      </c>
       <c r="AH39" t="inlineStr"/>
       <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
+      <c r="AJ39" t="n">
+        <v>1</v>
+      </c>
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="inlineStr"/>
@@ -3163,61 +3179,69 @@
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>Tacx NEO Bike Plus_Shifter</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>3</v>
-      </c>
+          <t>Xero B60i Laser Navigation Binoculars</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="n">
-        <v>1</v>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="V40" t="n">
+        <v>3</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1</v>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
+      <c r="AJ40" t="n">
+        <v>1</v>
+      </c>
       <c r="AK40" t="inlineStr"/>
       <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="inlineStr"/>
+      <c r="AP40" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
-      <c r="AT40" t="inlineStr"/>
+      <c r="AS40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>1</v>
+      </c>
       <c r="AU40" t="inlineStr"/>
       <c r="AV40" t="inlineStr"/>
     </row>
@@ -3225,30 +3249,28 @@
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>Varia eBike Radar Tail Light (eRTL615)</t>
+          <t>Xero C1 Chronograph</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>3</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
@@ -3266,20 +3288,18 @@
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="n">
         <v>1</v>
       </c>
       <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="inlineStr"/>
+      <c r="AL41" t="n">
+        <v>1</v>
+      </c>
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
@@ -3295,69 +3315,57 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Xero B60i Laser Navigation Binoculars</t>
+          <t>Xero G1(s) SatCom Scouting Camera</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
-        <v>2</v>
-      </c>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="n">
-        <v>3</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1</v>
-      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
+      <c r="AC42" t="n">
+        <v>1</v>
+      </c>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="inlineStr"/>
       <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ42" t="inlineStr"/>
       <c r="AK42" t="inlineStr"/>
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr"/>
-      <c r="AP42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
       <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS42" t="inlineStr"/>
+      <c r="AT42" t="inlineStr"/>
       <c r="AU42" t="inlineStr"/>
       <c r="AV42" t="inlineStr"/>
     </row>
@@ -3365,24 +3373,20 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Xero C1 Chronograph</t>
+          <t>Xero L60i Laser Navigator</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="n">
-        <v>2</v>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="n">
-        <v>3</v>
-      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -3399,19 +3403,15 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="n">
+        <v>1</v>
+      </c>
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
       <c r="AK43" t="inlineStr"/>
@@ -3431,17 +3431,23 @@
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>Xero G1(s) SatCom Scouting Camera</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+          <t>eTrex SE</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -3459,14 +3465,20 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
+      <c r="Z44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1</v>
+      </c>
       <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1</v>
+      </c>
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr"/>
@@ -3489,7 +3501,7 @@
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>Xero L60i Laser Navigator</t>
+          <t>eTrex Solar</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -3499,17 +3511,23 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>2</v>
-      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -3524,17 +3542,23 @@
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr"/>
-      <c r="AH45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH45" t="inlineStr"/>
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="inlineStr"/>
+      <c r="AK45" t="n">
+        <v>1</v>
+      </c>
       <c r="AL45" t="inlineStr"/>
-      <c r="AM45" t="inlineStr"/>
+      <c r="AM45" t="n">
+        <v>1</v>
+      </c>
       <c r="AN45" t="inlineStr"/>
-      <c r="AO45" t="inlineStr"/>
+      <c r="AO45" t="n">
+        <v>1</v>
+      </c>
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
       <c r="AR45" t="inlineStr"/>
@@ -3547,23 +3571,17 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>eTrex SE</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2</v>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>inReach Messenger</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="n">
-        <v>3</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -3581,20 +3599,14 @@
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="n">
+        <v>1</v>
+      </c>
       <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
@@ -3614,36 +3626,40 @@
       <c r="AV46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n"/>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Lo, Aalto</t>
+        </is>
+      </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>eTrex Solar</t>
+          <t>Catalyst KMR - Camera</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
-        <v>2</v>
-      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="n">
-        <v>3</v>
-      </c>
+      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="n">
-        <v>1</v>
-      </c>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
@@ -3652,29 +3668,29 @@
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
+      <c r="AA47" t="n">
+        <v>1</v>
+      </c>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr"/>
+      <c r="AE47" t="n">
+        <v>1</v>
+      </c>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="n">
         <v>1</v>
       </c>
       <c r="AH47" t="inlineStr"/>
       <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr"/>
-      <c r="AM47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr"/>
-      <c r="AO47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
       <c r="AR47" t="inlineStr"/>
@@ -3687,22 +3703,28 @@
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>inReach Messenger</t>
+          <t>Catalyst KMR - Display</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>3</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
@@ -3716,18 +3738,24 @@
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="inlineStr"/>
+      <c r="AE48" t="n">
+        <v>1</v>
+      </c>
       <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="inlineStr"/>
+      <c r="AG48" t="n">
+        <v>1</v>
+      </c>
       <c r="AH48" t="inlineStr"/>
       <c r="AI48" t="inlineStr"/>
-      <c r="AJ48" t="inlineStr"/>
+      <c r="AJ48" t="n">
+        <v>1</v>
+      </c>
       <c r="AK48" t="inlineStr"/>
       <c r="AL48" t="inlineStr"/>
       <c r="AM48" t="inlineStr"/>
@@ -3742,14 +3770,10 @@
       <c r="AV48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>Lo, Aalto</t>
-        </is>
-      </c>
+      <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>Catalyst KMR - Camera</t>
+          <t>Catalyst KMR - Hub</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -3819,29 +3843,29 @@
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>Catalyst KMR - Display</t>
+          <t>Descent S1 Buoy</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="n">
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
         <v>2</v>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
         <v>3</v>
       </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
@@ -3854,25 +3878,25 @@
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
-      <c r="AE50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG50" t="inlineStr"/>
       <c r="AH50" t="inlineStr"/>
-      <c r="AI50" t="inlineStr"/>
-      <c r="AJ50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK50" t="inlineStr"/>
+      <c r="AI50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="n">
+        <v>1</v>
+      </c>
       <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr"/>
@@ -3889,28 +3913,28 @@
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>Catalyst KMR - Hub</t>
+          <t>EPIX PRO (Gen 2) 42mm</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="n">
+      <c r="G51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>3</v>
       </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
@@ -3924,24 +3948,24 @@
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="n">
+        <v>1</v>
+      </c>
       <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="n">
         <v>1</v>
       </c>
       <c r="AH51" t="inlineStr"/>
-      <c r="AI51" t="inlineStr"/>
-      <c r="AJ51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ51" t="inlineStr"/>
       <c r="AK51" t="inlineStr"/>
       <c r="AL51" t="inlineStr"/>
       <c r="AM51" t="inlineStr"/>
@@ -3959,29 +3983,27 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>Descent S1 Buoy</t>
+          <t>Forerunner 965</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>3</v>
-      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
-        <v>1</v>
-      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -3997,22 +4019,20 @@
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="n">
+        <v>1</v>
+      </c>
       <c r="AF52" t="n">
         <v>1</v>
       </c>
       <c r="AG52" t="inlineStr"/>
-      <c r="AH52" t="inlineStr"/>
-      <c r="AI52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI52" t="inlineStr"/>
       <c r="AJ52" t="inlineStr"/>
-      <c r="AK52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="inlineStr"/>
       <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr"/>
@@ -4029,28 +4049,28 @@
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 42mm</t>
+          <t>Instinct 2X Solar</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="n">
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
         <v>2</v>
       </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
         <v>3</v>
       </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
@@ -4065,23 +4085,23 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="inlineStr"/>
-      <c r="AG53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH53" t="inlineStr"/>
-      <c r="AI53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="n">
+        <v>1</v>
+      </c>
       <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="inlineStr"/>
       <c r="AM53" t="inlineStr"/>
@@ -4099,24 +4119,22 @@
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>Forerunner 965</t>
+          <t>Instinct Hybrid Analog/Digital(Ripley)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>1</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -4134,18 +4152,16 @@
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
+      <c r="AC54" t="n">
+        <v>1</v>
+      </c>
       <c r="AD54" t="inlineStr"/>
       <c r="AE54" t="n">
         <v>1</v>
       </c>
-      <c r="AF54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
-      <c r="AH54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH54" t="inlineStr"/>
       <c r="AI54" t="inlineStr"/>
       <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="inlineStr"/>
@@ -4165,28 +4181,22 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>Instinct 2X Solar</t>
+          <t>vivomove Trend (previously "4")</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>3</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
@@ -4200,24 +4210,18 @@
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
+      <c r="AA55" t="n">
+        <v>1</v>
+      </c>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
-      <c r="AH55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH55" t="inlineStr"/>
       <c r="AI55" t="inlineStr"/>
-      <c r="AJ55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ55" t="inlineStr"/>
       <c r="AK55" t="inlineStr"/>
       <c r="AL55" t="inlineStr"/>
       <c r="AM55" t="inlineStr"/>
@@ -4232,28 +4236,34 @@
       <c r="AV55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n"/>
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Ni, Wendy</t>
+        </is>
+      </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>Instinct Hybrid Analog/Digital(Ripley)</t>
+          <t>BlueNET Gateway</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="n">
-        <v>3</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>3</v>
+      </c>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -4268,19 +4278,21 @@
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
-      <c r="AI56" t="inlineStr"/>
+      <c r="AI56" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ56" t="inlineStr"/>
-      <c r="AK56" t="inlineStr"/>
+      <c r="AK56" t="n">
+        <v>1</v>
+      </c>
       <c r="AL56" t="inlineStr"/>
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr"/>
@@ -4297,25 +4309,27 @@
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>vivomove Trend (previously "4")</t>
+          <t>BlueNET Switch</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="n">
-        <v>2</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>3</v>
+      </c>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -4328,21 +4342,23 @@
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="inlineStr"/>
+      <c r="AI57" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="inlineStr"/>
+      <c r="AK57" t="n">
+        <v>1</v>
+      </c>
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr"/>
@@ -4356,34 +4372,30 @@
       <c r="AV57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Ni, Wendy</t>
-        </is>
-      </c>
+      <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>BlueNET Gateway</t>
+          <t>Drive 53</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="n">
+      <c r="F58" t="n">
         <v>2</v>
       </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>3</v>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
-        <v>1</v>
-      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -4398,21 +4410,21 @@
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE58" t="inlineStr"/>
+      <c r="AC58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="n">
+        <v>1</v>
+      </c>
       <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
+      <c r="AG58" t="n">
+        <v>1</v>
+      </c>
       <c r="AH58" t="inlineStr"/>
-      <c r="AI58" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI58" t="inlineStr"/>
       <c r="AJ58" t="inlineStr"/>
-      <c r="AK58" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK58" t="inlineStr"/>
       <c r="AL58" t="inlineStr"/>
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr"/>
@@ -4429,30 +4441,30 @@
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>BlueNET Switch</t>
+          <t>Premium Dash Cams</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="n">
-        <v>2</v>
-      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>3</v>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
-        <v>1</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="n">
+        <v>5</v>
+      </c>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
@@ -4465,23 +4477,23 @@
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD59" t="inlineStr"/>
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr"/>
+      <c r="AG59" t="n">
+        <v>1</v>
+      </c>
       <c r="AH59" t="inlineStr"/>
-      <c r="AI59" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI59" t="inlineStr"/>
       <c r="AJ59" t="inlineStr"/>
-      <c r="AK59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="n">
+        <v>2</v>
+      </c>
       <c r="AM59" t="inlineStr"/>
-      <c r="AN59" t="inlineStr"/>
+      <c r="AN59" t="n">
+        <v>1</v>
+      </c>
       <c r="AO59" t="inlineStr"/>
       <c r="AP59" t="inlineStr"/>
       <c r="AQ59" t="inlineStr"/>
@@ -4495,23 +4507,19 @@
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>Drive 53</t>
+          <t>RV/Camper 2022 - 7"</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="n">
-        <v>2</v>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="n">
-        <v>3</v>
-      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>1</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -4528,19 +4536,15 @@
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
+      <c r="AA60" t="n">
+        <v>1</v>
+      </c>
       <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG60" t="inlineStr"/>
       <c r="AH60" t="inlineStr"/>
       <c r="AI60" t="inlineStr"/>
       <c r="AJ60" t="inlineStr"/>
@@ -4561,30 +4565,26 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>Premium Dash Cams</t>
+          <t>RV/Camper 2022 - 8"</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="n">
-        <v>5</v>
-      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
@@ -4594,26 +4594,22 @@
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
+      <c r="AA61" t="n">
+        <v>1</v>
+      </c>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG61" t="inlineStr"/>
       <c r="AH61" t="inlineStr"/>
       <c r="AI61" t="inlineStr"/>
       <c r="AJ61" t="inlineStr"/>
       <c r="AK61" t="inlineStr"/>
-      <c r="AL61" t="n">
-        <v>2</v>
-      </c>
+      <c r="AL61" t="inlineStr"/>
       <c r="AM61" t="inlineStr"/>
-      <c r="AN61" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN61" t="inlineStr"/>
       <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="inlineStr"/>
@@ -4627,23 +4623,27 @@
       <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>RV/Camper 2022 - 7"</t>
+          <t>Tire Temp Sensor</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>3</v>
+      </c>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -4656,19 +4656,23 @@
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
+      <c r="AC62" t="n">
+        <v>1</v>
+      </c>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="inlineStr"/>
       <c r="AH62" t="inlineStr"/>
-      <c r="AI62" t="inlineStr"/>
+      <c r="AI62" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ62" t="inlineStr"/>
-      <c r="AK62" t="inlineStr"/>
+      <c r="AK62" t="n">
+        <v>1</v>
+      </c>
       <c r="AL62" t="inlineStr"/>
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr"/>
@@ -4685,20 +4689,20 @@
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>RV/Camper 2022 - 8"</t>
+          <t>Tread 8" OEM w/ CAN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="n">
-        <v>1</v>
-      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
@@ -4714,16 +4718,16 @@
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="inlineStr"/>
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
-      <c r="AH63" t="inlineStr"/>
+      <c r="AH63" t="n">
+        <v>1</v>
+      </c>
       <c r="AI63" t="inlineStr"/>
       <c r="AJ63" t="inlineStr"/>
       <c r="AK63" t="inlineStr"/>
@@ -4743,7 +4747,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>RV/Camper 2022-10"</t>
+          <t>Tread Audio System</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -4801,27 +4805,23 @@
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>Tire Temp Sensor</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+          <t>dezl OTR Series 2022 - 6"</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="n">
-        <v>1</v>
-      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>3</v>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
-        <v>1</v>
-      </c>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
@@ -4833,24 +4833,20 @@
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
+      <c r="Z65" t="n">
+        <v>1</v>
+      </c>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr"/>
       <c r="AH65" t="inlineStr"/>
-      <c r="AI65" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI65" t="inlineStr"/>
       <c r="AJ65" t="inlineStr"/>
-      <c r="AK65" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK65" t="inlineStr"/>
       <c r="AL65" t="inlineStr"/>
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr"/>
@@ -4867,10 +4863,12 @@
       <c r="A66" s="1" t="n"/>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>Tread 8" OEM w/ CAN</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>dezl OTR Series 2022 - 7"</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
@@ -4878,9 +4876,7 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>1</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -4895,7 +4891,9 @@
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
+      <c r="Z66" t="n">
+        <v>1</v>
+      </c>
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
@@ -4903,9 +4901,7 @@
       <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="inlineStr"/>
-      <c r="AH66" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH66" t="inlineStr"/>
       <c r="AI66" t="inlineStr"/>
       <c r="AJ66" t="inlineStr"/>
       <c r="AK66" t="inlineStr"/>
@@ -4925,13 +4921,13 @@
       <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>Tread Audio System</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="n">
-        <v>1</v>
-      </c>
+          <t>dezl OTR Series 2022 - 8"</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
@@ -4953,10 +4949,10 @@
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
@@ -4983,7 +4979,7 @@
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022 - 6"</t>
+          <t>dezl OTR Series 2022-10"</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -5041,13 +5037,15 @@
       <c r="A69" s="1" t="n"/>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022 - 7"</t>
+          <t>dezlCam OTR710 &amp; RV 795</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
@@ -5072,7 +5070,9 @@
       <c r="Z69" t="n">
         <v>1</v>
       </c>
-      <c r="AA69" t="inlineStr"/>
+      <c r="AA69" t="n">
+        <v>1</v>
+      </c>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
       <c r="AD69" t="inlineStr"/>
@@ -5099,7 +5099,7 @@
       <c r="A70" s="1" t="n"/>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022 - 8"</t>
+          <t>zumo XT2</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -5107,12 +5107,18 @@
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -5132,12 +5138,18 @@
       </c>
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
-      <c r="AC70" t="inlineStr"/>
+      <c r="AC70" t="n">
+        <v>1</v>
+      </c>
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr"/>
-      <c r="AF70" t="inlineStr"/>
+      <c r="AF70" t="n">
+        <v>1</v>
+      </c>
       <c r="AG70" t="inlineStr"/>
-      <c r="AH70" t="inlineStr"/>
+      <c r="AH70" t="n">
+        <v>1</v>
+      </c>
       <c r="AI70" t="inlineStr"/>
       <c r="AJ70" t="inlineStr"/>
       <c r="AK70" t="inlineStr"/>
@@ -5154,25 +5166,35 @@
       <c r="AV70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n"/>
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Wang, Cooper</t>
+        </is>
+      </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022-10"</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>1</v>
-      </c>
+          <t>Approach S70</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>3</v>
+      </c>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
@@ -5185,19 +5207,25 @@
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="inlineStr"/>
+      <c r="AB71" t="n">
+        <v>1</v>
+      </c>
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="inlineStr"/>
-      <c r="AE71" t="inlineStr"/>
+      <c r="AE71" t="n">
+        <v>1</v>
+      </c>
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
-      <c r="AH71" t="inlineStr"/>
+      <c r="AH71" t="n">
+        <v>1</v>
+      </c>
       <c r="AI71" t="inlineStr"/>
-      <c r="AJ71" t="inlineStr"/>
+      <c r="AJ71" t="n">
+        <v>1</v>
+      </c>
       <c r="AK71" t="inlineStr"/>
       <c r="AL71" t="inlineStr"/>
       <c r="AM71" t="inlineStr"/>
@@ -5215,24 +5243,28 @@
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>dezlCam OTR710 &amp; RV 795</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>3</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" t="inlineStr"/>
+          <t>Approach S70s</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>3</v>
+      </c>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
@@ -5245,21 +5277,25 @@
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="n">
+        <v>1</v>
+      </c>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
-      <c r="AE72" t="inlineStr"/>
+      <c r="AE72" t="n">
+        <v>1</v>
+      </c>
       <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="inlineStr"/>
-      <c r="AH72" t="inlineStr"/>
+      <c r="AH72" t="n">
+        <v>1</v>
+      </c>
       <c r="AI72" t="inlineStr"/>
-      <c r="AJ72" t="inlineStr"/>
+      <c r="AJ72" t="n">
+        <v>1</v>
+      </c>
       <c r="AK72" t="inlineStr"/>
       <c r="AL72" t="inlineStr"/>
       <c r="AM72" t="inlineStr"/>
@@ -5277,66 +5313,66 @@
       <c r="A73" s="1" t="n"/>
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>zumo XT2</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>1</v>
-      </c>
+          <t>Descent Mk3 Series - Large</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="n">
-        <v>2</v>
-      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="n">
-        <v>3</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
+      <c r="O73" t="n">
+        <v>2</v>
+      </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
       <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
+      <c r="T73" t="n">
+        <v>1</v>
+      </c>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC73" t="inlineStr"/>
       <c r="AD73" t="inlineStr"/>
       <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG73" t="inlineStr"/>
-      <c r="AH73" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF73" t="inlineStr"/>
+      <c r="AG73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH73" t="inlineStr"/>
       <c r="AI73" t="inlineStr"/>
       <c r="AJ73" t="inlineStr"/>
       <c r="AK73" t="inlineStr"/>
-      <c r="AL73" t="inlineStr"/>
+      <c r="AL73" t="n">
+        <v>1</v>
+      </c>
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr"/>
-      <c r="AO73" t="inlineStr"/>
+      <c r="AO73" t="n">
+        <v>1</v>
+      </c>
       <c r="AP73" t="inlineStr"/>
-      <c r="AQ73" t="inlineStr"/>
+      <c r="AQ73" t="n">
+        <v>1</v>
+      </c>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
       <c r="AT73" t="inlineStr"/>
@@ -5344,41 +5380,37 @@
       <c r="AV73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Wang, Cooper</t>
-        </is>
-      </c>
+      <c r="A74" s="1" t="n"/>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>Approach S70</t>
+          <t>Descent Mk3 Series - Small</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="n">
-        <v>1</v>
-      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="n">
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>2</v>
       </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>3</v>
-      </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
       <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
@@ -5387,29 +5419,29 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="inlineStr"/>
-      <c r="AE74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="n">
+        <v>1</v>
+      </c>
       <c r="AG74" t="inlineStr"/>
-      <c r="AH74" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH74" t="inlineStr"/>
       <c r="AI74" t="inlineStr"/>
-      <c r="AJ74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK74" t="inlineStr"/>
+      <c r="AJ74" t="inlineStr"/>
+      <c r="AK74" t="n">
+        <v>1</v>
+      </c>
       <c r="AL74" t="inlineStr"/>
       <c r="AM74" t="inlineStr"/>
-      <c r="AN74" t="inlineStr"/>
+      <c r="AN74" t="n">
+        <v>1</v>
+      </c>
       <c r="AO74" t="inlineStr"/>
-      <c r="AP74" t="inlineStr"/>
+      <c r="AP74" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ74" t="inlineStr"/>
       <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr"/>
@@ -5421,7 +5453,7 @@
       <c r="A75" s="1" t="n"/>
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>Approach S70s</t>
+          <t>EPIX PRO (Gen 2) 47mm</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -5430,19 +5462,19 @@
         <v>1</v>
       </c>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="n">
+      <c r="G75" t="n">
         <v>2</v>
       </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
+      <c r="J75" t="n">
         <v>3</v>
       </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
@@ -5461,19 +5493,19 @@
         <v>1</v>
       </c>
       <c r="AC75" t="inlineStr"/>
-      <c r="AD75" t="inlineStr"/>
-      <c r="AE75" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr"/>
-      <c r="AG75" t="inlineStr"/>
-      <c r="AH75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI75" t="inlineStr"/>
-      <c r="AJ75" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH75" t="inlineStr"/>
+      <c r="AI75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ75" t="inlineStr"/>
       <c r="AK75" t="inlineStr"/>
       <c r="AL75" t="inlineStr"/>
       <c r="AM75" t="inlineStr"/>
@@ -5491,35 +5523,35 @@
       <c r="A76" s="1" t="n"/>
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>Descent Mk3 Series - Large</t>
+          <t>EPIX PRO (Gen 2) 51mm</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
-      <c r="O76" t="n">
-        <v>2</v>
-      </c>
+      <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="n">
-        <v>3</v>
-      </c>
+      <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
-      <c r="T76" t="n">
-        <v>1</v>
-      </c>
+      <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
@@ -5527,30 +5559,30 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
-      <c r="AB76" t="inlineStr"/>
+      <c r="AB76" t="n">
+        <v>1</v>
+      </c>
       <c r="AC76" t="inlineStr"/>
-      <c r="AD76" t="inlineStr"/>
+      <c r="AD76" t="n">
+        <v>1</v>
+      </c>
       <c r="AE76" t="inlineStr"/>
       <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="n">
         <v>1</v>
       </c>
       <c r="AH76" t="inlineStr"/>
-      <c r="AI76" t="inlineStr"/>
+      <c r="AI76" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ76" t="inlineStr"/>
       <c r="AK76" t="inlineStr"/>
-      <c r="AL76" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL76" t="inlineStr"/>
       <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="inlineStr"/>
-      <c r="AO76" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO76" t="inlineStr"/>
       <c r="AP76" t="inlineStr"/>
-      <c r="AQ76" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ76" t="inlineStr"/>
       <c r="AR76" t="inlineStr"/>
       <c r="AS76" t="inlineStr"/>
       <c r="AT76" t="inlineStr"/>
@@ -5561,34 +5593,30 @@
       <c r="A77" s="1" t="n"/>
       <c r="B77" s="1" t="inlineStr">
         <is>
-          <t>Descent Mk3 Series - Small</t>
+          <t>Marq (Gen 2)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>5</v>
+      </c>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
-        <v>2</v>
-      </c>
+      <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
-        <v>1</v>
-      </c>
+      <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
@@ -5598,28 +5626,24 @@
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
+      <c r="AC77" t="n">
+        <v>2</v>
+      </c>
       <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="inlineStr"/>
       <c r="AI77" t="inlineStr"/>
       <c r="AJ77" t="inlineStr"/>
-      <c r="AK77" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK77" t="inlineStr"/>
       <c r="AL77" t="inlineStr"/>
       <c r="AM77" t="inlineStr"/>
-      <c r="AN77" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN77" t="inlineStr"/>
       <c r="AO77" t="inlineStr"/>
-      <c r="AP77" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP77" t="inlineStr"/>
       <c r="AQ77" t="inlineStr"/>
       <c r="AR77" t="inlineStr"/>
       <c r="AS77" t="inlineStr"/>
@@ -5631,30 +5655,26 @@
       <c r="A78" s="1" t="n"/>
       <c r="B78" s="1" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 47mm</t>
+          <t>Venu 3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="n">
-        <v>1</v>
-      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" t="n">
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
         <v>2</v>
       </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>3</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
+      <c r="O78" t="n">
+        <v>1</v>
+      </c>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
@@ -5667,25 +5687,21 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
-      <c r="AD78" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD78" t="inlineStr"/>
       <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="inlineStr"/>
-      <c r="AG78" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG78" t="inlineStr"/>
       <c r="AH78" t="inlineStr"/>
-      <c r="AI78" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI78" t="inlineStr"/>
       <c r="AJ78" t="inlineStr"/>
       <c r="AK78" t="inlineStr"/>
-      <c r="AL78" t="inlineStr"/>
+      <c r="AL78" t="n">
+        <v>1</v>
+      </c>
       <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="inlineStr"/>
       <c r="AO78" t="inlineStr"/>
@@ -5701,7 +5717,7 @@
       <c r="A79" s="1" t="n"/>
       <c r="B79" s="1" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 51mm</t>
+          <t>fenix 7S Pro (2022)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -5768,30 +5784,38 @@
       <c r="AV79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n"/>
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Wang, Evelyn</t>
+        </is>
+      </c>
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>Marq (Gen 2)</t>
+          <t>GPSMAP 9000 - 19"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="n">
-        <v>5</v>
-      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>2</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
+      <c r="N80" t="n">
+        <v>3</v>
+      </c>
       <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
@@ -5802,23 +5826,27 @@
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
-      <c r="AA80" t="inlineStr"/>
+      <c r="AA80" t="n">
+        <v>1</v>
+      </c>
       <c r="AB80" t="inlineStr"/>
-      <c r="AC80" t="n">
-        <v>2</v>
-      </c>
+      <c r="AC80" t="inlineStr"/>
       <c r="AD80" t="inlineStr"/>
-      <c r="AE80" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE80" t="inlineStr"/>
       <c r="AF80" t="inlineStr"/>
-      <c r="AG80" t="inlineStr"/>
+      <c r="AG80" t="n">
+        <v>1</v>
+      </c>
       <c r="AH80" t="inlineStr"/>
       <c r="AI80" t="inlineStr"/>
       <c r="AJ80" t="inlineStr"/>
-      <c r="AK80" t="inlineStr"/>
+      <c r="AK80" t="n">
+        <v>1</v>
+      </c>
       <c r="AL80" t="inlineStr"/>
-      <c r="AM80" t="inlineStr"/>
+      <c r="AM80" t="n">
+        <v>1</v>
+      </c>
       <c r="AN80" t="inlineStr"/>
       <c r="AO80" t="inlineStr"/>
       <c r="AP80" t="inlineStr"/>
@@ -5833,7 +5861,7 @@
       <c r="A81" s="1" t="n"/>
       <c r="B81" s="1" t="inlineStr">
         <is>
-          <t>Venu 3</t>
+          <t>LED Control Module</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -5842,24 +5870,28 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="n">
-        <v>2</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
       <c r="N81" t="inlineStr"/>
-      <c r="O81" t="n">
-        <v>1</v>
-      </c>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>1</v>
+      </c>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
@@ -5869,24 +5901,28 @@
       <c r="AC81" t="inlineStr"/>
       <c r="AD81" t="inlineStr"/>
       <c r="AE81" t="inlineStr"/>
-      <c r="AF81" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="inlineStr"/>
       <c r="AH81" t="inlineStr"/>
       <c r="AI81" t="inlineStr"/>
-      <c r="AJ81" t="inlineStr"/>
+      <c r="AJ81" t="n">
+        <v>1</v>
+      </c>
       <c r="AK81" t="inlineStr"/>
-      <c r="AL81" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL81" t="inlineStr"/>
       <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="inlineStr"/>
-      <c r="AO81" t="inlineStr"/>
+      <c r="AO81" t="n">
+        <v>1</v>
+      </c>
       <c r="AP81" t="inlineStr"/>
       <c r="AQ81" t="inlineStr"/>
-      <c r="AR81" t="inlineStr"/>
-      <c r="AS81" t="inlineStr"/>
+      <c r="AR81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1</v>
+      </c>
       <c r="AT81" t="inlineStr"/>
       <c r="AU81" t="inlineStr"/>
       <c r="AV81" t="inlineStr"/>
@@ -5895,28 +5931,26 @@
       <c r="A82" s="1" t="n"/>
       <c r="B82" s="1" t="inlineStr">
         <is>
-          <t>fenix 7S Pro (2022)</t>
+          <t>Panoptix PS70 - (SSMB)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" t="n">
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="n">
         <v>2</v>
       </c>
-      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
         <v>3</v>
       </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
@@ -5931,23 +5965,21 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
-      <c r="AB82" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
-      <c r="AD82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE82" t="inlineStr"/>
+      <c r="AD82" t="inlineStr"/>
+      <c r="AE82" t="n">
+        <v>1</v>
+      </c>
       <c r="AF82" t="inlineStr"/>
-      <c r="AG82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH82" t="inlineStr"/>
-      <c r="AI82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ82" t="inlineStr"/>
+      <c r="AG82" t="inlineStr"/>
+      <c r="AH82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI82" t="inlineStr"/>
+      <c r="AJ82" t="n">
+        <v>1</v>
+      </c>
       <c r="AK82" t="inlineStr"/>
       <c r="AL82" t="inlineStr"/>
       <c r="AM82" t="inlineStr"/>
@@ -5961,227 +5993,17 @@
       <c r="AU82" t="inlineStr"/>
       <c r="AV82" t="inlineStr"/>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>Wang, Evelyn</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="inlineStr">
-        <is>
-          <t>GPSMAP 9000 - 19"</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>2</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
-        <v>3</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
-      <c r="AA83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB83" t="inlineStr"/>
-      <c r="AC83" t="inlineStr"/>
-      <c r="AD83" t="inlineStr"/>
-      <c r="AE83" t="inlineStr"/>
-      <c r="AF83" t="inlineStr"/>
-      <c r="AG83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH83" t="inlineStr"/>
-      <c r="AI83" t="inlineStr"/>
-      <c r="AJ83" t="inlineStr"/>
-      <c r="AK83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL83" t="inlineStr"/>
-      <c r="AM83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN83" t="inlineStr"/>
-      <c r="AO83" t="inlineStr"/>
-      <c r="AP83" t="inlineStr"/>
-      <c r="AQ83" t="inlineStr"/>
-      <c r="AR83" t="inlineStr"/>
-      <c r="AS83" t="inlineStr"/>
-      <c r="AT83" t="inlineStr"/>
-      <c r="AU83" t="inlineStr"/>
-      <c r="AV83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n"/>
-      <c r="B84" s="1" t="inlineStr">
-        <is>
-          <t>LED Control Module</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="n">
-        <v>2</v>
-      </c>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="n">
-        <v>3</v>
-      </c>
-      <c r="V84" t="n">
-        <v>1</v>
-      </c>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr"/>
-      <c r="AB84" t="inlineStr"/>
-      <c r="AC84" t="inlineStr"/>
-      <c r="AD84" t="inlineStr"/>
-      <c r="AE84" t="inlineStr"/>
-      <c r="AF84" t="inlineStr"/>
-      <c r="AG84" t="inlineStr"/>
-      <c r="AH84" t="inlineStr"/>
-      <c r="AI84" t="inlineStr"/>
-      <c r="AJ84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK84" t="inlineStr"/>
-      <c r="AL84" t="inlineStr"/>
-      <c r="AM84" t="inlineStr"/>
-      <c r="AN84" t="inlineStr"/>
-      <c r="AO84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP84" t="inlineStr"/>
-      <c r="AQ84" t="inlineStr"/>
-      <c r="AR84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT84" t="inlineStr"/>
-      <c r="AU84" t="inlineStr"/>
-      <c r="AV84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n"/>
-      <c r="B85" s="1" t="inlineStr">
-        <is>
-          <t>Panoptix PS70 - (SSMB)</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>3</v>
-      </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
-      <c r="AA85" t="inlineStr"/>
-      <c r="AB85" t="inlineStr"/>
-      <c r="AC85" t="inlineStr"/>
-      <c r="AD85" t="inlineStr"/>
-      <c r="AE85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF85" t="inlineStr"/>
-      <c r="AG85" t="inlineStr"/>
-      <c r="AH85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI85" t="inlineStr"/>
-      <c r="AJ85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK85" t="inlineStr"/>
-      <c r="AL85" t="inlineStr"/>
-      <c r="AM85" t="inlineStr"/>
-      <c r="AN85" t="inlineStr"/>
-      <c r="AO85" t="inlineStr"/>
-      <c r="AP85" t="inlineStr"/>
-      <c r="AQ85" t="inlineStr"/>
-      <c r="AR85" t="inlineStr"/>
-      <c r="AS85" t="inlineStr"/>
-      <c r="AT85" t="inlineStr"/>
-      <c r="AU85" t="inlineStr"/>
-      <c r="AV85" t="inlineStr"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="C1:Y1"/>
     <mergeCell ref="Z1:AV1"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="A14:A30"/>
-    <mergeCell ref="A31:A48"/>
-    <mergeCell ref="A49:A57"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A28"/>
+    <mergeCell ref="A29:A46"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A56:A70"/>
+    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="A80:A82"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6301,7 +6123,7 @@
     <col width="39" customWidth="1" min="3" max="3"/>
     <col width="35" customWidth="1" min="4" max="4"/>
     <col width="24" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
     <col width="16" customWidth="1" min="9" max="9"/>
@@ -6394,17 +6216,17 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>16245</v>
+        <v>16227</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Online Map Service</t>
+          <t>TGWW25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>44774</v>
+        <v>45535</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
@@ -6426,17 +6248,17 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>16227</v>
+        <v>16499</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TGWW25</t>
+          <t>BMW Motorrad Connectivity unit RFQ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" s="2" t="n">
-        <v>45535</v>
+        <v>46022</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
@@ -6451,29 +6273,33 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>16499</v>
+        <v>16456</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BMW Motorrad Connectivity unit RFQ</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Descent T2 Transceiver</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44967</v>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" s="2" t="n">
-        <v>46022</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>45138</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45086</v>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6483,7 +6309,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Concepts</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>

--- a/GMLA loading analysis/PMsystem_PRweb/(Output) Data.xlsx
+++ b/GMLA loading analysis/PMsystem_PRweb/(Output) Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Overall" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ww_asia_diff_DPQE" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="projects_wo_DPQE" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="multi_dpqe" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Overall" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ww_asia_diff_DPQE" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="projects_wo_DPQE" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="multi_dpqe" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV82"/>
+  <dimension ref="A1:AV84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,24 +803,20 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Forerunner 265</t>
+          <t>Bounce(Waldo)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -839,17 +835,13 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
@@ -869,7 +861,7 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Forerunner 265s</t>
+          <t>Forerunner 265</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -935,27 +927,25 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Foretrex 801/901</t>
+          <t>Forerunner 265s</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
+      <c r="G6" t="n">
         <v>2</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
         <v>3</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -971,22 +961,20 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
@@ -1005,19 +993,27 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Lily 2</t>
+          <t>Foretrex 801/901</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -1025,9 +1021,7 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="n">
-        <v>1</v>
-      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
@@ -1035,14 +1029,22 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
+      <c r="AB7" t="n">
+        <v>1</v>
+      </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
       <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
+      <c r="AG7" t="n">
+        <v>1</v>
+      </c>
       <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
+      <c r="AI7" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
@@ -1050,9 +1052,7 @@
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
@@ -1063,15 +1063,13 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>MARQ Carbon</t>
+          <t>Lily 2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -1085,7 +1083,9 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
@@ -1094,9 +1094,7 @@
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
@@ -1110,7 +1108,9 @@
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
+      <c r="AQ8" t="n">
+        <v>1</v>
+      </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr"/>
@@ -1121,26 +1121,24 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Venu 3S</t>
+          <t>MARQ Carbon</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1154,20 +1152,18 @@
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
@@ -1183,30 +1179,26 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>fenix 7 Pro</t>
+          <t>Venu 3S</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
         <v>2</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
@@ -1219,25 +1211,21 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>1</v>
+      </c>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
@@ -1253,28 +1241,28 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>fenix 7X Pro</t>
+          <t>fenix 7 Pro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
         <v>3</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -1289,23 +1277,23 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="n">
+        <v>1</v>
+      </c>
       <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="n">
+        <v>1</v>
+      </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
@@ -1320,33 +1308,31 @@
       <c r="AV11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Hsu, Jason(PQE)</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>ECHOMAP UHD2 (Touch) 6"</t>
+          <t>fenix 7X Pro</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="n">
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
         <v>3</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
@@ -1360,22 +1346,24 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="n">
+        <v>1</v>
+      </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH12" t="inlineStr"/>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="n">
+        <v>1</v>
+      </c>
       <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
+      <c r="AJ12" t="n">
+        <v>1</v>
+      </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
@@ -1390,10 +1378,14 @@
       <c r="AV12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Hsu, Jason(PQE)</t>
+        </is>
+      </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>ECHOMAP UHD2 (Touch) 7"</t>
+          <t>ECHOMAP UHD2 (Touch) 6"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1459,7 +1451,7 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>ECHOMAP UHD2 (Touch) 9"</t>
+          <t>ECHOMAP UHD2 (Touch) 7"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1525,18 +1517,20 @@
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>FUSION - WB675 Hide Away Stereo</t>
+          <t>ECHOMAP UHD2 (Touch) 9"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
         <v>3</v>
       </c>
-      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>1</v>
       </c>
@@ -1556,14 +1550,16 @@
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
+      <c r="AA15" t="n">
+        <v>1</v>
+      </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="n">
+        <v>1</v>
+      </c>
       <c r="AG15" t="n">
         <v>1</v>
       </c>
@@ -1587,7 +1583,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Force Kraken Trolling Motor </t>
+          <t>FUSION - WB675 Hide Away Stereo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1595,21 +1591,19 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>3</v>
-      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
@@ -1624,21 +1618,19 @@
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
       <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr"/>
@@ -1653,31 +1645,29 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>GMR xHD3 Magnetron Open Arrays</t>
+          <t xml:space="preserve">Force Kraken Trolling Motor </t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>3</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -1688,27 +1678,25 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="n">
         <v>1</v>
       </c>
       <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="n">
+        <v>1</v>
+      </c>
       <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
+      <c r="AM17" t="n">
+        <v>1</v>
+      </c>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr"/>
@@ -1723,7 +1711,7 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>GPSMAP 9000 - 22"</t>
+          <t>GMR xHD3 Magnetron Open Arrays</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1733,21 +1721,21 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>3</v>
-      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
@@ -1764,21 +1752,21 @@
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
+      <c r="AE18" t="n">
+        <v>1</v>
+      </c>
       <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
       <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr"/>
@@ -1793,7 +1781,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>GPSMAP 9000 - 24"</t>
+          <t>GPSMAP 9000 - 22"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1863,7 +1851,7 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>GPSMAP 9000 -27"</t>
+          <t>GPSMAP 9000 - 24"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1933,7 +1921,7 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>GPSMAP 9000_Black Box</t>
+          <t>GPSMAP 9000 -27"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -2003,14 +1991,14 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>GSD28</t>
+          <t>GPSMAP 9000_Black Box</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -2020,14 +2008,14 @@
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>3</v>
       </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
@@ -2038,10 +2026,10 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
@@ -2051,14 +2039,14 @@
       </c>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="n">
+        <v>1</v>
+      </c>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr"/>
@@ -2073,30 +2061,30 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Next gen GMR magnetron domes -GMR 18HD+/xHD NEXT GEN</t>
+          <t>GSD28</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>3</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
@@ -2109,25 +2097,25 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="n">
         <v>1</v>
       </c>
       <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>1</v>
+      </c>
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
@@ -2143,7 +2131,7 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Next gen GMR magnetron domes -GMR 24 XHD NEXT GEN</t>
+          <t>Next gen GMR magnetron domes -GMR 18HD+/xHD NEXT GEN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -2213,7 +2201,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Prop Drive Cost Down</t>
+          <t>Next gen GMR magnetron domes -GMR 24 XHD NEXT GEN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -2223,25 +2211,25 @@
         <v>1</v>
       </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>2</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="n">
-        <v>1</v>
-      </c>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
@@ -2254,25 +2242,25 @@
         <v>1</v>
       </c>
       <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
+      <c r="AE25" t="n">
+        <v>1</v>
+      </c>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ25" t="inlineStr"/>
+      <c r="AH25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="n">
+        <v>1</v>
+      </c>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
       <c r="AT25" t="inlineStr"/>
@@ -2283,35 +2271,35 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>RV Fixed Displays - 10"</t>
+          <t>Prop Drive Cost Down</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="n">
-        <v>2</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>3</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
@@ -2319,18 +2307,14 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="n">
         <v>1</v>
@@ -2338,11 +2322,15 @@
       <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
+      <c r="AM26" t="n">
+        <v>1</v>
+      </c>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
+      <c r="AQ26" t="n">
+        <v>1</v>
+      </c>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="inlineStr"/>
@@ -2353,7 +2341,7 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>RV Fixed Displays - 7"</t>
+          <t>RV Fixed Displays - 10"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -2362,10 +2350,10 @@
         <v>1</v>
       </c>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="n">
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
         <v>2</v>
       </c>
-      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>3</v>
@@ -2393,10 +2381,10 @@
         <v>1</v>
       </c>
       <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="n">
+        <v>1</v>
+      </c>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="n">
         <v>1</v>
@@ -2423,21 +2411,27 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Tread - XL (10")</t>
+          <t>RV Fixed Displays - 7"</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>3</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2453,16 +2447,22 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
+      <c r="AE28" t="n">
+        <v>1</v>
+      </c>
       <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
+      <c r="AG28" t="n">
+        <v>1</v>
+      </c>
       <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
+      <c r="AI28" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
@@ -2478,31 +2478,23 @@
       <c r="AV28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Kuo, Chris</t>
-        </is>
-      </c>
+      <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Alpha Dog Collar</t>
+          <t>Tread - XL (10")</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>2</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -2520,18 +2512,14 @@
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
@@ -2548,10 +2536,14 @@
       <c r="AV29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n"/>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Kuo, Chris</t>
+        </is>
+      </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Approach Z50</t>
+          <t>Alpha Dog Collar</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -2561,15 +2553,15 @@
         <v>2</v>
       </c>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="n">
+      <c r="H30" t="n">
         <v>3</v>
       </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2590,15 +2582,15 @@
         <v>1</v>
       </c>
       <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
@@ -2617,26 +2609,28 @@
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Dash Cam Live (LTE)</t>
+          <t>Approach Z50</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="n">
-        <v>3</v>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
@@ -2650,9 +2644,7 @@
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="n">
         <v>1</v>
@@ -2661,9 +2653,13 @@
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
+      <c r="AJ31" t="n">
+        <v>1</v>
+      </c>
       <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
+      <c r="AL31" t="n">
+        <v>1</v>
+      </c>
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
@@ -2679,17 +2675,19 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Delta Simple</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
+          <t>Dash Cam Live (LTE)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -2707,14 +2705,16 @@
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
+      <c r="AC32" t="n">
+        <v>1</v>
+      </c>
       <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
+      <c r="AE32" t="n">
+        <v>1</v>
+      </c>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
@@ -2737,10 +2737,12 @@
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Descent X1i</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>Delta Simple</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
@@ -2755,21 +2757,17 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="n">
-        <v>1</v>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
-      <c r="X33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="n">
+        <v>1</v>
+      </c>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
@@ -2784,26 +2782,20 @@
       <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
       <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Edge 540 840</t>
+          <t>Descent X1i</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -2814,23 +2806,27 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>1</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
+      <c r="X34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1</v>
+      </c>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
@@ -2839,34 +2835,36 @@
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
       <c r="AK34" t="inlineStr"/>
       <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr"/>
+      <c r="AO34" t="n">
+        <v>1</v>
+      </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
       <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="inlineStr"/>
+      <c r="AU34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Edge Explore 2</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
+          <t>Edge 540 840</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
@@ -2874,7 +2872,9 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -2889,9 +2889,7 @@
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
@@ -2899,7 +2897,9 @@
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
+      <c r="AH35" t="n">
+        <v>1</v>
+      </c>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
@@ -2919,29 +2919,25 @@
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Tacx NEO 3M</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>Edge Explore 2</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="n">
-        <v>3</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1</v>
-      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
@@ -2951,26 +2947,22 @@
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
+      <c r="Z36" t="n">
+        <v>1</v>
+      </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr"/>
@@ -2985,27 +2977,29 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Tacx NEO Bike Plus</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>3</v>
-      </c>
+          <t>Tacx NEO 3M</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>3</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
@@ -3015,24 +3009,26 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
+      <c r="AF37" t="n">
+        <v>1</v>
+      </c>
       <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
       <c r="AK37" t="inlineStr"/>
-      <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="inlineStr"/>
+      <c r="AL37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1</v>
+      </c>
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr"/>
@@ -3047,7 +3043,7 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Tacx NEO Bike Plus_Shifter</t>
+          <t>Tacx NEO Bike Plus</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3109,28 +3105,24 @@
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>Varia eBike Radar Tail Light (eRTL615)</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
+          <t>Tacx NEO Bike Plus_Shifter</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>3</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
@@ -3143,25 +3135,21 @@
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
+      <c r="AC39" t="n">
+        <v>1</v>
+      </c>
       <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
       <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="inlineStr"/>
@@ -3179,17 +3167,23 @@
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>Xero B60i Laser Navigation Binoculars</t>
+          <t>Varia eBike Radar Tail Light (eRTL615)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
@@ -3200,27 +3194,27 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
-        <v>2</v>
-      </c>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="n">
-        <v>3</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1</v>
-      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
+      <c r="AA40" t="n">
+        <v>1</v>
+      </c>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
+      <c r="AE40" t="n">
+        <v>1</v>
+      </c>
       <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
+      <c r="AG40" t="n">
+        <v>1</v>
+      </c>
       <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="n">
@@ -3231,17 +3225,11 @@
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="inlineStr"/>
       <c r="AU40" t="inlineStr"/>
       <c r="AV40" t="inlineStr"/>
     </row>
@@ -3249,13 +3237,11 @@
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>Xero C1 Chronograph</t>
+          <t>Xero B60i Laser Navigation Binoculars</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
-        <v>2</v>
-      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3265,26 +3251,28 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="n">
-        <v>1</v>
-      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+      <c r="V41" t="n">
+        <v>3</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
@@ -3297,17 +3285,21 @@
         <v>1</v>
       </c>
       <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL41" t="inlineStr"/>
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="inlineStr"/>
+      <c r="AP41" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ41" t="inlineStr"/>
       <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr"/>
-      <c r="AT41" t="inlineStr"/>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>1</v>
+      </c>
       <c r="AU41" t="inlineStr"/>
       <c r="AV41" t="inlineStr"/>
     </row>
@@ -3315,19 +3307,23 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Xero G1(s) SatCom Scouting Camera</t>
+          <t>Xero C1 Chronograph</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>3</v>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -3344,15 +3340,19 @@
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
+      <c r="AA42" t="n">
+        <v>1</v>
+      </c>
       <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="n">
+        <v>1</v>
+      </c>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
+      <c r="AG42" t="n">
+        <v>1</v>
+      </c>
       <c r="AH42" t="inlineStr"/>
       <c r="AI42" t="inlineStr"/>
       <c r="AJ42" t="inlineStr"/>
@@ -3373,20 +3373,20 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Xero L60i Laser Navigator</t>
+          <t>Xero G1(s) SatCom Scouting Camera</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>2</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -3404,14 +3404,14 @@
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
+      <c r="AC43" t="n">
+        <v>1</v>
+      </c>
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr"/>
-      <c r="AH43" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
       <c r="AK43" t="inlineStr"/>
@@ -3431,65 +3431,65 @@
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>eTrex SE</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2</v>
-      </c>
+          <t>Xero L60i Laser Navigator</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="n">
-        <v>3</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
       <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr"/>
       <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
+      <c r="AJ44" t="n">
+        <v>1</v>
+      </c>
       <c r="AK44" t="inlineStr"/>
       <c r="AL44" t="inlineStr"/>
       <c r="AM44" t="inlineStr"/>
-      <c r="AN44" t="inlineStr"/>
+      <c r="AN44" t="n">
+        <v>1</v>
+      </c>
       <c r="AO44" t="inlineStr"/>
-      <c r="AP44" t="inlineStr"/>
+      <c r="AP44" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
@@ -3501,33 +3501,33 @@
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>eTrex Solar</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>eTrex SE</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
-        <v>2</v>
-      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="n">
-        <v>3</v>
-      </c>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="n">
-        <v>1</v>
-      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -3535,30 +3535,30 @@
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
+      <c r="Z45" t="n">
+        <v>1</v>
+      </c>
       <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
+      <c r="AB45" t="n">
+        <v>1</v>
+      </c>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="inlineStr"/>
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK45" t="inlineStr"/>
       <c r="AL45" t="inlineStr"/>
-      <c r="AM45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr"/>
-      <c r="AO45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
       <c r="AR45" t="inlineStr"/>
@@ -3571,27 +3571,33 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>inReach Messenger</t>
+          <t>eTrex Solar</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="n">
+        <v>2</v>
+      </c>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
@@ -3601,22 +3607,28 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr"/>
+      <c r="AG46" t="n">
+        <v>1</v>
+      </c>
       <c r="AH46" t="inlineStr"/>
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="inlineStr"/>
+      <c r="AK46" t="n">
+        <v>1</v>
+      </c>
       <c r="AL46" t="inlineStr"/>
-      <c r="AM46" t="inlineStr"/>
+      <c r="AM46" t="n">
+        <v>1</v>
+      </c>
       <c r="AN46" t="inlineStr"/>
-      <c r="AO46" t="inlineStr"/>
+      <c r="AO46" t="n">
+        <v>1</v>
+      </c>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
       <c r="AR46" t="inlineStr"/>
@@ -3626,35 +3638,25 @@
       <c r="AV46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>Lo, Aalto</t>
-        </is>
-      </c>
+      <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>Catalyst KMR - Camera</t>
+          <t>inReach Messenger</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>3</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
@@ -3668,24 +3670,18 @@
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="n">
+        <v>1</v>
+      </c>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
-      <c r="AG47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
       <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr"/>
@@ -3700,10 +3696,14 @@
       <c r="AV47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n"/>
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Lo, Aalto</t>
+        </is>
+      </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>Catalyst KMR - Display</t>
+          <t>Catalyst KMR - Camera</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -3713,14 +3713,12 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
         <v>3</v>
       </c>
-      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
@@ -3744,14 +3742,12 @@
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="n">
+        <v>1</v>
+      </c>
       <c r="AI48" t="inlineStr"/>
       <c r="AJ48" t="n">
         <v>1</v>
@@ -3773,7 +3769,7 @@
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>Catalyst KMR - Hub</t>
+          <t>Catalyst KMR - Display</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -3783,14 +3779,12 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
         <v>3</v>
       </c>
-      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
@@ -3814,14 +3808,12 @@
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="n">
+        <v>1</v>
+      </c>
       <c r="AI49" t="inlineStr"/>
       <c r="AJ49" t="n">
         <v>1</v>
@@ -3843,29 +3835,27 @@
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>Descent S1 Buoy</t>
+          <t>Catalyst KMR - Hub</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
+      <c r="K50" t="n">
         <v>3</v>
       </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
-        <v>1</v>
-      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
@@ -3878,25 +3868,23 @@
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
+      <c r="AA50" t="n">
+        <v>1</v>
+      </c>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr"/>
-      <c r="AH50" t="inlineStr"/>
-      <c r="AI50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ50" t="inlineStr"/>
-      <c r="AK50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr"/>
@@ -3913,29 +3901,29 @@
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 42mm</t>
+          <t>Descent S1 Buoy</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
         <v>2</v>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>3</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -3949,24 +3937,24 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="n">
         <v>1</v>
       </c>
       <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="inlineStr"/>
       <c r="AI51" t="n">
         <v>1</v>
       </c>
       <c r="AJ51" t="inlineStr"/>
-      <c r="AK51" t="inlineStr"/>
+      <c r="AK51" t="n">
+        <v>1</v>
+      </c>
       <c r="AL51" t="inlineStr"/>
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr"/>
@@ -3983,25 +3971,27 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>Forerunner 965</t>
+          <t>EPIX PRO (Gen 2) 42mm</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="n">
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
         <v>2</v>
       </c>
-      <c r="I52" t="n">
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
         <v>3</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -4018,19 +4008,21 @@
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG52" t="inlineStr"/>
-      <c r="AH52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI52" t="inlineStr"/>
+      <c r="AC52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ52" t="inlineStr"/>
       <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="inlineStr"/>
@@ -4049,7 +4041,7 @@
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>Instinct 2X Solar</t>
+          <t>Forerunner 965</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -4058,19 +4050,17 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
@@ -4099,9 +4089,7 @@
         <v>1</v>
       </c>
       <c r="AI53" t="inlineStr"/>
-      <c r="AJ53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ53" t="inlineStr"/>
       <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="inlineStr"/>
       <c r="AM53" t="inlineStr"/>
@@ -4119,24 +4107,28 @@
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>Instinct Hybrid Analog/Digital(Ripley)</t>
+          <t>Instinct 2X Solar</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="n">
-        <v>3</v>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
         <v>1</v>
       </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>3</v>
+      </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
@@ -4152,18 +4144,22 @@
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
       <c r="AE54" t="n">
         <v>1</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
+      <c r="AF54" t="n">
+        <v>1</v>
+      </c>
       <c r="AG54" t="inlineStr"/>
-      <c r="AH54" t="inlineStr"/>
+      <c r="AH54" t="n">
+        <v>1</v>
+      </c>
       <c r="AI54" t="inlineStr"/>
-      <c r="AJ54" t="inlineStr"/>
+      <c r="AJ54" t="n">
+        <v>1</v>
+      </c>
       <c r="AK54" t="inlineStr"/>
       <c r="AL54" t="inlineStr"/>
       <c r="AM54" t="inlineStr"/>
@@ -4181,17 +4177,19 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>vivomove Trend (previously "4")</t>
+          <t>Instinct Hybrid Analog/Digital(Ripley)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="n">
-        <v>2</v>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>3</v>
+      </c>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -4210,13 +4208,15 @@
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
+      <c r="AC55" t="n">
+        <v>1</v>
+      </c>
       <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="inlineStr"/>
+      <c r="AE55" t="n">
+        <v>1</v>
+      </c>
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
@@ -4236,34 +4236,26 @@
       <c r="AV55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Ni, Wendy</t>
-        </is>
-      </c>
+      <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>BlueNET Gateway</t>
+          <t>Venu Sq 2(IMP)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="n">
-        <v>2</v>
-      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>3</v>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
-        <v>1</v>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -4278,21 +4270,17 @@
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
-      <c r="AI56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI56" t="inlineStr"/>
       <c r="AJ56" t="inlineStr"/>
-      <c r="AK56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK56" t="inlineStr"/>
       <c r="AL56" t="inlineStr"/>
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr"/>
@@ -4309,27 +4297,23 @@
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>BlueNET Switch</t>
+          <t>vivomove Trend (previously "4")</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="n">
-        <v>2</v>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>3</v>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
-        <v>1</v>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -4342,23 +4326,19 @@
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
+      <c r="AA57" t="n">
+        <v>1</v>
+      </c>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI57" t="inlineStr"/>
       <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK57" t="inlineStr"/>
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr"/>
@@ -4372,30 +4352,34 @@
       <c r="AV57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n"/>
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Ni, Wendy</t>
+        </is>
+      </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>Drive 53</t>
+          <t>BlueNET Gateway</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="n">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
         <v>2</v>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="n">
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
         <v>3</v>
       </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -4410,21 +4394,21 @@
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG58" t="inlineStr"/>
       <c r="AH58" t="inlineStr"/>
-      <c r="AI58" t="inlineStr"/>
+      <c r="AI58" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ58" t="inlineStr"/>
-      <c r="AK58" t="inlineStr"/>
+      <c r="AK58" t="n">
+        <v>1</v>
+      </c>
       <c r="AL58" t="inlineStr"/>
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr"/>
@@ -4441,30 +4425,30 @@
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>Premium Dash Cams</t>
+          <t>BlueNET Switch</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>3</v>
+      </c>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="n">
-        <v>5</v>
-      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
@@ -4477,23 +4461,23 @@
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
+      <c r="AD59" t="n">
+        <v>1</v>
+      </c>
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG59" t="inlineStr"/>
       <c r="AH59" t="inlineStr"/>
-      <c r="AI59" t="inlineStr"/>
+      <c r="AI59" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ59" t="inlineStr"/>
-      <c r="AK59" t="inlineStr"/>
-      <c r="AL59" t="n">
-        <v>2</v>
-      </c>
+      <c r="AK59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL59" t="inlineStr"/>
       <c r="AM59" t="inlineStr"/>
-      <c r="AN59" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN59" t="inlineStr"/>
       <c r="AO59" t="inlineStr"/>
       <c r="AP59" t="inlineStr"/>
       <c r="AQ59" t="inlineStr"/>
@@ -4507,19 +4491,23 @@
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>RV/Camper 2022 - 7"</t>
+          <t>Drive 53</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="n">
-        <v>1</v>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -4536,15 +4524,19 @@
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
+      <c r="AC60" t="n">
+        <v>1</v>
+      </c>
       <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
+      <c r="AE60" t="n">
+        <v>1</v>
+      </c>
       <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="inlineStr"/>
+      <c r="AG60" t="n">
+        <v>1</v>
+      </c>
       <c r="AH60" t="inlineStr"/>
       <c r="AI60" t="inlineStr"/>
       <c r="AJ60" t="inlineStr"/>
@@ -4565,26 +4557,30 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>RV/Camper 2022 - 8"</t>
+          <t>Premium Dash Cams</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="n">
-        <v>1</v>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="O61" t="n">
+        <v>5</v>
+      </c>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
@@ -4594,22 +4590,26 @@
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
+      <c r="AG61" t="n">
+        <v>1</v>
+      </c>
       <c r="AH61" t="inlineStr"/>
       <c r="AI61" t="inlineStr"/>
       <c r="AJ61" t="inlineStr"/>
       <c r="AK61" t="inlineStr"/>
-      <c r="AL61" t="inlineStr"/>
+      <c r="AL61" t="n">
+        <v>2</v>
+      </c>
       <c r="AM61" t="inlineStr"/>
-      <c r="AN61" t="inlineStr"/>
+      <c r="AN61" t="n">
+        <v>1</v>
+      </c>
       <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="inlineStr"/>
@@ -4623,27 +4623,23 @@
       <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>Tire Temp Sensor</t>
+          <t>RV/Camper 2022 - 7"</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="n">
-        <v>1</v>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>3</v>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
-        <v>1</v>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -4656,23 +4652,19 @@
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
+      <c r="AA62" t="n">
+        <v>1</v>
+      </c>
       <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="inlineStr"/>
       <c r="AH62" t="inlineStr"/>
-      <c r="AI62" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI62" t="inlineStr"/>
       <c r="AJ62" t="inlineStr"/>
-      <c r="AK62" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK62" t="inlineStr"/>
       <c r="AL62" t="inlineStr"/>
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr"/>
@@ -4689,20 +4681,20 @@
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>Tread 8" OEM w/ CAN</t>
+          <t>RV/Camper 2022 - 8"</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>1</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
@@ -4718,16 +4710,16 @@
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
+      <c r="AA63" t="n">
+        <v>1</v>
+      </c>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="inlineStr"/>
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
-      <c r="AH63" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH63" t="inlineStr"/>
       <c r="AI63" t="inlineStr"/>
       <c r="AJ63" t="inlineStr"/>
       <c r="AK63" t="inlineStr"/>
@@ -4747,23 +4739,27 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>Tread Audio System</t>
+          <t>Tire Temp Sensor</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="n">
-        <v>1</v>
-      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>3</v>
+      </c>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -4776,19 +4772,23 @@
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
+      <c r="AC64" t="n">
+        <v>1</v>
+      </c>
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="inlineStr"/>
       <c r="AH64" t="inlineStr"/>
-      <c r="AI64" t="inlineStr"/>
+      <c r="AI64" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ64" t="inlineStr"/>
-      <c r="AK64" t="inlineStr"/>
+      <c r="AK64" t="n">
+        <v>1</v>
+      </c>
       <c r="AL64" t="inlineStr"/>
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr"/>
@@ -4805,12 +4805,10 @@
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022 - 6"</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
+          <t>Tread 8" OEM w/ CAN</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
@@ -4818,7 +4816,9 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -4833,9 +4833,7 @@
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
@@ -4843,7 +4841,9 @@
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr"/>
-      <c r="AH65" t="inlineStr"/>
+      <c r="AH65" t="n">
+        <v>1</v>
+      </c>
       <c r="AI65" t="inlineStr"/>
       <c r="AJ65" t="inlineStr"/>
       <c r="AK65" t="inlineStr"/>
@@ -4863,13 +4863,13 @@
       <c r="A66" s="1" t="n"/>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022 - 7"</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>Tread Audio System</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -4891,10 +4891,10 @@
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="n">
+        <v>1</v>
+      </c>
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="inlineStr"/>
@@ -4921,7 +4921,7 @@
       <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022 - 8"</t>
+          <t>dezl OTR Series 2022 - 6"</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -4979,7 +4979,7 @@
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022-10"</t>
+          <t>dezl OTR Series 2022 - 7"</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -5037,15 +5037,13 @@
       <c r="A69" s="1" t="n"/>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>dezlCam OTR710 &amp; RV 795</t>
+          <t>dezl OTR Series 2022 - 8"</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
@@ -5070,9 +5068,7 @@
       <c r="Z69" t="n">
         <v>1</v>
       </c>
-      <c r="AA69" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
       <c r="AD69" t="inlineStr"/>
@@ -5099,7 +5095,7 @@
       <c r="A70" s="1" t="n"/>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>zumo XT2</t>
+          <t>dezl OTR Series 2022-10"</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -5107,18 +5103,12 @@
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="n">
-        <v>2</v>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -5138,18 +5128,12 @@
       </c>
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
-      <c r="AC70" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr"/>
-      <c r="AF70" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="inlineStr"/>
-      <c r="AH70" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH70" t="inlineStr"/>
       <c r="AI70" t="inlineStr"/>
       <c r="AJ70" t="inlineStr"/>
       <c r="AK70" t="inlineStr"/>
@@ -5166,35 +5150,27 @@
       <c r="AV70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Wang, Cooper</t>
-        </is>
-      </c>
+      <c r="A71" s="1" t="n"/>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>Approach S70</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="n">
-        <v>1</v>
-      </c>
+          <t>dezlCam OTR710 &amp; RV 795</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>3</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
@@ -5207,25 +5183,21 @@
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
-      <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="inlineStr"/>
-      <c r="AE71" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
-      <c r="AH71" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH71" t="inlineStr"/>
       <c r="AI71" t="inlineStr"/>
-      <c r="AJ71" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ71" t="inlineStr"/>
       <c r="AK71" t="inlineStr"/>
       <c r="AL71" t="inlineStr"/>
       <c r="AM71" t="inlineStr"/>
@@ -5243,28 +5215,28 @@
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>Approach S70s</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>zumo XT2</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="n">
-        <v>1</v>
-      </c>
-      <c r="F72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>2</v>
+      </c>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>3</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
+      <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
@@ -5277,25 +5249,25 @@
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
+      <c r="Z72" t="n">
+        <v>1</v>
+      </c>
       <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="n">
+        <v>1</v>
+      </c>
       <c r="AD72" t="inlineStr"/>
-      <c r="AE72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="n">
+        <v>1</v>
+      </c>
       <c r="AG72" t="inlineStr"/>
       <c r="AH72" t="n">
         <v>1</v>
       </c>
       <c r="AI72" t="inlineStr"/>
-      <c r="AJ72" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ72" t="inlineStr"/>
       <c r="AK72" t="inlineStr"/>
       <c r="AL72" t="inlineStr"/>
       <c r="AM72" t="inlineStr"/>
@@ -5310,38 +5282,42 @@
       <c r="AV72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n"/>
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Wang, Cooper</t>
+        </is>
+      </c>
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>Descent Mk3 Series - Large</t>
+          <t>Approach S70</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>3</v>
+      </c>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
       <c r="N73" t="inlineStr"/>
-      <c r="O73" t="n">
-        <v>2</v>
-      </c>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="n">
-        <v>3</v>
-      </c>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
-      <c r="T73" t="n">
-        <v>1</v>
-      </c>
+      <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
@@ -5349,30 +5325,30 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
+      <c r="AB73" t="n">
+        <v>1</v>
+      </c>
       <c r="AC73" t="inlineStr"/>
       <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
+      <c r="AE73" t="n">
+        <v>1</v>
+      </c>
       <c r="AF73" t="inlineStr"/>
-      <c r="AG73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH73" t="inlineStr"/>
+      <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="n">
+        <v>1</v>
+      </c>
       <c r="AI73" t="inlineStr"/>
-      <c r="AJ73" t="inlineStr"/>
+      <c r="AJ73" t="n">
+        <v>1</v>
+      </c>
       <c r="AK73" t="inlineStr"/>
-      <c r="AL73" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL73" t="inlineStr"/>
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr"/>
-      <c r="AO73" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="inlineStr"/>
-      <c r="AQ73" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ73" t="inlineStr"/>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
       <c r="AT73" t="inlineStr"/>
@@ -5383,34 +5359,34 @@
       <c r="A74" s="1" t="n"/>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>Descent Mk3 Series - Small</t>
+          <t>Approach S70s</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>3</v>
+      </c>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
-        <v>2</v>
-      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
-        <v>1</v>
-      </c>
+      <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
@@ -5419,29 +5395,29 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr"/>
+      <c r="AB74" t="n">
+        <v>1</v>
+      </c>
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="inlineStr"/>
-      <c r="AE74" t="inlineStr"/>
-      <c r="AF74" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="inlineStr"/>
-      <c r="AH74" t="inlineStr"/>
+      <c r="AH74" t="n">
+        <v>1</v>
+      </c>
       <c r="AI74" t="inlineStr"/>
-      <c r="AJ74" t="inlineStr"/>
-      <c r="AK74" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK74" t="inlineStr"/>
       <c r="AL74" t="inlineStr"/>
       <c r="AM74" t="inlineStr"/>
-      <c r="AN74" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN74" t="inlineStr"/>
       <c r="AO74" t="inlineStr"/>
-      <c r="AP74" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP74" t="inlineStr"/>
       <c r="AQ74" t="inlineStr"/>
       <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr"/>
@@ -5453,35 +5429,35 @@
       <c r="A75" s="1" t="n"/>
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 47mm</t>
+          <t>Descent Mk3 Series - Large</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="n">
-        <v>1</v>
-      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" t="n">
-        <v>2</v>
-      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
+      <c r="O75" t="n">
+        <v>2</v>
+      </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
       <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
+      <c r="T75" t="n">
+        <v>1</v>
+      </c>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
@@ -5489,30 +5465,30 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
-      <c r="AD75" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD75" t="inlineStr"/>
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="n">
         <v>1</v>
       </c>
       <c r="AH75" t="inlineStr"/>
-      <c r="AI75" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI75" t="inlineStr"/>
       <c r="AJ75" t="inlineStr"/>
       <c r="AK75" t="inlineStr"/>
-      <c r="AL75" t="inlineStr"/>
+      <c r="AL75" t="n">
+        <v>1</v>
+      </c>
       <c r="AM75" t="inlineStr"/>
       <c r="AN75" t="inlineStr"/>
-      <c r="AO75" t="inlineStr"/>
+      <c r="AO75" t="n">
+        <v>1</v>
+      </c>
       <c r="AP75" t="inlineStr"/>
-      <c r="AQ75" t="inlineStr"/>
+      <c r="AQ75" t="n">
+        <v>1</v>
+      </c>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>
       <c r="AT75" t="inlineStr"/>
@@ -5523,34 +5499,34 @@
       <c r="A76" s="1" t="n"/>
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 51mm</t>
+          <t>Descent Mk3 Series - Small</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="n">
-        <v>1</v>
-      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="n">
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>2</v>
       </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>3</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
       <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
@@ -5559,29 +5535,29 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
-      <c r="AB76" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
-      <c r="AD76" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD76" t="inlineStr"/>
       <c r="AE76" t="inlineStr"/>
-      <c r="AF76" t="inlineStr"/>
-      <c r="AG76" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG76" t="inlineStr"/>
       <c r="AH76" t="inlineStr"/>
-      <c r="AI76" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI76" t="inlineStr"/>
       <c r="AJ76" t="inlineStr"/>
-      <c r="AK76" t="inlineStr"/>
+      <c r="AK76" t="n">
+        <v>1</v>
+      </c>
       <c r="AL76" t="inlineStr"/>
       <c r="AM76" t="inlineStr"/>
-      <c r="AN76" t="inlineStr"/>
+      <c r="AN76" t="n">
+        <v>1</v>
+      </c>
       <c r="AO76" t="inlineStr"/>
-      <c r="AP76" t="inlineStr"/>
+      <c r="AP76" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ76" t="inlineStr"/>
       <c r="AR76" t="inlineStr"/>
       <c r="AS76" t="inlineStr"/>
@@ -5593,23 +5569,27 @@
       <c r="A77" s="1" t="n"/>
       <c r="B77" s="1" t="inlineStr">
         <is>
-          <t>Marq (Gen 2)</t>
+          <t>EPIX PRO (Gen 2) 47mm</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="n">
-        <v>5</v>
-      </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>3</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -5625,18 +5605,22 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE77" t="inlineStr"/>
       <c r="AF77" t="inlineStr"/>
-      <c r="AG77" t="inlineStr"/>
+      <c r="AG77" t="n">
+        <v>1</v>
+      </c>
       <c r="AH77" t="inlineStr"/>
-      <c r="AI77" t="inlineStr"/>
+      <c r="AI77" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ77" t="inlineStr"/>
       <c r="AK77" t="inlineStr"/>
       <c r="AL77" t="inlineStr"/>
@@ -5655,26 +5639,30 @@
       <c r="A78" s="1" t="n"/>
       <c r="B78" s="1" t="inlineStr">
         <is>
-          <t>Venu 3</t>
+          <t>EPIX PRO (Gen 2) 51mm</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="n">
+      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>3</v>
+      </c>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
       <c r="N78" t="inlineStr"/>
-      <c r="O78" t="n">
-        <v>1</v>
-      </c>
+      <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
@@ -5687,21 +5675,25 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr"/>
+      <c r="AB78" t="n">
+        <v>1</v>
+      </c>
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="inlineStr"/>
-      <c r="AH78" t="inlineStr"/>
+      <c r="AH78" t="n">
+        <v>1</v>
+      </c>
       <c r="AI78" t="inlineStr"/>
-      <c r="AJ78" t="inlineStr"/>
+      <c r="AJ78" t="n">
+        <v>1</v>
+      </c>
       <c r="AK78" t="inlineStr"/>
-      <c r="AL78" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL78" t="inlineStr"/>
       <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="inlineStr"/>
       <c r="AO78" t="inlineStr"/>
@@ -5717,27 +5709,23 @@
       <c r="A79" s="1" t="n"/>
       <c r="B79" s="1" t="inlineStr">
         <is>
-          <t>fenix 7S Pro (2022)</t>
+          <t>Marq (Gen 2)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="n">
-        <v>1</v>
-      </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="n">
-        <v>2</v>
-      </c>
-      <c r="H79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>5</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>3</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -5753,22 +5741,18 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
-      <c r="AB79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC79" t="inlineStr"/>
-      <c r="AD79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="n">
+        <v>1</v>
+      </c>
       <c r="AF79" t="inlineStr"/>
-      <c r="AG79" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG79" t="inlineStr"/>
       <c r="AH79" t="inlineStr"/>
-      <c r="AI79" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI79" t="inlineStr"/>
       <c r="AJ79" t="inlineStr"/>
       <c r="AK79" t="inlineStr"/>
       <c r="AL79" t="inlineStr"/>
@@ -5784,38 +5768,30 @@
       <c r="AV79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>Wang, Evelyn</t>
-        </is>
-      </c>
+      <c r="A80" s="1" t="n"/>
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>GPSMAP 9000 - 19"</t>
+          <t>Venu 3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="n">
-        <v>1</v>
-      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
+      <c r="I80" t="n">
         <v>2</v>
       </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
-        <v>3</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="n">
-        <v>1</v>
-      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
@@ -5826,27 +5802,23 @@
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
-      <c r="AA80" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
       <c r="AC80" t="inlineStr"/>
       <c r="AD80" t="inlineStr"/>
       <c r="AE80" t="inlineStr"/>
-      <c r="AF80" t="inlineStr"/>
-      <c r="AG80" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG80" t="inlineStr"/>
       <c r="AH80" t="inlineStr"/>
       <c r="AI80" t="inlineStr"/>
       <c r="AJ80" t="inlineStr"/>
-      <c r="AK80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL80" t="inlineStr"/>
-      <c r="AM80" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="inlineStr"/>
       <c r="AO80" t="inlineStr"/>
       <c r="AP80" t="inlineStr"/>
@@ -5861,18 +5833,24 @@
       <c r="A81" s="1" t="n"/>
       <c r="B81" s="1" t="inlineStr">
         <is>
-          <t>LED Control Module</t>
+          <t>fenix 7S Pro (2022)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>3</v>
+      </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
@@ -5881,29 +5859,29 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="n">
-        <v>2</v>
-      </c>
+      <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
-      <c r="U81" t="n">
-        <v>3</v>
-      </c>
-      <c r="V81" t="n">
-        <v>1</v>
-      </c>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
-      <c r="AC81" t="inlineStr"/>
+      <c r="AC81" t="n">
+        <v>1</v>
+      </c>
       <c r="AD81" t="inlineStr"/>
-      <c r="AE81" t="inlineStr"/>
+      <c r="AE81" t="n">
+        <v>1</v>
+      </c>
       <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="inlineStr"/>
-      <c r="AH81" t="inlineStr"/>
+      <c r="AH81" t="n">
+        <v>1</v>
+      </c>
       <c r="AI81" t="inlineStr"/>
       <c r="AJ81" t="n">
         <v>1</v>
@@ -5912,48 +5890,48 @@
       <c r="AL81" t="inlineStr"/>
       <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="inlineStr"/>
-      <c r="AO81" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO81" t="inlineStr"/>
       <c r="AP81" t="inlineStr"/>
       <c r="AQ81" t="inlineStr"/>
-      <c r="AR81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS81" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR81" t="inlineStr"/>
+      <c r="AS81" t="inlineStr"/>
       <c r="AT81" t="inlineStr"/>
       <c r="AU81" t="inlineStr"/>
       <c r="AV81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n"/>
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Wang, Evelyn</t>
+        </is>
+      </c>
       <c r="B82" s="1" t="inlineStr">
         <is>
-          <t>Panoptix PS70 - (SSMB)</t>
+          <t>GPSMAP 9000 - 19"</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="n">
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
         <v>2</v>
       </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>3</v>
       </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
@@ -5964,25 +5942,27 @@
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
-      <c r="AA82" t="inlineStr"/>
+      <c r="AA82" t="n">
+        <v>1</v>
+      </c>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr"/>
-      <c r="AE82" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE82" t="inlineStr"/>
       <c r="AF82" t="inlineStr"/>
-      <c r="AG82" t="inlineStr"/>
-      <c r="AH82" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH82" t="inlineStr"/>
       <c r="AI82" t="inlineStr"/>
-      <c r="AJ82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK82" t="inlineStr"/>
+      <c r="AJ82" t="inlineStr"/>
+      <c r="AK82" t="n">
+        <v>1</v>
+      </c>
       <c r="AL82" t="inlineStr"/>
-      <c r="AM82" t="inlineStr"/>
+      <c r="AM82" t="n">
+        <v>1</v>
+      </c>
       <c r="AN82" t="inlineStr"/>
       <c r="AO82" t="inlineStr"/>
       <c r="AP82" t="inlineStr"/>
@@ -5993,17 +5973,153 @@
       <c r="AU82" t="inlineStr"/>
       <c r="AV82" t="inlineStr"/>
     </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>LED Control Module</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>1</v>
+      </c>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr"/>
+      <c r="AC83" t="inlineStr"/>
+      <c r="AD83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr"/>
+      <c r="AF83" t="inlineStr"/>
+      <c r="AG83" t="inlineStr"/>
+      <c r="AH83" t="inlineStr"/>
+      <c r="AI83" t="inlineStr"/>
+      <c r="AJ83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK83" t="inlineStr"/>
+      <c r="AL83" t="inlineStr"/>
+      <c r="AM83" t="inlineStr"/>
+      <c r="AN83" t="inlineStr"/>
+      <c r="AO83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP83" t="inlineStr"/>
+      <c r="AQ83" t="inlineStr"/>
+      <c r="AR83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT83" t="inlineStr"/>
+      <c r="AU83" t="inlineStr"/>
+      <c r="AV83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>Panoptix PS70 - (SSMB)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>3</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr"/>
+      <c r="AC84" t="inlineStr"/>
+      <c r="AD84" t="inlineStr"/>
+      <c r="AE84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF84" t="inlineStr"/>
+      <c r="AG84" t="inlineStr"/>
+      <c r="AH84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI84" t="inlineStr"/>
+      <c r="AJ84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK84" t="inlineStr"/>
+      <c r="AL84" t="inlineStr"/>
+      <c r="AM84" t="inlineStr"/>
+      <c r="AN84" t="inlineStr"/>
+      <c r="AO84" t="inlineStr"/>
+      <c r="AP84" t="inlineStr"/>
+      <c r="AQ84" t="inlineStr"/>
+      <c r="AR84" t="inlineStr"/>
+      <c r="AS84" t="inlineStr"/>
+      <c r="AT84" t="inlineStr"/>
+      <c r="AU84" t="inlineStr"/>
+      <c r="AV84" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="C1:Y1"/>
     <mergeCell ref="Z1:AV1"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A28"/>
-    <mergeCell ref="A29:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A56:A70"/>
-    <mergeCell ref="A71:A79"/>
-    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A13:A29"/>
+    <mergeCell ref="A30:A47"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A58:A72"/>
+    <mergeCell ref="A73:A81"/>
+    <mergeCell ref="A82:A84"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6527,7 +6643,7 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>44781</v>
+        <v>44797</v>
       </c>
     </row>
   </sheetData>

--- a/GMLA loading analysis/PMsystem_PRweb/(Output) Data.xlsx
+++ b/GMLA loading analysis/PMsystem_PRweb/(Output) Data.xlsx
@@ -481,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV84"/>
+  <dimension ref="A1:AV83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -998,10 +998,10 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>1</v>
+      </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
         <v>1</v>
@@ -2994,13 +2994,13 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="n">
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="n">
         <v>3</v>
       </c>
-      <c r="P37" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -3023,13 +3023,13 @@
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
       <c r="AK37" t="inlineStr"/>
-      <c r="AL37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="n">
         <v>1</v>
       </c>
-      <c r="AN37" t="inlineStr"/>
+      <c r="AN37" t="n">
+        <v>1</v>
+      </c>
       <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
@@ -3373,7 +3373,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Xero G1(s) SatCom Scouting Camera</t>
+          <t>Xero L60i Laser Navigator</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -3388,13 +3388,19 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
       <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -3413,13 +3419,19 @@
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
+      <c r="AJ43" t="n">
+        <v>1</v>
+      </c>
       <c r="AK43" t="inlineStr"/>
       <c r="AL43" t="inlineStr"/>
       <c r="AM43" t="inlineStr"/>
-      <c r="AN43" t="inlineStr"/>
+      <c r="AN43" t="n">
+        <v>1</v>
+      </c>
       <c r="AO43" t="inlineStr"/>
-      <c r="AP43" t="inlineStr"/>
+      <c r="AP43" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ43" t="inlineStr"/>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -3431,65 +3443,65 @@
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>Xero L60i Laser Navigator</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
+          <t>eTrex SE</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>2</v>
-      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
+      <c r="Z44" t="n">
+        <v>1</v>
+      </c>
       <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
+      <c r="AE44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1</v>
+      </c>
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr"/>
       <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ44" t="inlineStr"/>
       <c r="AK44" t="inlineStr"/>
       <c r="AL44" t="inlineStr"/>
       <c r="AM44" t="inlineStr"/>
-      <c r="AN44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
-      <c r="AP44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
@@ -3501,33 +3513,33 @@
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>eTrex SE</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>1</v>
-      </c>
+          <t>eTrex Solar</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="n">
-        <v>2</v>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
-        <v>3</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -3535,30 +3547,30 @@
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="n">
+        <v>1</v>
+      </c>
       <c r="AH45" t="inlineStr"/>
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="inlineStr"/>
+      <c r="AK45" t="n">
+        <v>1</v>
+      </c>
       <c r="AL45" t="inlineStr"/>
-      <c r="AM45" t="inlineStr"/>
+      <c r="AM45" t="n">
+        <v>1</v>
+      </c>
       <c r="AN45" t="inlineStr"/>
-      <c r="AO45" t="inlineStr"/>
+      <c r="AO45" t="n">
+        <v>1</v>
+      </c>
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
       <c r="AR45" t="inlineStr"/>
@@ -3571,33 +3583,27 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>eTrex Solar</t>
+          <t>inReach Messenger</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
-        <v>2</v>
-      </c>
+      <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="n">
-        <v>3</v>
-      </c>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="n">
-        <v>1</v>
-      </c>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
@@ -3607,28 +3613,22 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
+      <c r="AB46" t="n">
+        <v>1</v>
+      </c>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="inlineStr"/>
-      <c r="AM46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr"/>
-      <c r="AO46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
       <c r="AR46" t="inlineStr"/>
@@ -3638,25 +3638,33 @@
       <c r="AV46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n"/>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Lo, Aalto</t>
+        </is>
+      </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>inReach Messenger</t>
+          <t>Catalyst KMR - Camera</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>3</v>
+      </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
@@ -3670,18 +3678,22 @@
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
-      <c r="AH47" t="inlineStr"/>
+      <c r="AH47" t="n">
+        <v>1</v>
+      </c>
       <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="inlineStr"/>
+      <c r="AJ47" t="n">
+        <v>1</v>
+      </c>
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr"/>
@@ -3696,14 +3708,10 @@
       <c r="AV47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>Lo, Aalto</t>
-        </is>
-      </c>
+      <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>Catalyst KMR - Camera</t>
+          <t>Catalyst KMR - Display</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -3769,7 +3777,7 @@
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>Catalyst KMR - Display</t>
+          <t>Catalyst KMR - Hub</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -3835,27 +3843,29 @@
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>Catalyst KMR - Hub</t>
+          <t>Descent S1 Buoy</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
         <v>3</v>
       </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
@@ -3868,23 +3878,25 @@
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
+      <c r="AD50" t="n">
+        <v>1</v>
+      </c>
       <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="inlineStr"/>
+      <c r="AF50" t="n">
+        <v>1</v>
+      </c>
       <c r="AG50" t="inlineStr"/>
-      <c r="AH50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI50" t="inlineStr"/>
-      <c r="AJ50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="n">
+        <v>1</v>
+      </c>
       <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr"/>
@@ -3901,29 +3913,29 @@
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>Descent S1 Buoy</t>
+          <t>EPIX PRO (Gen 2) 42mm</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="n">
-        <v>2</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>3</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
-        <v>1</v>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -3938,23 +3950,23 @@
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
+      <c r="AC51" t="n">
+        <v>1</v>
+      </c>
       <c r="AD51" t="n">
         <v>1</v>
       </c>
       <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="n">
+        <v>1</v>
+      </c>
       <c r="AH51" t="inlineStr"/>
       <c r="AI51" t="n">
         <v>1</v>
       </c>
       <c r="AJ51" t="inlineStr"/>
-      <c r="AK51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK51" t="inlineStr"/>
       <c r="AL51" t="inlineStr"/>
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr"/>
@@ -3971,27 +3983,25 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 42mm</t>
+          <t>Forerunner 965</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" t="n">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
         <v>2</v>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
+      <c r="I52" t="n">
         <v>3</v>
       </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -4008,21 +4018,19 @@
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH52" t="inlineStr"/>
-      <c r="AI52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI52" t="inlineStr"/>
       <c r="AJ52" t="inlineStr"/>
       <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="inlineStr"/>
@@ -4041,7 +4049,7 @@
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>Forerunner 965</t>
+          <t>Instinct 2X Solar</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -4050,17 +4058,19 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
         <v>2</v>
       </c>
-      <c r="I53" t="n">
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
         <v>3</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
@@ -4081,15 +4091,17 @@
       <c r="AE53" t="n">
         <v>1</v>
       </c>
-      <c r="AF53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG53" t="inlineStr"/>
-      <c r="AH53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI53" t="inlineStr"/>
-      <c r="AJ53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1</v>
+      </c>
       <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="inlineStr"/>
       <c r="AM53" t="inlineStr"/>
@@ -4107,28 +4119,24 @@
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>Instinct 2X Solar</t>
+          <t>Instinct Hybrid Analog/Digital(Ripley)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
         <v>1</v>
       </c>
-      <c r="I54" t="n">
-        <v>2</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>3</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
@@ -4144,22 +4152,18 @@
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
+      <c r="AC54" t="n">
+        <v>1</v>
+      </c>
       <c r="AD54" t="inlineStr"/>
       <c r="AE54" t="n">
         <v>1</v>
       </c>
-      <c r="AF54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
-      <c r="AH54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH54" t="inlineStr"/>
       <c r="AI54" t="inlineStr"/>
-      <c r="AJ54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="inlineStr"/>
       <c r="AL54" t="inlineStr"/>
       <c r="AM54" t="inlineStr"/>
@@ -4177,19 +4181,17 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>Instinct Hybrid Analog/Digital(Ripley)</t>
+          <t>Venu Sq 2(IMP)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -4214,9 +4216,7 @@
         <v>1</v>
       </c>
       <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
@@ -4239,18 +4239,20 @@
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>Venu Sq 2(IMP)</t>
+          <t>vivomove Trend (previously "4")</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
@@ -4268,14 +4270,16 @@
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
+      <c r="AA56" t="n">
+        <v>1</v>
+      </c>
       <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="inlineStr"/>
+      <c r="AF56" t="n">
+        <v>1</v>
+      </c>
       <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
       <c r="AI56" t="inlineStr"/>
@@ -4294,26 +4298,34 @@
       <c r="AV56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n"/>
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Ni, Wendy</t>
+        </is>
+      </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>vivomove Trend (previously "4")</t>
+          <t>BlueNET Gateway</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="n">
-        <v>2</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>3</v>
+      </c>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -4326,19 +4338,23 @@
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
+      <c r="AD57" t="n">
+        <v>1</v>
+      </c>
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="inlineStr"/>
+      <c r="AI57" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="inlineStr"/>
+      <c r="AK57" t="n">
+        <v>1</v>
+      </c>
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr"/>
@@ -4352,14 +4368,10 @@
       <c r="AV57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Ni, Wendy</t>
-        </is>
-      </c>
+      <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>BlueNET Gateway</t>
+          <t>BlueNET Switch</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -4425,27 +4437,27 @@
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>BlueNET Switch</t>
+          <t>Drive 53</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="n">
+      <c r="F59" t="n">
         <v>2</v>
       </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>3</v>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
-        <v>1</v>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -4460,21 +4472,21 @@
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE59" t="inlineStr"/>
+      <c r="AC59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="n">
+        <v>1</v>
+      </c>
       <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr"/>
+      <c r="AG59" t="n">
+        <v>1</v>
+      </c>
       <c r="AH59" t="inlineStr"/>
-      <c r="AI59" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI59" t="inlineStr"/>
       <c r="AJ59" t="inlineStr"/>
-      <c r="AK59" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK59" t="inlineStr"/>
       <c r="AL59" t="inlineStr"/>
       <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr"/>
@@ -4491,19 +4503,15 @@
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>Drive 53</t>
+          <t>Premium Dash Cams</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="n">
-        <v>2</v>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="n">
-        <v>3</v>
-      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>1</v>
@@ -4512,9 +4520,13 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="O60" t="n">
+        <v>5</v>
+      </c>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -4526,13 +4538,9 @@
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="n">
         <v>1</v>
@@ -4541,9 +4549,13 @@
       <c r="AI60" t="inlineStr"/>
       <c r="AJ60" t="inlineStr"/>
       <c r="AK60" t="inlineStr"/>
-      <c r="AL60" t="inlineStr"/>
+      <c r="AL60" t="n">
+        <v>2</v>
+      </c>
       <c r="AM60" t="inlineStr"/>
-      <c r="AN60" t="inlineStr"/>
+      <c r="AN60" t="n">
+        <v>1</v>
+      </c>
       <c r="AO60" t="inlineStr"/>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
@@ -4557,30 +4569,26 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>Premium Dash Cams</t>
+          <t>RV/Camper 2022 - 7"</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="n">
-        <v>5</v>
-      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
@@ -4590,26 +4598,22 @@
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
+      <c r="AA61" t="n">
+        <v>1</v>
+      </c>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG61" t="inlineStr"/>
       <c r="AH61" t="inlineStr"/>
       <c r="AI61" t="inlineStr"/>
       <c r="AJ61" t="inlineStr"/>
       <c r="AK61" t="inlineStr"/>
-      <c r="AL61" t="n">
-        <v>2</v>
-      </c>
+      <c r="AL61" t="inlineStr"/>
       <c r="AM61" t="inlineStr"/>
-      <c r="AN61" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN61" t="inlineStr"/>
       <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="inlineStr"/>
@@ -4623,7 +4627,7 @@
       <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>RV/Camper 2022 - 7"</t>
+          <t>RV/Camper 2022 - 8"</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -4681,23 +4685,27 @@
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>RV/Camper 2022 - 8"</t>
+          <t>Tire Temp Sensor</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="n">
-        <v>1</v>
-      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>3</v>
+      </c>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -4710,19 +4718,23 @@
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
+      <c r="AC63" t="n">
+        <v>1</v>
+      </c>
       <c r="AD63" t="inlineStr"/>
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
       <c r="AH63" t="inlineStr"/>
-      <c r="AI63" t="inlineStr"/>
+      <c r="AI63" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ63" t="inlineStr"/>
-      <c r="AK63" t="inlineStr"/>
+      <c r="AK63" t="n">
+        <v>1</v>
+      </c>
       <c r="AL63" t="inlineStr"/>
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr"/>
@@ -4739,27 +4751,23 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>Tire Temp Sensor</t>
+          <t>Tread 8" OEM w/ CAN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="n">
-        <v>1</v>
-      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>3</v>
-      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
-        <v>1</v>
-      </c>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -4774,21 +4782,17 @@
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC64" t="inlineStr"/>
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="inlineStr"/>
-      <c r="AH64" t="inlineStr"/>
-      <c r="AI64" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI64" t="inlineStr"/>
       <c r="AJ64" t="inlineStr"/>
-      <c r="AK64" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK64" t="inlineStr"/>
       <c r="AL64" t="inlineStr"/>
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr"/>
@@ -4805,20 +4809,20 @@
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>Tread 8" OEM w/ CAN</t>
+          <t>Tread Audio System</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>1</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -4834,16 +4838,16 @@
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
+      <c r="AA65" t="n">
+        <v>1</v>
+      </c>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr"/>
-      <c r="AH65" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH65" t="inlineStr"/>
       <c r="AI65" t="inlineStr"/>
       <c r="AJ65" t="inlineStr"/>
       <c r="AK65" t="inlineStr"/>
@@ -4863,13 +4867,13 @@
       <c r="A66" s="1" t="n"/>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>Tread Audio System</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="n">
-        <v>1</v>
-      </c>
+          <t>dezl OTR Series 2022 - 6"</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -4891,10 +4895,10 @@
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="inlineStr"/>
@@ -4921,7 +4925,7 @@
       <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022 - 6"</t>
+          <t>dezl OTR Series 2022 - 7"</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -4979,7 +4983,7 @@
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022 - 7"</t>
+          <t>dezl OTR Series 2022 - 8"</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -5037,7 +5041,7 @@
       <c r="A69" s="1" t="n"/>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022 - 8"</t>
+          <t>dezl OTR Series 2022-10"</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -5095,13 +5099,15 @@
       <c r="A70" s="1" t="n"/>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022-10"</t>
+          <t>dezlCam OTR710 &amp; RV 795</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -5126,7 +5132,9 @@
       <c r="Z70" t="n">
         <v>1</v>
       </c>
-      <c r="AA70" t="inlineStr"/>
+      <c r="AA70" t="n">
+        <v>1</v>
+      </c>
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
@@ -5153,22 +5161,26 @@
       <c r="A71" s="1" t="n"/>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>dezlCam OTR710 &amp; RV 795</t>
+          <t>zumo XT2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>2</v>
+      </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
@@ -5186,16 +5198,20 @@
       <c r="Z71" t="n">
         <v>1</v>
       </c>
-      <c r="AA71" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
-      <c r="AC71" t="inlineStr"/>
+      <c r="AC71" t="n">
+        <v>1</v>
+      </c>
       <c r="AD71" t="inlineStr"/>
       <c r="AE71" t="inlineStr"/>
-      <c r="AF71" t="inlineStr"/>
+      <c r="AF71" t="n">
+        <v>1</v>
+      </c>
       <c r="AG71" t="inlineStr"/>
-      <c r="AH71" t="inlineStr"/>
+      <c r="AH71" t="n">
+        <v>1</v>
+      </c>
       <c r="AI71" t="inlineStr"/>
       <c r="AJ71" t="inlineStr"/>
       <c r="AK71" t="inlineStr"/>
@@ -5212,31 +5228,35 @@
       <c r="AV71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n"/>
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Wang, Cooper</t>
+        </is>
+      </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>zumo XT2</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>1</v>
-      </c>
+          <t>Approach S70</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="n">
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="n">
         <v>2</v>
       </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="n">
-        <v>3</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
@@ -5249,25 +5269,25 @@
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="inlineStr"/>
-      <c r="AC72" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
-      <c r="AE72" t="inlineStr"/>
-      <c r="AF72" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="inlineStr"/>
       <c r="AH72" t="n">
         <v>1</v>
       </c>
       <c r="AI72" t="inlineStr"/>
-      <c r="AJ72" t="inlineStr"/>
+      <c r="AJ72" t="n">
+        <v>1</v>
+      </c>
       <c r="AK72" t="inlineStr"/>
       <c r="AL72" t="inlineStr"/>
       <c r="AM72" t="inlineStr"/>
@@ -5282,14 +5302,10 @@
       <c r="AV72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Wang, Cooper</t>
-        </is>
-      </c>
+      <c r="A73" s="1" t="n"/>
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>Approach S70</t>
+          <t>Approach S70s</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -5359,35 +5375,35 @@
       <c r="A74" s="1" t="n"/>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>Approach S70s</t>
+          <t>Descent Mk3 Series - Large</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="n">
-        <v>1</v>
-      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="n">
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="n">
         <v>2</v>
       </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>3</v>
-      </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
       <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
+      <c r="T74" t="n">
+        <v>1</v>
+      </c>
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
@@ -5395,30 +5411,30 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="inlineStr"/>
-      <c r="AE74" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr"/>
-      <c r="AG74" t="inlineStr"/>
-      <c r="AH74" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH74" t="inlineStr"/>
       <c r="AI74" t="inlineStr"/>
-      <c r="AJ74" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ74" t="inlineStr"/>
       <c r="AK74" t="inlineStr"/>
-      <c r="AL74" t="inlineStr"/>
+      <c r="AL74" t="n">
+        <v>1</v>
+      </c>
       <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="inlineStr"/>
-      <c r="AO74" t="inlineStr"/>
+      <c r="AO74" t="n">
+        <v>1</v>
+      </c>
       <c r="AP74" t="inlineStr"/>
-      <c r="AQ74" t="inlineStr"/>
+      <c r="AQ74" t="n">
+        <v>1</v>
+      </c>
       <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr"/>
       <c r="AT74" t="inlineStr"/>
@@ -5429,7 +5445,7 @@
       <c r="A75" s="1" t="n"/>
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>Descent Mk3 Series - Large</t>
+          <t>Descent Mk3 Series - Small</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -5438,26 +5454,26 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="n">
+      <c r="N75" t="n">
         <v>2</v>
       </c>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="n">
+      <c r="Q75" t="n">
         <v>3</v>
       </c>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="n">
-        <v>1</v>
-      </c>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
@@ -5469,26 +5485,26 @@
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
       <c r="AE75" t="inlineStr"/>
-      <c r="AF75" t="inlineStr"/>
-      <c r="AG75" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG75" t="inlineStr"/>
       <c r="AH75" t="inlineStr"/>
       <c r="AI75" t="inlineStr"/>
       <c r="AJ75" t="inlineStr"/>
-      <c r="AK75" t="inlineStr"/>
-      <c r="AL75" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL75" t="inlineStr"/>
       <c r="AM75" t="inlineStr"/>
-      <c r="AN75" t="inlineStr"/>
-      <c r="AO75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP75" t="inlineStr"/>
-      <c r="AQ75" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO75" t="inlineStr"/>
+      <c r="AP75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ75" t="inlineStr"/>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>
       <c r="AT75" t="inlineStr"/>
@@ -5499,34 +5515,34 @@
       <c r="A76" s="1" t="n"/>
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>Descent Mk3 Series - Small</t>
+          <t>EPIX PRO (Gen 2) 47mm</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>3</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
-        <v>2</v>
-      </c>
+      <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
-        <v>1</v>
-      </c>
+      <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
@@ -5535,29 +5551,29 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
-      <c r="AB76" t="inlineStr"/>
+      <c r="AB76" t="n">
+        <v>1</v>
+      </c>
       <c r="AC76" t="inlineStr"/>
-      <c r="AD76" t="inlineStr"/>
+      <c r="AD76" t="n">
+        <v>1</v>
+      </c>
       <c r="AE76" t="inlineStr"/>
-      <c r="AF76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
+      <c r="AG76" t="n">
+        <v>1</v>
+      </c>
       <c r="AH76" t="inlineStr"/>
-      <c r="AI76" t="inlineStr"/>
+      <c r="AI76" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ76" t="inlineStr"/>
-      <c r="AK76" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK76" t="inlineStr"/>
       <c r="AL76" t="inlineStr"/>
       <c r="AM76" t="inlineStr"/>
-      <c r="AN76" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN76" t="inlineStr"/>
       <c r="AO76" t="inlineStr"/>
-      <c r="AP76" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP76" t="inlineStr"/>
       <c r="AQ76" t="inlineStr"/>
       <c r="AR76" t="inlineStr"/>
       <c r="AS76" t="inlineStr"/>
@@ -5569,7 +5585,7 @@
       <c r="A77" s="1" t="n"/>
       <c r="B77" s="1" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 47mm</t>
+          <t>EPIX PRO (Gen 2) 51mm</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -5578,19 +5594,19 @@
         <v>1</v>
       </c>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" t="n">
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="n">
         <v>2</v>
       </c>
-      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
         <v>3</v>
       </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
@@ -5609,19 +5625,19 @@
         <v>1</v>
       </c>
       <c r="AC77" t="inlineStr"/>
-      <c r="AD77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="n">
+        <v>1</v>
+      </c>
       <c r="AF77" t="inlineStr"/>
-      <c r="AG77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH77" t="inlineStr"/>
-      <c r="AI77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ77" t="inlineStr"/>
+      <c r="AG77" t="inlineStr"/>
+      <c r="AH77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI77" t="inlineStr"/>
+      <c r="AJ77" t="n">
+        <v>1</v>
+      </c>
       <c r="AK77" t="inlineStr"/>
       <c r="AL77" t="inlineStr"/>
       <c r="AM77" t="inlineStr"/>
@@ -5639,28 +5655,24 @@
       <c r="A78" s="1" t="n"/>
       <c r="B78" s="1" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 51mm</t>
+          <t>Marq (Gen 2)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="n">
-        <v>1</v>
-      </c>
-      <c r="F78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>5</v>
+      </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>3</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
@@ -5675,23 +5687,19 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="n">
+        <v>2</v>
+      </c>
       <c r="AD78" t="inlineStr"/>
       <c r="AE78" t="n">
         <v>1</v>
       </c>
       <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="inlineStr"/>
-      <c r="AH78" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH78" t="inlineStr"/>
       <c r="AI78" t="inlineStr"/>
-      <c r="AJ78" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ78" t="inlineStr"/>
       <c r="AK78" t="inlineStr"/>
       <c r="AL78" t="inlineStr"/>
       <c r="AM78" t="inlineStr"/>
@@ -5709,26 +5717,26 @@
       <c r="A79" s="1" t="n"/>
       <c r="B79" s="1" t="inlineStr">
         <is>
-          <t>Marq (Gen 2)</t>
+          <t>Venu 3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="n">
-        <v>5</v>
-      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>2</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
+      <c r="O79" t="n">
+        <v>1</v>
+      </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
@@ -5742,20 +5750,20 @@
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
-      <c r="AC79" t="n">
-        <v>2</v>
-      </c>
+      <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="n">
+        <v>1</v>
+      </c>
       <c r="AG79" t="inlineStr"/>
       <c r="AH79" t="inlineStr"/>
       <c r="AI79" t="inlineStr"/>
       <c r="AJ79" t="inlineStr"/>
       <c r="AK79" t="inlineStr"/>
-      <c r="AL79" t="inlineStr"/>
+      <c r="AL79" t="n">
+        <v>1</v>
+      </c>
       <c r="AM79" t="inlineStr"/>
       <c r="AN79" t="inlineStr"/>
       <c r="AO79" t="inlineStr"/>
@@ -5771,26 +5779,30 @@
       <c r="A80" s="1" t="n"/>
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>Venu 3</t>
+          <t>fenix 7S Pro (2022)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="n">
+      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>3</v>
+      </c>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
       <c r="N80" t="inlineStr"/>
-      <c r="O80" t="n">
-        <v>1</v>
-      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
@@ -5804,20 +5816,24 @@
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
-      <c r="AC80" t="inlineStr"/>
+      <c r="AC80" t="n">
+        <v>1</v>
+      </c>
       <c r="AD80" t="inlineStr"/>
-      <c r="AE80" t="inlineStr"/>
-      <c r="AF80" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="inlineStr"/>
-      <c r="AH80" t="inlineStr"/>
+      <c r="AH80" t="n">
+        <v>1</v>
+      </c>
       <c r="AI80" t="inlineStr"/>
-      <c r="AJ80" t="inlineStr"/>
+      <c r="AJ80" t="n">
+        <v>1</v>
+      </c>
       <c r="AK80" t="inlineStr"/>
-      <c r="AL80" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL80" t="inlineStr"/>
       <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="inlineStr"/>
       <c r="AO80" t="inlineStr"/>
@@ -5830,34 +5846,38 @@
       <c r="AV80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n"/>
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Wang, Evelyn</t>
+        </is>
+      </c>
       <c r="B81" s="1" t="inlineStr">
         <is>
-          <t>fenix 7S Pro (2022)</t>
+          <t>GPSMAP 9000 - 19"</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="n">
-        <v>1</v>
-      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="n">
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
         <v>2</v>
       </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>3</v>
       </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
@@ -5868,27 +5888,27 @@
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
-      <c r="AA81" t="inlineStr"/>
+      <c r="AA81" t="n">
+        <v>1</v>
+      </c>
       <c r="AB81" t="inlineStr"/>
-      <c r="AC81" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC81" t="inlineStr"/>
       <c r="AD81" t="inlineStr"/>
-      <c r="AE81" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE81" t="inlineStr"/>
       <c r="AF81" t="inlineStr"/>
-      <c r="AG81" t="inlineStr"/>
-      <c r="AH81" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH81" t="inlineStr"/>
       <c r="AI81" t="inlineStr"/>
-      <c r="AJ81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK81" t="inlineStr"/>
+      <c r="AJ81" t="inlineStr"/>
+      <c r="AK81" t="n">
+        <v>1</v>
+      </c>
       <c r="AL81" t="inlineStr"/>
-      <c r="AM81" t="inlineStr"/>
+      <c r="AM81" t="n">
+        <v>1</v>
+      </c>
       <c r="AN81" t="inlineStr"/>
       <c r="AO81" t="inlineStr"/>
       <c r="AP81" t="inlineStr"/>
@@ -5900,75 +5920,71 @@
       <c r="AV81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>Wang, Evelyn</t>
-        </is>
-      </c>
+      <c r="A82" s="1" t="n"/>
       <c r="B82" s="1" t="inlineStr">
         <is>
-          <t>GPSMAP 9000 - 19"</t>
+          <t>LED Control Module</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="n">
-        <v>1</v>
-      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>2</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
-        <v>3</v>
-      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
-      <c r="P82" t="n">
-        <v>1</v>
-      </c>
+      <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>1</v>
+      </c>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
-      <c r="AA82" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr"/>
       <c r="AE82" t="inlineStr"/>
       <c r="AF82" t="inlineStr"/>
-      <c r="AG82" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG82" t="inlineStr"/>
       <c r="AH82" t="inlineStr"/>
       <c r="AI82" t="inlineStr"/>
-      <c r="AJ82" t="inlineStr"/>
-      <c r="AK82" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK82" t="inlineStr"/>
       <c r="AL82" t="inlineStr"/>
-      <c r="AM82" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="inlineStr"/>
-      <c r="AO82" t="inlineStr"/>
+      <c r="AO82" t="n">
+        <v>1</v>
+      </c>
       <c r="AP82" t="inlineStr"/>
       <c r="AQ82" t="inlineStr"/>
-      <c r="AR82" t="inlineStr"/>
-      <c r="AS82" t="inlineStr"/>
+      <c r="AR82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1</v>
+      </c>
       <c r="AT82" t="inlineStr"/>
       <c r="AU82" t="inlineStr"/>
       <c r="AV82" t="inlineStr"/>
@@ -5977,7 +5993,7 @@
       <c r="A83" s="1" t="n"/>
       <c r="B83" s="1" t="inlineStr">
         <is>
-          <t>LED Control Module</t>
+          <t>Panoptix PS70 - (SSMB)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -5985,10 +6001,14 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>3</v>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
@@ -5997,17 +6017,11 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="n">
-        <v>2</v>
-      </c>
+      <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
-      <c r="U83" t="n">
-        <v>3</v>
-      </c>
-      <c r="V83" t="n">
-        <v>1</v>
-      </c>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
@@ -6016,10 +6030,14 @@
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
       <c r="AD83" t="inlineStr"/>
-      <c r="AE83" t="inlineStr"/>
+      <c r="AE83" t="n">
+        <v>1</v>
+      </c>
       <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="inlineStr"/>
-      <c r="AH83" t="inlineStr"/>
+      <c r="AH83" t="n">
+        <v>1</v>
+      </c>
       <c r="AI83" t="inlineStr"/>
       <c r="AJ83" t="n">
         <v>1</v>
@@ -6028,86 +6046,14 @@
       <c r="AL83" t="inlineStr"/>
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr"/>
-      <c r="AO83" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO83" t="inlineStr"/>
       <c r="AP83" t="inlineStr"/>
       <c r="AQ83" t="inlineStr"/>
-      <c r="AR83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS83" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR83" t="inlineStr"/>
+      <c r="AS83" t="inlineStr"/>
       <c r="AT83" t="inlineStr"/>
       <c r="AU83" t="inlineStr"/>
       <c r="AV83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n"/>
-      <c r="B84" s="1" t="inlineStr">
-        <is>
-          <t>Panoptix PS70 - (SSMB)</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>3</v>
-      </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr"/>
-      <c r="AB84" t="inlineStr"/>
-      <c r="AC84" t="inlineStr"/>
-      <c r="AD84" t="inlineStr"/>
-      <c r="AE84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF84" t="inlineStr"/>
-      <c r="AG84" t="inlineStr"/>
-      <c r="AH84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI84" t="inlineStr"/>
-      <c r="AJ84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK84" t="inlineStr"/>
-      <c r="AL84" t="inlineStr"/>
-      <c r="AM84" t="inlineStr"/>
-      <c r="AN84" t="inlineStr"/>
-      <c r="AO84" t="inlineStr"/>
-      <c r="AP84" t="inlineStr"/>
-      <c r="AQ84" t="inlineStr"/>
-      <c r="AR84" t="inlineStr"/>
-      <c r="AS84" t="inlineStr"/>
-      <c r="AT84" t="inlineStr"/>
-      <c r="AU84" t="inlineStr"/>
-      <c r="AV84" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6115,11 +6061,11 @@
     <mergeCell ref="Z1:AV1"/>
     <mergeCell ref="A4:A12"/>
     <mergeCell ref="A13:A29"/>
-    <mergeCell ref="A30:A47"/>
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="A58:A72"/>
-    <mergeCell ref="A73:A81"/>
-    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A30:A46"/>
+    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="A72:A80"/>
+    <mergeCell ref="A81:A83"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6332,17 +6278,17 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>16227</v>
+        <v>16499</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TGWW25</t>
+          <t>BMW Motorrad Connectivity unit RFQ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>45535</v>
+        <v>46022</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
@@ -6357,24 +6303,24 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>16499</v>
+        <v>16590</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BMW Motorrad Connectivity unit RFQ</t>
+          <t>PGWW23</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" s="2" t="n">
-        <v>46022</v>
+        <v>45194</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">

--- a/GMLA loading analysis/PMsystem_PRweb/(Output) Data.xlsx
+++ b/GMLA loading analysis/PMsystem_PRweb/(Output) Data.xlsx
@@ -481,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV83"/>
+  <dimension ref="A1:AV81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1711,15 +1711,15 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>GMR xHD3 Magnetron Open Arrays</t>
+          <t>GMR xHD3 Domes (18/24xHD replacement)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
         <v>2</v>
@@ -1746,11 +1746,11 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
+      <c r="AC18" t="n">
+        <v>1</v>
+      </c>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="n">
         <v>1</v>
@@ -1781,7 +1781,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>GPSMAP 9000 - 22"</t>
+          <t>GMR xHD3 Magnetron Open Arrays</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1791,21 +1791,21 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>3</v>
-      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
@@ -1822,21 +1822,21 @@
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
+      <c r="AE19" t="n">
+        <v>1</v>
+      </c>
       <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="n">
+        <v>1</v>
+      </c>
       <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr"/>
@@ -1851,7 +1851,7 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>GPSMAP 9000 - 24"</t>
+          <t>GPSMAP 9000 - 22"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1921,7 +1921,7 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>GPSMAP 9000 -27"</t>
+          <t>GPSMAP 9000 - 24"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1991,7 +1991,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>GPSMAP 9000_Black Box</t>
+          <t>GPSMAP 9000 -27"</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -2061,14 +2061,14 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>GSD28</t>
+          <t>GPSMAP 9000_Black Box</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -2078,14 +2078,14 @@
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>3</v>
       </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
@@ -2096,10 +2096,10 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
@@ -2109,14 +2109,14 @@
       </c>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr"/>
@@ -2131,30 +2131,30 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Next gen GMR magnetron domes -GMR 18HD+/xHD NEXT GEN</t>
+          <t>GSD28</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
         <v>2</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>3</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
@@ -2167,25 +2167,25 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="n">
         <v>1</v>
       </c>
       <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1</v>
+      </c>
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
@@ -2201,7 +2201,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Next gen GMR magnetron domes -GMR 24 XHD NEXT GEN</t>
+          <t>Prop Drive Cost Down</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -2211,25 +2211,25 @@
         <v>1</v>
       </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>3</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
@@ -2242,25 +2242,25 @@
         <v>1</v>
       </c>
       <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
+      <c r="AQ25" t="n">
+        <v>1</v>
+      </c>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
       <c r="AT25" t="inlineStr"/>
@@ -2271,35 +2271,35 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Prop Drive Cost Down</t>
+          <t>RV Fixed Displays - 10"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="n">
-        <v>3</v>
-      </c>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="n">
-        <v>1</v>
-      </c>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
@@ -2307,14 +2307,18 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
+      <c r="AE26" t="n">
+        <v>1</v>
+      </c>
       <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
+      <c r="AG26" t="n">
+        <v>1</v>
+      </c>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="n">
         <v>1</v>
@@ -2322,15 +2326,11 @@
       <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="inlineStr"/>
@@ -2341,7 +2341,7 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>RV Fixed Displays - 10"</t>
+          <t>RV Fixed Displays - 7"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -2411,27 +2411,21 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>RV Fixed Displays - 7"</t>
+          <t>Tread - XL (10")</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>3</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2447,22 +2441,16 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
@@ -2478,23 +2466,31 @@
       <c r="AV28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Kuo, Chris</t>
+        </is>
+      </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Tread - XL (10")</t>
+          <t>Alpha Dog Collar</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -2512,14 +2508,18 @@
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE29" t="inlineStr"/>
+      <c r="AC29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="n">
+        <v>1</v>
+      </c>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
+      <c r="AH29" t="n">
+        <v>1</v>
+      </c>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
@@ -2536,35 +2536,31 @@
       <c r="AV29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Kuo, Chris</t>
-        </is>
-      </c>
+      <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Alpha Dog Collar</t>
+          <t>Approach Z50</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="n">
-        <v>2</v>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
@@ -2578,22 +2574,22 @@
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="n">
         <v>1</v>
       </c>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
+      <c r="AJ30" t="n">
+        <v>1</v>
+      </c>
       <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
+      <c r="AL30" t="n">
+        <v>1</v>
+      </c>
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
@@ -2609,28 +2605,26 @@
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Approach Z50</t>
+          <t>Dash Cam Live (LTE)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>3</v>
-      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="n">
-        <v>1</v>
-      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
@@ -2644,7 +2638,9 @@
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
+      <c r="AC31" t="n">
+        <v>1</v>
+      </c>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="n">
         <v>1</v>
@@ -2653,13 +2649,9 @@
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
@@ -2675,19 +2667,15 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Dash Cam Live (LTE)</t>
+          <t>Descent X1i</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="n">
-        <v>3</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -2697,24 +2685,26 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
+      <c r="X32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1</v>
+      </c>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
@@ -2724,25 +2714,29 @@
       <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr"/>
+      <c r="AO32" t="n">
+        <v>1</v>
+      </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
       <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="inlineStr"/>
-      <c r="AV32" t="inlineStr"/>
+      <c r="AU32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Delta Simple</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
+          <t>Edge 540 840</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
@@ -2750,7 +2744,9 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -2765,9 +2761,7 @@
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
@@ -2775,7 +2769,9 @@
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
+      <c r="AH33" t="n">
+        <v>1</v>
+      </c>
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
@@ -2795,10 +2791,12 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Descent X1i</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>Edge Explore 2</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
@@ -2813,21 +2811,17 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="n">
-        <v>1</v>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
-      <c r="X34" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="n">
+        <v>1</v>
+      </c>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
@@ -2842,26 +2836,20 @@
       <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
       <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Edge 540 840</t>
+          <t>Tacx NEO 3M</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -2870,17 +2858,21 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>1</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -2895,17 +2887,21 @@
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
+      <c r="AF35" t="n">
+        <v>1</v>
+      </c>
       <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr"/>
-      <c r="AN35" t="inlineStr"/>
+      <c r="AM35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1</v>
+      </c>
       <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
@@ -2919,15 +2915,17 @@
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Edge Explore 2</t>
+          <t>Tacx NEO Bike Plus</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -2952,7 +2950,9 @@
       </c>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
+      <c r="AC36" t="n">
+        <v>1</v>
+      </c>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
@@ -2977,30 +2977,28 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Tacx NEO 3M</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>Tacx NEO Bike Plus_Shifter</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -3009,27 +3007,25 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
+      <c r="Z37" t="n">
+        <v>1</v>
+      </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
+      <c r="AC37" t="n">
+        <v>1</v>
+      </c>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
       <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
@@ -3043,24 +3039,28 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Tacx NEO Bike Plus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+          <t>Varia eBike Radar Tail Light (eRTL615)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
         <v>3</v>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
@@ -3073,21 +3073,25 @@
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="n">
+        <v>1</v>
+      </c>
       <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
+      <c r="AE38" t="n">
+        <v>1</v>
+      </c>
       <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
       <c r="AH38" t="inlineStr"/>
       <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
+      <c r="AJ38" t="n">
+        <v>1</v>
+      </c>
       <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr"/>
       <c r="AM38" t="inlineStr"/>
@@ -3105,61 +3109,69 @@
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>Tacx NEO Bike Plus_Shifter</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>3</v>
-      </c>
+          <t>Xero B60i Laser Navigation Binoculars</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="V39" t="n">
+        <v>3</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1</v>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
       <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
+      <c r="AJ39" t="n">
+        <v>1</v>
+      </c>
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="inlineStr"/>
+      <c r="AP39" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ39" t="inlineStr"/>
       <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="inlineStr"/>
-      <c r="AT39" t="inlineStr"/>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>1</v>
+      </c>
       <c r="AU39" t="inlineStr"/>
       <c r="AV39" t="inlineStr"/>
     </row>
@@ -3167,28 +3179,26 @@
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>Varia eBike Radar Tail Light (eRTL615)</t>
+          <t>Xero C1 Chronograph</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
@@ -3207,19 +3217,17 @@
       </c>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="n">
         <v>1</v>
       </c>
       <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ40" t="inlineStr"/>
       <c r="AK40" t="inlineStr"/>
       <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="inlineStr"/>
@@ -3237,13 +3245,15 @@
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>Xero B60i Laser Navigation Binoculars</t>
+          <t>Xero L60i Laser Navigator</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -3251,30 +3261,30 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="n">
-        <v>3</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1</v>
-      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
+      <c r="AC41" t="n">
+        <v>1</v>
+      </c>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
@@ -3287,19 +3297,17 @@
       <c r="AK41" t="inlineStr"/>
       <c r="AL41" t="inlineStr"/>
       <c r="AM41" t="inlineStr"/>
-      <c r="AN41" t="inlineStr"/>
+      <c r="AN41" t="n">
+        <v>1</v>
+      </c>
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="n">
         <v>1</v>
       </c>
       <c r="AQ41" t="inlineStr"/>
       <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="inlineStr"/>
       <c r="AU41" t="inlineStr"/>
       <c r="AV41" t="inlineStr"/>
     </row>
@@ -3307,23 +3315,25 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Xero C1 Chronograph</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
+          <t>eTrex SE</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
         <v>2</v>
       </c>
-      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="n">
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
         <v>3</v>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -3339,20 +3349,22 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB42" t="inlineStr"/>
+      <c r="Z42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="n">
+        <v>1</v>
+      </c>
       <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="inlineStr"/>
       <c r="AI42" t="inlineStr"/>
       <c r="AJ42" t="inlineStr"/>
@@ -3373,34 +3385,34 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Xero L60i Laser Navigator</t>
+          <t>eTrex Solar</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="n">
-        <v>1</v>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>2</v>
       </c>
-      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="n">
+      <c r="P43" t="n">
         <v>3</v>
       </c>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -3410,28 +3422,28 @@
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
+      <c r="AG43" t="n">
+        <v>1</v>
+      </c>
       <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="n">
+        <v>1</v>
+      </c>
       <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr"/>
-      <c r="AN43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO43" t="inlineStr"/>
-      <c r="AP43" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -3443,24 +3455,18 @@
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>eTrex SE</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
+          <t>inReach Messenger</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>3</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
@@ -3477,21 +3483,15 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="n">
         <v>1</v>
       </c>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr"/>
       <c r="AI44" t="inlineStr"/>
@@ -3510,36 +3510,38 @@
       <c r="AV44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n"/>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Lo, Aalto</t>
+        </is>
+      </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>eTrex Solar</t>
+          <t>Catalyst KMR - Camera</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>3</v>
+      </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
-        <v>2</v>
-      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="n">
-        <v>3</v>
-      </c>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="n">
-        <v>1</v>
-      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -3548,29 +3550,27 @@
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
+      <c r="AA45" t="n">
+        <v>1</v>
+      </c>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="n">
+        <v>1</v>
+      </c>
       <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK45" t="inlineStr"/>
       <c r="AL45" t="inlineStr"/>
-      <c r="AM45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr"/>
-      <c r="AO45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
       <c r="AR45" t="inlineStr"/>
@@ -3583,22 +3583,26 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>inReach Messenger</t>
+          <t>Catalyst KMR - Display</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>3</v>
+      </c>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
@@ -3612,18 +3616,22 @@
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="inlineStr"/>
+      <c r="AH46" t="n">
+        <v>1</v>
+      </c>
       <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
+      <c r="AJ46" t="n">
+        <v>1</v>
+      </c>
       <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="inlineStr"/>
       <c r="AM46" t="inlineStr"/>
@@ -3638,14 +3646,10 @@
       <c r="AV46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>Lo, Aalto</t>
-        </is>
-      </c>
+      <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>Catalyst KMR - Camera</t>
+          <t>Catalyst KMR - Hub</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -3711,30 +3715,32 @@
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>Catalyst KMR - Display</t>
+          <t>Descent S1 Buoy</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
         <v>3</v>
       </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -3744,26 +3750,28 @@
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
+      <c r="AD48" t="n">
+        <v>1</v>
+      </c>
       <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="inlineStr"/>
+      <c r="AF48" t="n">
+        <v>1</v>
+      </c>
       <c r="AG48" t="inlineStr"/>
-      <c r="AH48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI48" t="inlineStr"/>
-      <c r="AJ48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ48" t="inlineStr"/>
       <c r="AK48" t="inlineStr"/>
       <c r="AL48" t="inlineStr"/>
       <c r="AM48" t="inlineStr"/>
-      <c r="AN48" t="inlineStr"/>
+      <c r="AN48" t="n">
+        <v>1</v>
+      </c>
       <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="inlineStr"/>
       <c r="AQ48" t="inlineStr"/>
@@ -3777,26 +3785,28 @@
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>Catalyst KMR - Hub</t>
+          <t>EPIX PRO (Gen 2) 42mm</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
+      <c r="J49" t="n">
         <v>3</v>
       </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
@@ -3810,22 +3820,24 @@
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
+      <c r="AC49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1</v>
+      </c>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="inlineStr"/>
-      <c r="AH49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ49" t="inlineStr"/>
       <c r="AK49" t="inlineStr"/>
       <c r="AL49" t="inlineStr"/>
       <c r="AM49" t="inlineStr"/>
@@ -3843,29 +3855,27 @@
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>Descent S1 Buoy</t>
+          <t>Forerunner 965</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>3</v>
-      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
-        <v>1</v>
-      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
@@ -3881,22 +3891,20 @@
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="n">
+        <v>1</v>
+      </c>
       <c r="AF50" t="n">
         <v>1</v>
       </c>
       <c r="AG50" t="inlineStr"/>
-      <c r="AH50" t="inlineStr"/>
-      <c r="AI50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI50" t="inlineStr"/>
       <c r="AJ50" t="inlineStr"/>
-      <c r="AK50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr"/>
@@ -3913,28 +3921,28 @@
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 42mm</t>
+          <t>Instinct 2X Solar</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2</v>
-      </c>
-      <c r="H51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
@@ -3950,13 +3958,11 @@
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="n">
+        <v>1</v>
+      </c>
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="n">
         <v>1</v>
@@ -3965,7 +3971,9 @@
       <c r="AI51" t="n">
         <v>1</v>
       </c>
-      <c r="AJ51" t="inlineStr"/>
+      <c r="AJ51" t="n">
+        <v>1</v>
+      </c>
       <c r="AK51" t="inlineStr"/>
       <c r="AL51" t="inlineStr"/>
       <c r="AM51" t="inlineStr"/>
@@ -3983,24 +3991,22 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>Forerunner 965</t>
+          <t>Instinct Hybrid Analog/Digital(Ripley)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>1</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
@@ -4018,18 +4024,16 @@
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
+      <c r="AC52" t="n">
+        <v>1</v>
+      </c>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="n">
         <v>1</v>
       </c>
-      <c r="AF52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr"/>
-      <c r="AH52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH52" t="inlineStr"/>
       <c r="AI52" t="inlineStr"/>
       <c r="AJ52" t="inlineStr"/>
       <c r="AK52" t="inlineStr"/>
@@ -4049,28 +4053,22 @@
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>Instinct 2X Solar</t>
+          <t>Venu Sq 2(IMP)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>2</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>3</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
@@ -4086,22 +4084,16 @@
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="inlineStr"/>
+      <c r="AC53" t="n">
+        <v>1</v>
+      </c>
       <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr"/>
-      <c r="AG53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="inlineStr"/>
-      <c r="AI53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="inlineStr"/>
       <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="inlineStr"/>
       <c r="AM53" t="inlineStr"/>
@@ -4119,20 +4111,20 @@
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>Instinct Hybrid Analog/Digital(Ripley)</t>
+          <t>vivomove Trend (previously "4")</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="n">
-        <v>3</v>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
@@ -4150,16 +4142,16 @@
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
+      <c r="AA54" t="n">
+        <v>1</v>
+      </c>
       <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="n">
+        <v>1</v>
+      </c>
       <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="inlineStr"/>
       <c r="AI54" t="inlineStr"/>
@@ -4178,26 +4170,34 @@
       <c r="AV54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n"/>
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Ni, Wendy</t>
+        </is>
+      </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>Venu Sq 2(IMP)</t>
+          <t>BlueNET Gateway</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>3</v>
+      </c>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -4212,17 +4212,21 @@
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="n">
+        <v>1</v>
+      </c>
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
-      <c r="AI55" t="inlineStr"/>
+      <c r="AI55" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ55" t="inlineStr"/>
-      <c r="AK55" t="inlineStr"/>
+      <c r="AK55" t="n">
+        <v>1</v>
+      </c>
       <c r="AL55" t="inlineStr"/>
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr"/>
@@ -4239,25 +4243,27 @@
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>vivomove Trend (previously "4")</t>
+          <t>BlueNET Switch</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="n">
-        <v>2</v>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>3</v>
+      </c>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -4270,21 +4276,23 @@
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr"/>
+      <c r="AD56" t="n">
+        <v>1</v>
+      </c>
       <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
-      <c r="AI56" t="inlineStr"/>
+      <c r="AI56" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ56" t="inlineStr"/>
-      <c r="AK56" t="inlineStr"/>
+      <c r="AK56" t="n">
+        <v>1</v>
+      </c>
       <c r="AL56" t="inlineStr"/>
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr"/>
@@ -4298,34 +4306,30 @@
       <c r="AV56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Ni, Wendy</t>
-        </is>
-      </c>
+      <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>BlueNET Gateway</t>
+          <t>Drive 53</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="n">
+      <c r="F57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>3</v>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
-        <v>1</v>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -4340,21 +4344,21 @@
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE57" t="inlineStr"/>
+      <c r="AC57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="n">
+        <v>1</v>
+      </c>
       <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr"/>
+      <c r="AG57" t="n">
+        <v>1</v>
+      </c>
       <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI57" t="inlineStr"/>
       <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK57" t="inlineStr"/>
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr"/>
@@ -4371,30 +4375,30 @@
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>BlueNET Switch</t>
+          <t>Premium Dash Cams</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="n">
-        <v>2</v>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>3</v>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
-        <v>1</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="n">
+        <v>5</v>
+      </c>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -4407,23 +4411,23 @@
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD58" t="inlineStr"/>
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
+      <c r="AG58" t="n">
+        <v>1</v>
+      </c>
       <c r="AH58" t="inlineStr"/>
-      <c r="AI58" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI58" t="inlineStr"/>
       <c r="AJ58" t="inlineStr"/>
-      <c r="AK58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="n">
+        <v>2</v>
+      </c>
       <c r="AM58" t="inlineStr"/>
-      <c r="AN58" t="inlineStr"/>
+      <c r="AN58" t="n">
+        <v>1</v>
+      </c>
       <c r="AO58" t="inlineStr"/>
       <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr"/>
@@ -4437,23 +4441,19 @@
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>Drive 53</t>
+          <t>RV/Camper 2022 - 7"</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="n">
-        <v>2</v>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="n">
-        <v>3</v>
-      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -4470,19 +4470,15 @@
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
+      <c r="AA59" t="n">
+        <v>1</v>
+      </c>
       <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG59" t="inlineStr"/>
       <c r="AH59" t="inlineStr"/>
       <c r="AI59" t="inlineStr"/>
       <c r="AJ59" t="inlineStr"/>
@@ -4503,30 +4499,26 @@
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>Premium Dash Cams</t>
+          <t>RV/Camper 2022 - 8"</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>1</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="n">
-        <v>5</v>
-      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -4536,26 +4528,22 @@
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
+      <c r="AA60" t="n">
+        <v>1</v>
+      </c>
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG60" t="inlineStr"/>
       <c r="AH60" t="inlineStr"/>
       <c r="AI60" t="inlineStr"/>
       <c r="AJ60" t="inlineStr"/>
       <c r="AK60" t="inlineStr"/>
-      <c r="AL60" t="n">
-        <v>2</v>
-      </c>
+      <c r="AL60" t="inlineStr"/>
       <c r="AM60" t="inlineStr"/>
-      <c r="AN60" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN60" t="inlineStr"/>
       <c r="AO60" t="inlineStr"/>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
@@ -4569,23 +4557,27 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>RV/Camper 2022 - 7"</t>
+          <t>Tire Temp Sensor</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="n">
-        <v>1</v>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>3</v>
+      </c>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -4598,19 +4590,23 @@
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
+      <c r="AC61" t="n">
+        <v>1</v>
+      </c>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="inlineStr"/>
       <c r="AH61" t="inlineStr"/>
-      <c r="AI61" t="inlineStr"/>
+      <c r="AI61" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ61" t="inlineStr"/>
-      <c r="AK61" t="inlineStr"/>
+      <c r="AK61" t="n">
+        <v>1</v>
+      </c>
       <c r="AL61" t="inlineStr"/>
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr"/>
@@ -4627,20 +4623,20 @@
       <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>RV/Camper 2022 - 8"</t>
+          <t>Tread 8" OEM w/ CAN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -4656,16 +4652,16 @@
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="inlineStr"/>
-      <c r="AH62" t="inlineStr"/>
+      <c r="AH62" t="n">
+        <v>1</v>
+      </c>
       <c r="AI62" t="inlineStr"/>
       <c r="AJ62" t="inlineStr"/>
       <c r="AK62" t="inlineStr"/>
@@ -4685,27 +4681,23 @@
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>Tire Temp Sensor</t>
+          <t>Tread Audio System</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="n">
-        <v>1</v>
-      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>3</v>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
-        <v>1</v>
-      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -4718,23 +4710,19 @@
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
+      <c r="AA63" t="n">
+        <v>1</v>
+      </c>
       <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="inlineStr"/>
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
       <c r="AH63" t="inlineStr"/>
-      <c r="AI63" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI63" t="inlineStr"/>
       <c r="AJ63" t="inlineStr"/>
-      <c r="AK63" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK63" t="inlineStr"/>
       <c r="AL63" t="inlineStr"/>
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr"/>
@@ -4751,10 +4739,12 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>Tread 8" OEM w/ CAN</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
+          <t>dezl OTR Series 2022 - 6"</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
@@ -4762,9 +4752,7 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>1</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
@@ -4779,7 +4767,9 @@
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
+      <c r="Z64" t="n">
+        <v>1</v>
+      </c>
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
@@ -4787,9 +4777,7 @@
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="inlineStr"/>
-      <c r="AH64" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH64" t="inlineStr"/>
       <c r="AI64" t="inlineStr"/>
       <c r="AJ64" t="inlineStr"/>
       <c r="AK64" t="inlineStr"/>
@@ -4809,13 +4797,13 @@
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>Tread Audio System</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="n">
-        <v>1</v>
-      </c>
+          <t>dezl OTR Series 2022 - 7"</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
@@ -4837,10 +4825,10 @@
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
@@ -4867,7 +4855,7 @@
       <c r="A66" s="1" t="n"/>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022 - 6"</t>
+          <t>dezl OTR Series 2022 - 8"</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -4925,7 +4913,7 @@
       <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022 - 7"</t>
+          <t>dezl OTR Series 2022-10"</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -4983,13 +4971,15 @@
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022 - 8"</t>
+          <t>dezlCam OTR710 &amp; RV 795</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
@@ -5014,7 +5004,9 @@
       <c r="Z68" t="n">
         <v>1</v>
       </c>
-      <c r="AA68" t="inlineStr"/>
+      <c r="AA68" t="n">
+        <v>1</v>
+      </c>
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="inlineStr"/>
@@ -5041,7 +5033,7 @@
       <c r="A69" s="1" t="n"/>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022-10"</t>
+          <t>zumo XT2</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -5049,12 +5041,18 @@
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>2</v>
+      </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>3</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
@@ -5074,12 +5072,18 @@
       </c>
       <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="inlineStr"/>
-      <c r="AC69" t="inlineStr"/>
+      <c r="AC69" t="n">
+        <v>1</v>
+      </c>
       <c r="AD69" t="inlineStr"/>
       <c r="AE69" t="inlineStr"/>
-      <c r="AF69" t="inlineStr"/>
+      <c r="AF69" t="n">
+        <v>1</v>
+      </c>
       <c r="AG69" t="inlineStr"/>
-      <c r="AH69" t="inlineStr"/>
+      <c r="AH69" t="n">
+        <v>1</v>
+      </c>
       <c r="AI69" t="inlineStr"/>
       <c r="AJ69" t="inlineStr"/>
       <c r="AK69" t="inlineStr"/>
@@ -5096,27 +5100,35 @@
       <c r="AV69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n"/>
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Wang, Cooper</t>
+        </is>
+      </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>dezlCam OTR710 &amp; RV 795</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>3</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" t="inlineStr"/>
+          <t>Approach S70</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>3</v>
+      </c>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
@@ -5129,21 +5141,25 @@
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="n">
+        <v>1</v>
+      </c>
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
-      <c r="AE70" t="inlineStr"/>
+      <c r="AE70" t="n">
+        <v>1</v>
+      </c>
       <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="inlineStr"/>
-      <c r="AH70" t="inlineStr"/>
+      <c r="AH70" t="n">
+        <v>1</v>
+      </c>
       <c r="AI70" t="inlineStr"/>
-      <c r="AJ70" t="inlineStr"/>
+      <c r="AJ70" t="n">
+        <v>1</v>
+      </c>
       <c r="AK70" t="inlineStr"/>
       <c r="AL70" t="inlineStr"/>
       <c r="AM70" t="inlineStr"/>
@@ -5161,28 +5177,28 @@
       <c r="A71" s="1" t="n"/>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>zumo XT2</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>1</v>
-      </c>
+          <t>Approach S70s</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="n">
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="n">
         <v>2</v>
       </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="n">
-        <v>3</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
@@ -5195,25 +5211,25 @@
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="inlineStr"/>
-      <c r="AC71" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="inlineStr"/>
-      <c r="AE71" t="inlineStr"/>
-      <c r="AF71" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
       <c r="AH71" t="n">
         <v>1</v>
       </c>
       <c r="AI71" t="inlineStr"/>
-      <c r="AJ71" t="inlineStr"/>
+      <c r="AJ71" t="n">
+        <v>1</v>
+      </c>
       <c r="AK71" t="inlineStr"/>
       <c r="AL71" t="inlineStr"/>
       <c r="AM71" t="inlineStr"/>
@@ -5228,42 +5244,38 @@
       <c r="AV71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Wang, Cooper</t>
-        </is>
-      </c>
+      <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>Approach S70</t>
+          <t>Descent Mk3 Series - Large</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="n">
-        <v>1</v>
-      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="n">
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="n">
         <v>2</v>
       </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>3</v>
-      </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
       <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
+      <c r="T72" t="n">
+        <v>1</v>
+      </c>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
@@ -5271,30 +5283,30 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
-      <c r="AE72" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr"/>
-      <c r="AG72" t="inlineStr"/>
-      <c r="AH72" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH72" t="inlineStr"/>
       <c r="AI72" t="inlineStr"/>
-      <c r="AJ72" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ72" t="inlineStr"/>
       <c r="AK72" t="inlineStr"/>
-      <c r="AL72" t="inlineStr"/>
+      <c r="AL72" t="n">
+        <v>1</v>
+      </c>
       <c r="AM72" t="inlineStr"/>
       <c r="AN72" t="inlineStr"/>
-      <c r="AO72" t="inlineStr"/>
+      <c r="AO72" t="n">
+        <v>1</v>
+      </c>
       <c r="AP72" t="inlineStr"/>
-      <c r="AQ72" t="inlineStr"/>
+      <c r="AQ72" t="n">
+        <v>1</v>
+      </c>
       <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr"/>
       <c r="AT72" t="inlineStr"/>
@@ -5305,34 +5317,34 @@
       <c r="A73" s="1" t="n"/>
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>Approach S70s</t>
+          <t>Descent Mk3 Series - Small</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="n">
-        <v>1</v>
-      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="n">
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>2</v>
       </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>3</v>
-      </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
       <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
@@ -5341,29 +5353,29 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
       <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="n">
+        <v>1</v>
+      </c>
       <c r="AG73" t="inlineStr"/>
-      <c r="AH73" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH73" t="inlineStr"/>
       <c r="AI73" t="inlineStr"/>
-      <c r="AJ73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK73" t="inlineStr"/>
+      <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="n">
+        <v>1</v>
+      </c>
       <c r="AL73" t="inlineStr"/>
       <c r="AM73" t="inlineStr"/>
-      <c r="AN73" t="inlineStr"/>
+      <c r="AN73" t="n">
+        <v>1</v>
+      </c>
       <c r="AO73" t="inlineStr"/>
-      <c r="AP73" t="inlineStr"/>
+      <c r="AP73" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ73" t="inlineStr"/>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
@@ -5375,35 +5387,35 @@
       <c r="A74" s="1" t="n"/>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>Descent Mk3 Series - Large</t>
+          <t>EPIX PRO (Gen 2) 47mm</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
-      <c r="O74" t="n">
-        <v>2</v>
-      </c>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="n">
-        <v>3</v>
-      </c>
+      <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
-      <c r="T74" t="n">
-        <v>1</v>
-      </c>
+      <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
@@ -5411,30 +5423,30 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr"/>
+      <c r="AB74" t="n">
+        <v>1</v>
+      </c>
       <c r="AC74" t="inlineStr"/>
-      <c r="AD74" t="inlineStr"/>
+      <c r="AD74" t="n">
+        <v>1</v>
+      </c>
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="n">
         <v>1</v>
       </c>
       <c r="AH74" t="inlineStr"/>
-      <c r="AI74" t="inlineStr"/>
+      <c r="AI74" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ74" t="inlineStr"/>
       <c r="AK74" t="inlineStr"/>
-      <c r="AL74" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL74" t="inlineStr"/>
       <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="inlineStr"/>
-      <c r="AO74" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="inlineStr"/>
-      <c r="AQ74" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ74" t="inlineStr"/>
       <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr"/>
       <c r="AT74" t="inlineStr"/>
@@ -5445,34 +5457,34 @@
       <c r="A75" s="1" t="n"/>
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>Descent Mk3 Series - Small</t>
+          <t>EPIX PRO (Gen 2) 51mm</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>3</v>
+      </c>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
-        <v>2</v>
-      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
-        <v>1</v>
-      </c>
+      <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
@@ -5481,29 +5493,29 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="inlineStr"/>
+      <c r="AB75" t="n">
+        <v>1</v>
+      </c>
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
-      <c r="AE75" t="inlineStr"/>
-      <c r="AF75" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr"/>
-      <c r="AH75" t="inlineStr"/>
+      <c r="AH75" t="n">
+        <v>1</v>
+      </c>
       <c r="AI75" t="inlineStr"/>
-      <c r="AJ75" t="inlineStr"/>
-      <c r="AK75" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK75" t="inlineStr"/>
       <c r="AL75" t="inlineStr"/>
       <c r="AM75" t="inlineStr"/>
-      <c r="AN75" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN75" t="inlineStr"/>
       <c r="AO75" t="inlineStr"/>
-      <c r="AP75" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP75" t="inlineStr"/>
       <c r="AQ75" t="inlineStr"/>
       <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr"/>
@@ -5515,27 +5527,23 @@
       <c r="A76" s="1" t="n"/>
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 47mm</t>
+          <t>Marq (Gen 2)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="n">
-        <v>1</v>
-      </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="n">
-        <v>2</v>
-      </c>
-      <c r="H76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>5</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>3</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -5551,22 +5559,18 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
-      <c r="AB76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC76" t="inlineStr"/>
-      <c r="AD76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="n">
+        <v>1</v>
+      </c>
       <c r="AF76" t="inlineStr"/>
-      <c r="AG76" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG76" t="inlineStr"/>
       <c r="AH76" t="inlineStr"/>
-      <c r="AI76" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI76" t="inlineStr"/>
       <c r="AJ76" t="inlineStr"/>
       <c r="AK76" t="inlineStr"/>
       <c r="AL76" t="inlineStr"/>
@@ -5585,30 +5589,26 @@
       <c r="A77" s="1" t="n"/>
       <c r="B77" s="1" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 51mm</t>
+          <t>Venu 3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="n">
-        <v>1</v>
-      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="n">
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
         <v>2</v>
       </c>
-      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>3</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
+      <c r="O77" t="n">
+        <v>1</v>
+      </c>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
@@ -5621,25 +5621,21 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="n">
+        <v>1</v>
+      </c>
       <c r="AG77" t="inlineStr"/>
-      <c r="AH77" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH77" t="inlineStr"/>
       <c r="AI77" t="inlineStr"/>
-      <c r="AJ77" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ77" t="inlineStr"/>
       <c r="AK77" t="inlineStr"/>
-      <c r="AL77" t="inlineStr"/>
+      <c r="AL77" t="n">
+        <v>1</v>
+      </c>
       <c r="AM77" t="inlineStr"/>
       <c r="AN77" t="inlineStr"/>
       <c r="AO77" t="inlineStr"/>
@@ -5655,24 +5651,28 @@
       <c r="A78" s="1" t="n"/>
       <c r="B78" s="1" t="inlineStr">
         <is>
-          <t>Marq (Gen 2)</t>
+          <t>fenix 7S Pro (2022)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>3</v>
+      </c>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
@@ -5689,7 +5689,7 @@
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD78" t="inlineStr"/>
       <c r="AE78" t="n">
@@ -5697,9 +5697,13 @@
       </c>
       <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="inlineStr"/>
-      <c r="AH78" t="inlineStr"/>
+      <c r="AH78" t="n">
+        <v>1</v>
+      </c>
       <c r="AI78" t="inlineStr"/>
-      <c r="AJ78" t="inlineStr"/>
+      <c r="AJ78" t="n">
+        <v>1</v>
+      </c>
       <c r="AK78" t="inlineStr"/>
       <c r="AL78" t="inlineStr"/>
       <c r="AM78" t="inlineStr"/>
@@ -5714,30 +5718,38 @@
       <c r="AV78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n"/>
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Wang, Evelyn</t>
+        </is>
+      </c>
       <c r="B79" s="1" t="inlineStr">
         <is>
-          <t>Venu 3</t>
+          <t>GPSMAP 9000 - 19"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="n">
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
         <v>2</v>
       </c>
-      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="n">
-        <v>1</v>
-      </c>
-      <c r="P79" t="inlineStr"/>
+      <c r="N79" t="n">
+        <v>3</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
@@ -5748,23 +5760,27 @@
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="inlineStr"/>
+      <c r="AA79" t="n">
+        <v>1</v>
+      </c>
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
-      <c r="AF79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="n">
+        <v>1</v>
+      </c>
       <c r="AH79" t="inlineStr"/>
       <c r="AI79" t="inlineStr"/>
       <c r="AJ79" t="inlineStr"/>
-      <c r="AK79" t="inlineStr"/>
-      <c r="AL79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM79" t="inlineStr"/>
+      <c r="AK79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="n">
+        <v>1</v>
+      </c>
       <c r="AN79" t="inlineStr"/>
       <c r="AO79" t="inlineStr"/>
       <c r="AP79" t="inlineStr"/>
@@ -5779,24 +5795,18 @@
       <c r="A80" s="1" t="n"/>
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>fenix 7S Pro (2022)</t>
+          <t>LED Control Module</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="n">
-        <v>1</v>
-      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>3</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
@@ -5805,29 +5815,29 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>1</v>
+      </c>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
-      <c r="AC80" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC80" t="inlineStr"/>
       <c r="AD80" t="inlineStr"/>
-      <c r="AE80" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE80" t="inlineStr"/>
       <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="inlineStr"/>
-      <c r="AH80" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH80" t="inlineStr"/>
       <c r="AI80" t="inlineStr"/>
       <c r="AJ80" t="n">
         <v>1</v>
@@ -5836,48 +5846,48 @@
       <c r="AL80" t="inlineStr"/>
       <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="inlineStr"/>
-      <c r="AO80" t="inlineStr"/>
+      <c r="AO80" t="n">
+        <v>1</v>
+      </c>
       <c r="AP80" t="inlineStr"/>
       <c r="AQ80" t="inlineStr"/>
-      <c r="AR80" t="inlineStr"/>
-      <c r="AS80" t="inlineStr"/>
+      <c r="AR80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1</v>
+      </c>
       <c r="AT80" t="inlineStr"/>
       <c r="AU80" t="inlineStr"/>
       <c r="AV80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>Wang, Evelyn</t>
-        </is>
-      </c>
+      <c r="A81" s="1" t="n"/>
       <c r="B81" s="1" t="inlineStr">
         <is>
-          <t>GPSMAP 9000 - 19"</t>
+          <t>Panoptix PS70 - (SSMB)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="n">
-        <v>1</v>
-      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>2</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>3</v>
+      </c>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
-        <v>3</v>
-      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
-      <c r="P81" t="n">
-        <v>1</v>
-      </c>
+      <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
@@ -5888,27 +5898,25 @@
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
-      <c r="AA81" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr"/>
       <c r="AD81" t="inlineStr"/>
-      <c r="AE81" t="inlineStr"/>
+      <c r="AE81" t="n">
+        <v>1</v>
+      </c>
       <c r="AF81" t="inlineStr"/>
-      <c r="AG81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH81" t="inlineStr"/>
+      <c r="AG81" t="inlineStr"/>
+      <c r="AH81" t="n">
+        <v>1</v>
+      </c>
       <c r="AI81" t="inlineStr"/>
-      <c r="AJ81" t="inlineStr"/>
-      <c r="AK81" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK81" t="inlineStr"/>
       <c r="AL81" t="inlineStr"/>
-      <c r="AM81" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="inlineStr"/>
       <c r="AO81" t="inlineStr"/>
       <c r="AP81" t="inlineStr"/>
@@ -5919,153 +5927,17 @@
       <c r="AU81" t="inlineStr"/>
       <c r="AV81" t="inlineStr"/>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n"/>
-      <c r="B82" s="1" t="inlineStr">
-        <is>
-          <t>LED Control Module</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="n">
-        <v>2</v>
-      </c>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="n">
-        <v>3</v>
-      </c>
-      <c r="V82" t="n">
-        <v>1</v>
-      </c>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
-      <c r="AA82" t="inlineStr"/>
-      <c r="AB82" t="inlineStr"/>
-      <c r="AC82" t="inlineStr"/>
-      <c r="AD82" t="inlineStr"/>
-      <c r="AE82" t="inlineStr"/>
-      <c r="AF82" t="inlineStr"/>
-      <c r="AG82" t="inlineStr"/>
-      <c r="AH82" t="inlineStr"/>
-      <c r="AI82" t="inlineStr"/>
-      <c r="AJ82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK82" t="inlineStr"/>
-      <c r="AL82" t="inlineStr"/>
-      <c r="AM82" t="inlineStr"/>
-      <c r="AN82" t="inlineStr"/>
-      <c r="AO82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP82" t="inlineStr"/>
-      <c r="AQ82" t="inlineStr"/>
-      <c r="AR82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT82" t="inlineStr"/>
-      <c r="AU82" t="inlineStr"/>
-      <c r="AV82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n"/>
-      <c r="B83" s="1" t="inlineStr">
-        <is>
-          <t>Panoptix PS70 - (SSMB)</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>3</v>
-      </c>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
-      <c r="AA83" t="inlineStr"/>
-      <c r="AB83" t="inlineStr"/>
-      <c r="AC83" t="inlineStr"/>
-      <c r="AD83" t="inlineStr"/>
-      <c r="AE83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF83" t="inlineStr"/>
-      <c r="AG83" t="inlineStr"/>
-      <c r="AH83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI83" t="inlineStr"/>
-      <c r="AJ83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK83" t="inlineStr"/>
-      <c r="AL83" t="inlineStr"/>
-      <c r="AM83" t="inlineStr"/>
-      <c r="AN83" t="inlineStr"/>
-      <c r="AO83" t="inlineStr"/>
-      <c r="AP83" t="inlineStr"/>
-      <c r="AQ83" t="inlineStr"/>
-      <c r="AR83" t="inlineStr"/>
-      <c r="AS83" t="inlineStr"/>
-      <c r="AT83" t="inlineStr"/>
-      <c r="AU83" t="inlineStr"/>
-      <c r="AV83" t="inlineStr"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="C1:Y1"/>
     <mergeCell ref="Z1:AV1"/>
     <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A13:A29"/>
-    <mergeCell ref="A30:A46"/>
-    <mergeCell ref="A47:A56"/>
-    <mergeCell ref="A57:A71"/>
-    <mergeCell ref="A72:A80"/>
-    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A13:A28"/>
+    <mergeCell ref="A29:A44"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="A55:A69"/>
+    <mergeCell ref="A70:A78"/>
+    <mergeCell ref="A79:A81"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6077,7 +5949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6085,11 +5957,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="31" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="" customWidth="1" min="1" max="1"/>
+    <col width="" customWidth="1" min="2" max="2"/>
+    <col width="" customWidth="1" min="3" max="3"/>
+    <col width="" customWidth="1" min="4" max="4"/>
+    <col width="" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6117,48 +5989,6 @@
         <is>
           <t>MP Date</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>15993</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Lily 2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Fu, Ernest</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45215</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>16414</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Lily 2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Asia</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45215</v>
       </c>
     </row>
   </sheetData>
@@ -6172,7 +6002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6246,17 +6076,17 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>16414</v>
+        <v>16499</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lily 2, Asia</t>
+          <t>BMW Motorrad Connectivity unit RFQ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
-        <v>45215</v>
+        <v>46022</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
@@ -6271,24 +6101,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>16499</v>
+        <v>16590</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BMW Motorrad Connectivity unit RFQ</t>
+          <t>PGWW23</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>46022</v>
+        <v>45194</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
@@ -6310,22 +6140,26 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>16590</v>
+        <v>16456</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PGWW23</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>Descent T2 Transceiver</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44967</v>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>45138</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45086</v>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6335,78 +6169,10 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Concepts</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>16456</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Descent T2 Transceiver</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>44967</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" s="2" t="n">
-        <v>45138</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>45086</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>16382</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Descent X1i Series, Asia</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Asia</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/GMLA loading analysis/PMsystem_PRweb/(Output) Data.xlsx
+++ b/GMLA loading analysis/PMsystem_PRweb/(Output) Data.xlsx
@@ -481,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV81"/>
+  <dimension ref="A1:AX75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,12 +518,12 @@
       <c r="W1" s="1" t="n"/>
       <c r="X1" s="1" t="n"/>
       <c r="Y1" s="1" t="n"/>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Project_counts</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="n"/>
       <c r="AB1" s="1" t="n"/>
       <c r="AC1" s="1" t="n"/>
       <c r="AD1" s="1" t="n"/>
@@ -545,6 +545,8 @@
       <c r="AT1" s="1" t="n"/>
       <c r="AU1" s="1" t="n"/>
       <c r="AV1" s="1" t="n"/>
+      <c r="AW1" s="1" t="n"/>
+      <c r="AX1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
@@ -669,117 +671,127 @@
       </c>
       <c r="Z2" s="1" t="inlineStr">
         <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="AA2" s="1" t="inlineStr">
+        <is>
           <t>2022-05</t>
         </is>
       </c>
-      <c r="AA2" s="1" t="inlineStr">
+      <c r="AB2" s="1" t="inlineStr">
         <is>
           <t>2022-06</t>
         </is>
       </c>
-      <c r="AB2" s="1" t="inlineStr">
+      <c r="AC2" s="1" t="inlineStr">
         <is>
           <t>2022-07</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
+      <c r="AD2" s="1" t="inlineStr">
         <is>
           <t>2022-08</t>
         </is>
       </c>
-      <c r="AD2" s="1" t="inlineStr">
+      <c r="AE2" s="1" t="inlineStr">
         <is>
           <t>2022-09</t>
         </is>
       </c>
-      <c r="AE2" s="1" t="inlineStr">
+      <c r="AF2" s="1" t="inlineStr">
         <is>
           <t>2022-10</t>
         </is>
       </c>
-      <c r="AF2" s="1" t="inlineStr">
+      <c r="AG2" s="1" t="inlineStr">
         <is>
           <t>2022-11</t>
         </is>
       </c>
-      <c r="AG2" s="1" t="inlineStr">
+      <c r="AH2" s="1" t="inlineStr">
         <is>
           <t>2022-12</t>
         </is>
       </c>
-      <c r="AH2" s="1" t="inlineStr">
+      <c r="AI2" s="1" t="inlineStr">
         <is>
           <t>2023-01</t>
         </is>
       </c>
-      <c r="AI2" s="1" t="inlineStr">
+      <c r="AJ2" s="1" t="inlineStr">
         <is>
           <t>2023-02</t>
         </is>
       </c>
-      <c r="AJ2" s="1" t="inlineStr">
+      <c r="AK2" s="1" t="inlineStr">
         <is>
           <t>2023-03</t>
         </is>
       </c>
-      <c r="AK2" s="1" t="inlineStr">
+      <c r="AL2" s="1" t="inlineStr">
         <is>
           <t>2023-04</t>
         </is>
       </c>
-      <c r="AL2" s="1" t="inlineStr">
+      <c r="AM2" s="1" t="inlineStr">
         <is>
           <t>2023-05</t>
         </is>
       </c>
-      <c r="AM2" s="1" t="inlineStr">
+      <c r="AN2" s="1" t="inlineStr">
         <is>
           <t>2023-06</t>
         </is>
       </c>
-      <c r="AN2" s="1" t="inlineStr">
+      <c r="AO2" s="1" t="inlineStr">
         <is>
           <t>2023-07</t>
         </is>
       </c>
-      <c r="AO2" s="1" t="inlineStr">
+      <c r="AP2" s="1" t="inlineStr">
         <is>
           <t>2023-08</t>
         </is>
       </c>
-      <c r="AP2" s="1" t="inlineStr">
+      <c r="AQ2" s="1" t="inlineStr">
         <is>
           <t>2023-09</t>
         </is>
       </c>
-      <c r="AQ2" s="1" t="inlineStr">
+      <c r="AR2" s="1" t="inlineStr">
         <is>
           <t>2023-10</t>
         </is>
       </c>
-      <c r="AR2" s="1" t="inlineStr">
+      <c r="AS2" s="1" t="inlineStr">
         <is>
           <t>2023-11</t>
         </is>
       </c>
-      <c r="AS2" s="1" t="inlineStr">
+      <c r="AT2" s="1" t="inlineStr">
         <is>
           <t>2024-01</t>
         </is>
       </c>
-      <c r="AT2" s="1" t="inlineStr">
+      <c r="AU2" s="1" t="inlineStr">
         <is>
           <t>2024-03</t>
         </is>
       </c>
-      <c r="AU2" s="1" t="inlineStr">
+      <c r="AV2" s="1" t="inlineStr">
         <is>
           <t>2024-04</t>
         </is>
       </c>
-      <c r="AV2" s="1" t="inlineStr">
+      <c r="AW2" s="1" t="inlineStr">
         <is>
           <t>2024-07</t>
+        </is>
+      </c>
+      <c r="AX2" s="1" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
@@ -836,10 +848,10 @@
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="n">
+        <v>1</v>
+      </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
@@ -856,37 +868,41 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Forerunner 265</t>
+          <t>Cellular Tracking Module</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>2</v>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -897,13 +913,9 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
         <v>1</v>
@@ -911,23 +923,31 @@
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>1</v>
+      </c>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
+      <c r="AO5" t="n">
+        <v>1</v>
+      </c>
       <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
+      <c r="AQ5" t="n">
+        <v>1</v>
+      </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Forerunner 265s</t>
+          <t>Forerunner 265</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -963,18 +983,18 @@
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
@@ -988,32 +1008,32 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Foretrex 801/901</t>
+          <t>Forerunner 265s</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
         <v>3</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -1030,9 +1050,7 @@
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
         <v>1</v>
@@ -1058,24 +1076,34 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Lily 2</t>
+          <t>Foretrex 801/901</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1083,9 +1111,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="n">
-        <v>1</v>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
@@ -1095,41 +1121,47 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
+      <c r="AD8" t="n">
+        <v>1</v>
+      </c>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
+      <c r="AF8" t="n">
+        <v>1</v>
+      </c>
       <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
       <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="AJ8" t="n">
+        <v>1</v>
+      </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>MARQ Carbon</t>
+          <t>Lily 2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -1143,7 +1175,9 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
@@ -1152,9 +1186,7 @@
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
@@ -1169,36 +1201,38 @@
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
+      <c r="AR9" t="n">
+        <v>1</v>
+      </c>
       <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Venu 3S</t>
+          <t>MARQ Carbon</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
@@ -1213,19 +1247,17 @@
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
+      <c r="AD10" t="n">
+        <v>1</v>
+      </c>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
@@ -1236,35 +1268,33 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>fenix 7 Pro</t>
+          <t>Venu 3S</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>3</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -1278,25 +1308,21 @@
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="n">
         <v>1</v>
       </c>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
+      <c r="AM11" t="n">
+        <v>1</v>
+      </c>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
@@ -1306,21 +1332,23 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>fenix 7X Pro</t>
+          <t>fenix 7 Pro</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
@@ -1347,24 +1375,24 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
         <v>1</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
+      <c r="AF12" t="n">
+        <v>1</v>
+      </c>
       <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="n">
+        <v>1</v>
+      </c>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
@@ -1376,35 +1404,35 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Hsu, Jason(PQE)</t>
-        </is>
-      </c>
+      <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>ECHOMAP UHD2 (Touch) 6"</t>
+          <t>fenix 7X Pro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
         <v>3</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
@@ -1418,23 +1446,25 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
+      <c r="AE13" t="n">
+        <v>1</v>
+      </c>
       <c r="AF13" t="n">
         <v>1</v>
       </c>
-      <c r="AG13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
+      <c r="AI13" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AK13" t="n">
+        <v>1</v>
+      </c>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
@@ -1446,12 +1476,18 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Hsu, Jason(PQE)</t>
+        </is>
+      </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>ECHOMAP UHD2 (Touch) 7"</t>
+          <t>ECHOMAP UHD2 (Touch) 6"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1484,20 +1520,20 @@
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="n">
+        <v>1</v>
+      </c>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="n">
         <v>1</v>
       </c>
-      <c r="AH14" t="inlineStr"/>
+      <c r="AH14" t="n">
+        <v>1</v>
+      </c>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
@@ -1512,12 +1548,14 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>ECHOMAP UHD2 (Touch) 9"</t>
+          <t>ECHOMAP UHD2 (Touch) 7"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1550,20 +1588,20 @@
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="n">
+        <v>1</v>
+      </c>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="n">
         <v>1</v>
       </c>
-      <c r="AH15" t="inlineStr"/>
+      <c r="AH15" t="n">
+        <v>1</v>
+      </c>
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
@@ -1578,23 +1616,27 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AU15" t="inlineStr"/>
       <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>FUSION - WB675 Hide Away Stereo</t>
+          <t>ECHOMAP UHD2 (Touch) 9"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
         <v>3</v>
       </c>
-      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>1</v>
       </c>
@@ -1615,17 +1657,19 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="n">
         <v>1</v>
       </c>
-      <c r="AH16" t="inlineStr"/>
+      <c r="AH16" t="n">
+        <v>1</v>
+      </c>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
@@ -1640,12 +1684,14 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Force Kraken Trolling Motor </t>
+          <t>FUSION - WB675 Hide Away Stereo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1653,21 +1699,19 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>2</v>
-      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>3</v>
-      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -1683,20 +1727,18 @@
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
+      <c r="AF17" t="n">
+        <v>1</v>
+      </c>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="n">
         <v>1</v>
       </c>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr"/>
@@ -1706,29 +1748,25 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>GMR xHD3 Domes (18/24xHD replacement)</t>
+          <t>Force Kayak Propulsion System</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>3</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
@@ -1741,30 +1779,30 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+      <c r="V18" t="n">
+        <v>2</v>
+      </c>
       <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="X18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="n">
+        <v>1</v>
+      </c>
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
@@ -1773,39 +1811,45 @@
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="inlineStr"/>
+      <c r="AT18" t="n">
+        <v>1</v>
+      </c>
       <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="inlineStr"/>
+      <c r="AV18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>GMR xHD3 Magnetron Open Arrays</t>
+          <t xml:space="preserve">Force Kraken Trolling Motor </t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>3</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
@@ -1816,28 +1860,26 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>1</v>
+      </c>
       <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr"/>
+      <c r="AN19" t="n">
+        <v>1</v>
+      </c>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -1846,36 +1888,38 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>GPSMAP 9000 - 22"</t>
+          <t>GMR xHD3 Domes (18/24xHD replacement)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>2</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>3</v>
-      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
@@ -1886,27 +1930,27 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
+      <c r="AI20" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="n">
         <v>1</v>
       </c>
       <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr"/>
@@ -1916,12 +1960,14 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>GPSMAP 9000 - 24"</t>
+          <t>GMR xHD3 Magnetron Open Arrays</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1931,21 +1977,21 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>3</v>
-      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
@@ -1956,27 +2002,27 @@
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="n">
+        <v>1</v>
+      </c>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
+      <c r="AI21" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="n">
         <v>1</v>
       </c>
       <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr"/>
@@ -1986,12 +2032,14 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>GPSMAP 9000 -27"</t>
+          <t>GPSMAP 9000 - 22"</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -2026,28 +2074,28 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="n">
+        <v>1</v>
+      </c>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="n">
+        <v>1</v>
+      </c>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="n">
+        <v>1</v>
+      </c>
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -2056,12 +2104,14 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>GPSMAP 9000_Black Box</t>
+          <t>GPSMAP 9000 - 24"</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -2096,28 +2146,28 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="n">
+        <v>1</v>
+      </c>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="n">
+        <v>1</v>
+      </c>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="n">
+        <v>1</v>
+      </c>
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -2126,19 +2176,21 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>GSD28</t>
+          <t>GPSMAP 9000 -27"</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -2148,14 +2200,14 @@
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>3</v>
       </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
@@ -2174,20 +2226,20 @@
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="n">
+        <v>1</v>
+      </c>
       <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="n">
         <v>1</v>
       </c>
       <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="inlineStr"/>
+      <c r="AN24" t="n">
+        <v>1</v>
+      </c>
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -2196,40 +2248,42 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Prop Drive Cost Down</t>
+          <t>GPSMAP 9000_Black Box</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>2</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>2</v>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>3</v>
+      </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="n">
-        <v>1</v>
-      </c>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
@@ -2237,41 +2291,43 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="n">
+        <v>1</v>
+      </c>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
       <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>RV Fixed Displays - 10"</t>
+          <t>GSD28</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -2281,20 +2337,20 @@
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>3</v>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
@@ -2307,26 +2363,26 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="n">
+        <v>1</v>
+      </c>
       <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
+      <c r="AK26" t="n">
+        <v>1</v>
+      </c>
       <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
+      <c r="AM26" t="n">
+        <v>1</v>
+      </c>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
@@ -2336,40 +2392,42 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>RV Fixed Displays - 7"</t>
+          <t>Prop Drive Cost Down</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
         <v>2</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>3</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
@@ -2377,55 +2435,63 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="n">
         <v>1</v>
       </c>
       <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
+      <c r="AK27" t="n">
+        <v>1</v>
+      </c>
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr"/>
+      <c r="AO27" t="n">
+        <v>1</v>
+      </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
+      <c r="AR27" t="n">
+        <v>1</v>
+      </c>
       <c r="AS27" t="inlineStr"/>
       <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Tread - XL (10")</t>
+          <t>RV Fixed Displays - 10"</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>3</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2442,16 +2508,22 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
+      <c r="AF28" t="n">
+        <v>1</v>
+      </c>
       <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
+      <c r="AH28" t="n">
+        <v>1</v>
+      </c>
       <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
+      <c r="AJ28" t="n">
+        <v>1</v>
+      </c>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
@@ -2464,34 +2536,34 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Kuo, Chris</t>
-        </is>
-      </c>
+      <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Alpha Dog Collar</t>
+          <t>RV Fixed Displays - 7"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>2</v>
-      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>3</v>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2512,16 +2584,18 @@
         <v>1</v>
       </c>
       <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="n">
+        <v>1</v>
+      </c>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="n">
         <v>1</v>
       </c>
       <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
+      <c r="AJ29" t="n">
+        <v>1</v>
+      </c>
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
@@ -2534,12 +2608,14 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AU29" t="inlineStr"/>
       <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Approach Z50</t>
+          <t>Tread - XL (10")</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -2548,19 +2624,15 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>3</v>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="n">
-        <v>1</v>
-      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
@@ -2576,20 +2648,16 @@
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="n">
+        <v>1</v>
+      </c>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
@@ -2600,27 +2668,35 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Kuo, Chris</t>
+        </is>
+      </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Dash Cam Live (LTE)</t>
+          <t>Alpha Dog Collar</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -2638,17 +2714,19 @@
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="n">
+        <v>1</v>
+      </c>
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
+      <c r="AI31" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
@@ -2662,12 +2740,14 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AU31" t="inlineStr"/>
       <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Descent X1i</t>
+          <t>Approach Z50</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -2675,78 +2755,82 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="n">
-        <v>1</v>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
-      <c r="X32" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>1</v>
-      </c>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
+      <c r="AF32" t="n">
+        <v>1</v>
+      </c>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
+      <c r="AK32" t="n">
+        <v>1</v>
+      </c>
       <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
+      <c r="AM32" t="n">
+        <v>1</v>
+      </c>
       <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
       <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr"/>
+      <c r="AX32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Edge 540 840</t>
+          <t>Dash Cam Live (LTE)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>1</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -2765,13 +2849,15 @@
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
+      <c r="AD33" t="n">
+        <v>1</v>
+      </c>
       <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
+      <c r="AF33" t="n">
+        <v>1</v>
+      </c>
       <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH33" t="inlineStr"/>
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
@@ -2786,17 +2872,17 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr"/>
+      <c r="AX33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Edge Explore 2</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
+          <t>Descent X1i</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
@@ -2811,17 +2897,21 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="n">
-        <v>1</v>
-      </c>
+      <c r="X34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
@@ -2837,19 +2927,27 @@
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
+      <c r="AP34" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
       <c r="AT34" t="inlineStr"/>
       <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="inlineStr"/>
+      <c r="AV34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Tacx NEO 3M</t>
+          <t>Edge 540 840</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -2858,21 +2956,17 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
-      <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -2887,21 +2981,17 @@
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
+      <c r="AI35" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
@@ -2910,22 +3000,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AU35" t="inlineStr"/>
       <c r="AV35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr"/>
+      <c r="AX35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Tacx NEO Bike Plus</t>
+          <t>Edge Explore 2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -2945,14 +3035,12 @@
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="n">
+        <v>1</v>
+      </c>
       <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
@@ -2972,33 +3060,37 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AU36" t="inlineStr"/>
       <c r="AV36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr"/>
+      <c r="AX36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Tacx NEO Bike Plus_Shifter</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>3</v>
-      </c>
+          <t>Tacx NEO 3M</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -3007,26 +3099,28 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
+      <c r="AG37" t="n">
+        <v>1</v>
+      </c>
       <c r="AH37" t="inlineStr"/>
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
       <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="inlineStr"/>
-      <c r="AN37" t="inlineStr"/>
-      <c r="AO37" t="inlineStr"/>
+      <c r="AN37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1</v>
+      </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
       <c r="AR37" t="inlineStr"/>
@@ -3034,33 +3128,31 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AU37" t="inlineStr"/>
       <c r="AV37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Varia eBike Radar Tail Light (eRTL615)</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
+          <t>Tacx NEO Bike Plus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>3</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
@@ -3084,14 +3176,10 @@
         <v>1</v>
       </c>
       <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="inlineStr"/>
       <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ38" t="inlineStr"/>
       <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr"/>
       <c r="AM38" t="inlineStr"/>
@@ -3104,101 +3192,99 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AU38" t="inlineStr"/>
       <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
+      <c r="AX38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>Xero B60i Laser Navigation Binoculars</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>Tacx NEO Bike Plus_Shifter</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
-        <v>2</v>
-      </c>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="n">
-        <v>3</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1</v>
-      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
+      <c r="AA39" t="n">
+        <v>1</v>
+      </c>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
+      <c r="AE39" t="n">
+        <v>1</v>
+      </c>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
       <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
       <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="inlineStr"/>
       <c r="AU39" t="inlineStr"/>
       <c r="AV39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr"/>
+      <c r="AX39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>Xero C1 Chronograph</t>
+          <t>Varia eBike Radar Tail Light (eRTL615)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="n">
-        <v>3</v>
-      </c>
-      <c r="H40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
@@ -3212,23 +3298,25 @@
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="n">
+        <v>1</v>
+      </c>
       <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH40" t="inlineStr"/>
+      <c r="AF40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="n">
+        <v>1</v>
+      </c>
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
+      <c r="AK40" t="n">
+        <v>1</v>
+      </c>
       <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
@@ -3240,35 +3328,31 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AU40" t="inlineStr"/>
       <c r="AV40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr"/>
+      <c r="AX40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>Xero L60i Laser Navigator</t>
+          <t>Xero B60i Laser Navigation Binoculars</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>2</v>
-      </c>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="n">
         <v>1</v>
@@ -3276,64 +3360,70 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+      <c r="W41" t="n">
+        <v>2</v>
+      </c>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
+      <c r="Y41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1</v>
+      </c>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ41" t="inlineStr"/>
       <c r="AK41" t="inlineStr"/>
       <c r="AL41" t="inlineStr"/>
       <c r="AM41" t="inlineStr"/>
-      <c r="AN41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="n">
+        <v>1</v>
+      </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
       <c r="AT41" t="inlineStr"/>
-      <c r="AU41" t="inlineStr"/>
+      <c r="AU41" t="n">
+        <v>1</v>
+      </c>
       <c r="AV41" t="inlineStr"/>
+      <c r="AW41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>eTrex SE</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="n">
+          <t>Xero C1 Chronograph</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
         <v>2</v>
       </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="G42" t="n">
         <v>3</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -3349,9 +3439,7 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="n">
         <v>1</v>
@@ -3361,11 +3449,11 @@
       <c r="AE42" t="n">
         <v>1</v>
       </c>
-      <c r="AF42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
+      <c r="AH42" t="n">
+        <v>1</v>
+      </c>
       <c r="AI42" t="inlineStr"/>
       <c r="AJ42" t="inlineStr"/>
       <c r="AK42" t="inlineStr"/>
@@ -3380,39 +3468,41 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AU42" t="inlineStr"/>
       <c r="AV42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr"/>
+      <c r="AX42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>eTrex Solar</t>
+          <t>Xero L60i Laser Navigator</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>2</v>
       </c>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="n">
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="n">
         <v>3</v>
       </c>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="n">
-        <v>1</v>
-      </c>
-      <c r="S43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -3423,12 +3513,12 @@
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
+      <c r="AD43" t="n">
+        <v>1</v>
+      </c>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
@@ -3436,37 +3526,45 @@
         <v>1</v>
       </c>
       <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="n">
         <v>1</v>
       </c>
       <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
+      <c r="AQ43" t="n">
+        <v>1</v>
+      </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
       <c r="AT43" t="inlineStr"/>
       <c r="AU43" t="inlineStr"/>
       <c r="AV43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr"/>
+      <c r="AX43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>inReach Messenger</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
+          <t>eTrex SE</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
@@ -3484,15 +3582,21 @@
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC44" t="inlineStr"/>
+      <c r="AA44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="n">
+        <v>1</v>
+      </c>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
+      <c r="AF44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1</v>
+      </c>
       <c r="AH44" t="inlineStr"/>
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
@@ -3508,40 +3612,40 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AU44" t="inlineStr"/>
       <c r="AV44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr"/>
+      <c r="AX44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>Lo, Aalto</t>
-        </is>
-      </c>
+      <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>Catalyst KMR - Camera</t>
+          <t>eTrex Solar</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="n">
         <v>3</v>
       </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -3550,9 +3654,7 @@
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
@@ -3563,46 +3665,48 @@
         <v>1</v>
       </c>
       <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ45" t="inlineStr"/>
       <c r="AK45" t="inlineStr"/>
-      <c r="AL45" t="inlineStr"/>
+      <c r="AL45" t="n">
+        <v>1</v>
+      </c>
       <c r="AM45" t="inlineStr"/>
-      <c r="AN45" t="inlineStr"/>
+      <c r="AN45" t="n">
+        <v>1</v>
+      </c>
       <c r="AO45" t="inlineStr"/>
-      <c r="AP45" t="inlineStr"/>
+      <c r="AP45" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ45" t="inlineStr"/>
       <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr"/>
       <c r="AT45" t="inlineStr"/>
       <c r="AU45" t="inlineStr"/>
       <c r="AV45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr"/>
+      <c r="AX45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>Catalyst KMR - Display</t>
+          <t>inReach Messenger</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>3</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
@@ -3616,22 +3720,18 @@
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
+      <c r="AC46" t="n">
+        <v>1</v>
+      </c>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH46" t="inlineStr"/>
       <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ46" t="inlineStr"/>
       <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="inlineStr"/>
       <c r="AM46" t="inlineStr"/>
@@ -3644,12 +3744,18 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AU46" t="inlineStr"/>
       <c r="AV46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr"/>
+      <c r="AX46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n"/>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Lo, Aalto</t>
+        </is>
+      </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>Catalyst KMR - Hub</t>
+          <t>Catalyst KMR - Camera</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -3682,23 +3788,23 @@
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="n">
+        <v>1</v>
+      </c>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
-      <c r="AH47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="n">
+        <v>1</v>
+      </c>
       <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr"/>
@@ -3710,37 +3816,37 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AU47" t="inlineStr"/>
       <c r="AV47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr"/>
+      <c r="AX47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>Descent S1 Buoy</t>
+          <t>Catalyst KMR - Display</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="n">
-        <v>1</v>
-      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
+      <c r="K48" t="n">
         <v>3</v>
       </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -3751,27 +3857,25 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
+      <c r="AB48" t="n">
+        <v>1</v>
+      </c>
       <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="inlineStr"/>
       <c r="AI48" t="n">
         <v>1</v>
       </c>
       <c r="AJ48" t="inlineStr"/>
-      <c r="AK48" t="inlineStr"/>
+      <c r="AK48" t="n">
+        <v>1</v>
+      </c>
       <c r="AL48" t="inlineStr"/>
       <c r="AM48" t="inlineStr"/>
-      <c r="AN48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="inlineStr"/>
       <c r="AQ48" t="inlineStr"/>
@@ -3780,33 +3884,33 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AU48" t="inlineStr"/>
       <c r="AV48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr"/>
+      <c r="AX48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 42mm</t>
+          <t>Catalyst KMR - Hub</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2</v>
-      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
         <v>3</v>
       </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
@@ -3821,24 +3925,22 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="inlineStr"/>
       <c r="AI49" t="n">
         <v>1</v>
       </c>
       <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="inlineStr"/>
+      <c r="AK49" t="n">
+        <v>1</v>
+      </c>
       <c r="AL49" t="inlineStr"/>
       <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr"/>
@@ -3850,35 +3952,39 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AU49" t="inlineStr"/>
       <c r="AV49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr"/>
+      <c r="AX49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>Forerunner 965</t>
+          <t>Descent S1 Buoy</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="n">
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
         <v>2</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
         <v>3</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -3895,20 +4001,22 @@
       <c r="AE50" t="n">
         <v>1</v>
       </c>
-      <c r="AF50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG50" t="inlineStr"/>
-      <c r="AH50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH50" t="inlineStr"/>
       <c r="AI50" t="inlineStr"/>
-      <c r="AJ50" t="inlineStr"/>
+      <c r="AJ50" t="n">
+        <v>1</v>
+      </c>
       <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr"/>
-      <c r="AO50" t="inlineStr"/>
+      <c r="AO50" t="n">
+        <v>1</v>
+      </c>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
       <c r="AR50" t="inlineStr"/>
@@ -3916,33 +4024,35 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AU50" t="inlineStr"/>
       <c r="AV50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr"/>
+      <c r="AX50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>Instinct 2X Solar</t>
+          <t>EPIX PRO (Gen 2) 42mm</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>3</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
@@ -3959,18 +4069,18 @@
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
+      <c r="AD51" t="n">
+        <v>1</v>
+      </c>
       <c r="AE51" t="n">
         <v>1</v>
       </c>
       <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH51" t="inlineStr"/>
-      <c r="AI51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI51" t="inlineStr"/>
       <c r="AJ51" t="n">
         <v>1</v>
       </c>
@@ -3986,27 +4096,31 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AU51" t="inlineStr"/>
       <c r="AV51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr"/>
+      <c r="AX51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>Instinct Hybrid Analog/Digital(Ripley)</t>
+          <t>Forerunner 965</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="n">
-        <v>3</v>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
@@ -4024,17 +4138,19 @@
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1</v>
+      </c>
       <c r="AH52" t="inlineStr"/>
-      <c r="AI52" t="inlineStr"/>
+      <c r="AI52" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ52" t="inlineStr"/>
       <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="inlineStr"/>
@@ -4048,27 +4164,35 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AU52" t="inlineStr"/>
       <c r="AV52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr"/>
+      <c r="AX52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>Venu Sq 2(IMP)</t>
+          <t>Instinct 2X Solar</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>2</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>3</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
@@ -4084,17 +4208,23 @@
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="inlineStr"/>
+      <c r="AF53" t="n">
+        <v>1</v>
+      </c>
       <c r="AG53" t="inlineStr"/>
-      <c r="AH53" t="inlineStr"/>
+      <c r="AH53" t="n">
+        <v>1</v>
+      </c>
       <c r="AI53" t="inlineStr"/>
-      <c r="AJ53" t="inlineStr"/>
-      <c r="AK53" t="inlineStr"/>
+      <c r="AJ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1</v>
+      </c>
       <c r="AL53" t="inlineStr"/>
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr"/>
@@ -4106,25 +4236,27 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AU53" t="inlineStr"/>
       <c r="AV53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr"/>
+      <c r="AX53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>vivomove Trend (previously "4")</t>
+          <t>Instinct Hybrid Analog/Digital(Ripley)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="n">
-        <v>2</v>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
@@ -4142,12 +4274,12 @@
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
+      <c r="AD54" t="n">
+        <v>1</v>
+      </c>
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="n">
         <v>1</v>
@@ -4168,36 +4300,30 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AU54" t="inlineStr"/>
       <c r="AV54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr"/>
+      <c r="AX54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Ni, Wendy</t>
-        </is>
-      </c>
+      <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>BlueNET Gateway</t>
+          <t>Venu Sq 2(IMP)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="n">
-        <v>2</v>
-      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>3</v>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
-        <v>1</v>
-      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -4220,13 +4346,9 @@
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
-      <c r="AI55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI55" t="inlineStr"/>
       <c r="AJ55" t="inlineStr"/>
-      <c r="AK55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK55" t="inlineStr"/>
       <c r="AL55" t="inlineStr"/>
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr"/>
@@ -4238,32 +4360,32 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AU55" t="inlineStr"/>
       <c r="AV55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr"/>
+      <c r="AX55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>BlueNET Switch</t>
+          <t>vivomove Trend (previously "4")</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="n">
-        <v>2</v>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>3</v>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
-        <v>1</v>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -4277,22 +4399,20 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
+      <c r="AB56" t="n">
+        <v>1</v>
+      </c>
       <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr"/>
-      <c r="AG56" t="inlineStr"/>
+      <c r="AG56" t="n">
+        <v>1</v>
+      </c>
       <c r="AH56" t="inlineStr"/>
-      <c r="AI56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI56" t="inlineStr"/>
       <c r="AJ56" t="inlineStr"/>
-      <c r="AK56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK56" t="inlineStr"/>
       <c r="AL56" t="inlineStr"/>
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr"/>
@@ -4304,34 +4424,40 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AU56" t="inlineStr"/>
       <c r="AV56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr"/>
+      <c r="AX56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n"/>
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Ni, Wendy</t>
+        </is>
+      </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>Drive 53</t>
+          <t>BlueNET Gateway</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="n">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
         <v>2</v>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="n">
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
         <v>3</v>
       </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
@@ -4344,24 +4470,24 @@
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="n">
         <v>1</v>
       </c>
       <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr"/>
       <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="inlineStr"/>
+      <c r="AJ57" t="n">
+        <v>1</v>
+      </c>
       <c r="AK57" t="inlineStr"/>
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr"/>
-      <c r="AN57" t="inlineStr"/>
+      <c r="AN57" t="n">
+        <v>1</v>
+      </c>
       <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="inlineStr"/>
       <c r="AQ57" t="inlineStr"/>
@@ -4370,35 +4496,37 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AU57" t="inlineStr"/>
       <c r="AV57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr"/>
+      <c r="AX57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>Premium Dash Cams</t>
+          <t>BlueNET Switch</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>3</v>
+      </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="n">
-        <v>5</v>
-      </c>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="n">
-        <v>1</v>
-      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -4412,18 +4540,18 @@
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
+      <c r="AE58" t="n">
+        <v>1</v>
+      </c>
       <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG58" t="inlineStr"/>
       <c r="AH58" t="inlineStr"/>
       <c r="AI58" t="inlineStr"/>
-      <c r="AJ58" t="inlineStr"/>
+      <c r="AJ58" t="n">
+        <v>1</v>
+      </c>
       <c r="AK58" t="inlineStr"/>
-      <c r="AL58" t="n">
-        <v>2</v>
-      </c>
+      <c r="AL58" t="inlineStr"/>
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="n">
         <v>1</v>
@@ -4436,24 +4564,30 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AU58" t="inlineStr"/>
       <c r="AV58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr"/>
+      <c r="AX58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>RV/Camper 2022 - 7"</t>
+          <t>Drive 53</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="n">
-        <v>1</v>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -4470,16 +4604,20 @@
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
+      <c r="AD59" t="n">
+        <v>1</v>
+      </c>
       <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
+      <c r="AF59" t="n">
+        <v>1</v>
+      </c>
       <c r="AG59" t="inlineStr"/>
-      <c r="AH59" t="inlineStr"/>
+      <c r="AH59" t="n">
+        <v>1</v>
+      </c>
       <c r="AI59" t="inlineStr"/>
       <c r="AJ59" t="inlineStr"/>
       <c r="AK59" t="inlineStr"/>
@@ -4494,31 +4632,37 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AU59" t="inlineStr"/>
       <c r="AV59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr"/>
+      <c r="AX59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>RV/Camper 2022 - 8"</t>
+          <t>Premium Dash Cams</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="n">
-        <v>1</v>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="O60" t="n">
+        <v>5</v>
+      </c>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -4528,23 +4672,27 @@
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="inlineStr"/>
-      <c r="AH60" t="inlineStr"/>
+      <c r="AH60" t="n">
+        <v>1</v>
+      </c>
       <c r="AI60" t="inlineStr"/>
       <c r="AJ60" t="inlineStr"/>
       <c r="AK60" t="inlineStr"/>
       <c r="AL60" t="inlineStr"/>
-      <c r="AM60" t="inlineStr"/>
+      <c r="AM60" t="n">
+        <v>2</v>
+      </c>
       <c r="AN60" t="inlineStr"/>
-      <c r="AO60" t="inlineStr"/>
+      <c r="AO60" t="n">
+        <v>1</v>
+      </c>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
       <c r="AR60" t="inlineStr"/>
@@ -4552,6 +4700,8 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AU60" t="inlineStr"/>
       <c r="AV60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr"/>
+      <c r="AX60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
@@ -4592,22 +4742,22 @@
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="n">
+        <v>1</v>
+      </c>
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="inlineStr"/>
       <c r="AH61" t="inlineStr"/>
-      <c r="AI61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ61" t="inlineStr"/>
-      <c r="AK61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL61" t="inlineStr"/>
+      <c r="AI61" t="inlineStr"/>
+      <c r="AJ61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="n">
+        <v>1</v>
+      </c>
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr"/>
       <c r="AO61" t="inlineStr"/>
@@ -4618,6 +4768,8 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AU61" t="inlineStr"/>
       <c r="AV61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr"/>
+      <c r="AX61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
@@ -4659,10 +4811,10 @@
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="inlineStr"/>
-      <c r="AH62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
+      <c r="AI62" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ62" t="inlineStr"/>
       <c r="AK62" t="inlineStr"/>
       <c r="AL62" t="inlineStr"/>
@@ -4676,27 +4828,35 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AU62" t="inlineStr"/>
       <c r="AV62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr"/>
+      <c r="AX62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>Tread Audio System</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="n">
-        <v>1</v>
-      </c>
+          <t>zumo XT2</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>3</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
@@ -4715,14 +4875,20 @@
       </c>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="inlineStr"/>
+      <c r="AD63" t="n">
+        <v>1</v>
+      </c>
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
-      <c r="AH63" t="inlineStr"/>
+      <c r="AH63" t="n">
+        <v>1</v>
+      </c>
       <c r="AI63" t="inlineStr"/>
       <c r="AJ63" t="inlineStr"/>
-      <c r="AK63" t="inlineStr"/>
+      <c r="AK63" t="n">
+        <v>1</v>
+      </c>
       <c r="AL63" t="inlineStr"/>
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr"/>
@@ -4734,27 +4900,39 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AU63" t="inlineStr"/>
       <c r="AV63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr"/>
+      <c r="AX63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n"/>
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Wang, Cooper</t>
+        </is>
+      </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022 - 6"</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
+          <t>Approach S70</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>3</v>
+      </c>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
@@ -4767,20 +4945,26 @@
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
+      <c r="AC64" t="n">
+        <v>1</v>
+      </c>
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="inlineStr"/>
-      <c r="AF64" t="inlineStr"/>
+      <c r="AF64" t="n">
+        <v>1</v>
+      </c>
       <c r="AG64" t="inlineStr"/>
       <c r="AH64" t="inlineStr"/>
-      <c r="AI64" t="inlineStr"/>
+      <c r="AI64" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ64" t="inlineStr"/>
-      <c r="AK64" t="inlineStr"/>
+      <c r="AK64" t="n">
+        <v>1</v>
+      </c>
       <c r="AL64" t="inlineStr"/>
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr"/>
@@ -4792,27 +4976,35 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AU64" t="inlineStr"/>
       <c r="AV64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr"/>
+      <c r="AX64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022 - 7"</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
+          <t>Approach S70s</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>3</v>
+      </c>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
@@ -4825,20 +5017,26 @@
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="inlineStr"/>
+      <c r="AC65" t="n">
+        <v>1</v>
+      </c>
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="inlineStr"/>
+      <c r="AF65" t="n">
+        <v>1</v>
+      </c>
       <c r="AG65" t="inlineStr"/>
       <c r="AH65" t="inlineStr"/>
-      <c r="AI65" t="inlineStr"/>
+      <c r="AI65" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ65" t="inlineStr"/>
-      <c r="AK65" t="inlineStr"/>
+      <c r="AK65" t="n">
+        <v>1</v>
+      </c>
       <c r="AL65" t="inlineStr"/>
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr"/>
@@ -4850,42 +5048,48 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AU65" t="inlineStr"/>
       <c r="AV65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr"/>
+      <c r="AX65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022 - 8"</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>1</v>
-      </c>
+          <t>Descent Mk3 Series - Large</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
+      <c r="O66" t="n">
+        <v>2</v>
+      </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
       <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
+      <c r="T66" t="n">
+        <v>1</v>
+      </c>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
@@ -4893,101 +5097,129 @@
       <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="inlineStr"/>
-      <c r="AH66" t="inlineStr"/>
+      <c r="AH66" t="n">
+        <v>1</v>
+      </c>
       <c r="AI66" t="inlineStr"/>
       <c r="AJ66" t="inlineStr"/>
       <c r="AK66" t="inlineStr"/>
       <c r="AL66" t="inlineStr"/>
-      <c r="AM66" t="inlineStr"/>
+      <c r="AM66" t="n">
+        <v>1</v>
+      </c>
       <c r="AN66" t="inlineStr"/>
       <c r="AO66" t="inlineStr"/>
-      <c r="AP66" t="inlineStr"/>
+      <c r="AP66" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ66" t="inlineStr"/>
-      <c r="AR66" t="inlineStr"/>
+      <c r="AR66" t="n">
+        <v>1</v>
+      </c>
       <c r="AS66" t="inlineStr"/>
       <c r="AT66" t="inlineStr"/>
       <c r="AU66" t="inlineStr"/>
       <c r="AV66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr"/>
+      <c r="AX66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>dezl OTR Series 2022-10"</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
+          <t>Descent Mk3 Series - Small</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
       <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr"/>
-      <c r="AG67" t="inlineStr"/>
+      <c r="AG67" t="n">
+        <v>1</v>
+      </c>
       <c r="AH67" t="inlineStr"/>
       <c r="AI67" t="inlineStr"/>
       <c r="AJ67" t="inlineStr"/>
       <c r="AK67" t="inlineStr"/>
-      <c r="AL67" t="inlineStr"/>
+      <c r="AL67" t="n">
+        <v>1</v>
+      </c>
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr"/>
-      <c r="AO67" t="inlineStr"/>
+      <c r="AO67" t="n">
+        <v>1</v>
+      </c>
       <c r="AP67" t="inlineStr"/>
-      <c r="AQ67" t="inlineStr"/>
+      <c r="AQ67" t="n">
+        <v>1</v>
+      </c>
       <c r="AR67" t="inlineStr"/>
       <c r="AS67" t="inlineStr"/>
       <c r="AT67" t="inlineStr"/>
       <c r="AU67" t="inlineStr"/>
       <c r="AV67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr"/>
+      <c r="AX67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>dezlCam OTR710 &amp; RV 795</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>3</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" t="inlineStr"/>
+          <t>EPIX PRO (Gen 2) 47mm</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>3</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -5001,21 +5233,25 @@
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="inlineStr"/>
+      <c r="AC68" t="n">
+        <v>1</v>
+      </c>
       <c r="AD68" t="inlineStr"/>
-      <c r="AE68" t="inlineStr"/>
+      <c r="AE68" t="n">
+        <v>1</v>
+      </c>
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="inlineStr"/>
-      <c r="AH68" t="inlineStr"/>
+      <c r="AH68" t="n">
+        <v>1</v>
+      </c>
       <c r="AI68" t="inlineStr"/>
-      <c r="AJ68" t="inlineStr"/>
+      <c r="AJ68" t="n">
+        <v>1</v>
+      </c>
       <c r="AK68" t="inlineStr"/>
       <c r="AL68" t="inlineStr"/>
       <c r="AM68" t="inlineStr"/>
@@ -5028,33 +5264,35 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AU68" t="inlineStr"/>
       <c r="AV68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr"/>
+      <c r="AX68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>zumo XT2</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
+          <t>EPIX PRO (Gen 2) 51mm</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="n">
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="n">
         <v>2</v>
       </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="n">
-        <v>3</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
@@ -5067,9 +5305,7 @@
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="n">
@@ -5081,12 +5317,14 @@
         <v>1</v>
       </c>
       <c r="AG69" t="inlineStr"/>
-      <c r="AH69" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr"/>
+      <c r="AI69" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ69" t="inlineStr"/>
-      <c r="AK69" t="inlineStr"/>
+      <c r="AK69" t="n">
+        <v>1</v>
+      </c>
       <c r="AL69" t="inlineStr"/>
       <c r="AM69" t="inlineStr"/>
       <c r="AN69" t="inlineStr"/>
@@ -5098,37 +5336,31 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AU69" t="inlineStr"/>
       <c r="AV69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr"/>
+      <c r="AX69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Wang, Cooper</t>
-        </is>
-      </c>
+      <c r="A70" s="1" t="n"/>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>Approach S70</t>
+          <t>Marq (Gen 2)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="n">
-        <v>1</v>
-      </c>
-      <c r="F70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>5</v>
+      </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>3</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
@@ -5143,23 +5375,19 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
-      <c r="AB70" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
-      <c r="AD70" t="inlineStr"/>
-      <c r="AE70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF70" t="inlineStr"/>
+      <c r="AD70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="n">
+        <v>1</v>
+      </c>
       <c r="AG70" t="inlineStr"/>
-      <c r="AH70" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH70" t="inlineStr"/>
       <c r="AI70" t="inlineStr"/>
-      <c r="AJ70" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ70" t="inlineStr"/>
       <c r="AK70" t="inlineStr"/>
       <c r="AL70" t="inlineStr"/>
       <c r="AM70" t="inlineStr"/>
@@ -5172,35 +5400,33 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AU70" t="inlineStr"/>
       <c r="AV70" t="inlineStr"/>
+      <c r="AW70" t="inlineStr"/>
+      <c r="AX70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>Approach S70s</t>
+          <t>Venu 3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="n">
-        <v>1</v>
-      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="n">
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
         <v>2</v>
       </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>3</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
@@ -5213,26 +5439,22 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="inlineStr"/>
-      <c r="AE71" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
       <c r="AH71" t="n">
         <v>1</v>
       </c>
       <c r="AI71" t="inlineStr"/>
-      <c r="AJ71" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ71" t="inlineStr"/>
       <c r="AK71" t="inlineStr"/>
       <c r="AL71" t="inlineStr"/>
-      <c r="AM71" t="inlineStr"/>
+      <c r="AM71" t="n">
+        <v>1</v>
+      </c>
       <c r="AN71" t="inlineStr"/>
       <c r="AO71" t="inlineStr"/>
       <c r="AP71" t="inlineStr"/>
@@ -5242,40 +5464,42 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AU71" t="inlineStr"/>
       <c r="AV71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr"/>
+      <c r="AX71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>Descent Mk3 Series - Large</t>
+          <t>fenix 7S Pro (2022)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>3</v>
+      </c>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
       <c r="N72" t="inlineStr"/>
-      <c r="O72" t="n">
-        <v>2</v>
-      </c>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="n">
-        <v>3</v>
-      </c>
+      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
-      <c r="T72" t="n">
-        <v>1</v>
-      </c>
+      <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
@@ -5286,65 +5510,71 @@
       <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
-      <c r="AE72" t="inlineStr"/>
-      <c r="AF72" t="inlineStr"/>
-      <c r="AG72" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG72" t="inlineStr"/>
       <c r="AH72" t="inlineStr"/>
-      <c r="AI72" t="inlineStr"/>
+      <c r="AI72" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ72" t="inlineStr"/>
-      <c r="AK72" t="inlineStr"/>
-      <c r="AL72" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL72" t="inlineStr"/>
       <c r="AM72" t="inlineStr"/>
       <c r="AN72" t="inlineStr"/>
-      <c r="AO72" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO72" t="inlineStr"/>
       <c r="AP72" t="inlineStr"/>
-      <c r="AQ72" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ72" t="inlineStr"/>
       <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr"/>
       <c r="AT72" t="inlineStr"/>
       <c r="AU72" t="inlineStr"/>
       <c r="AV72" t="inlineStr"/>
+      <c r="AW72" t="inlineStr"/>
+      <c r="AX72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n"/>
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Wang, Evelyn</t>
+        </is>
+      </c>
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>Descent Mk3 Series - Small</t>
+          <t>GPSMAP 9000 - 19"</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>2</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="n">
-        <v>3</v>
-      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
-        <v>1</v>
-      </c>
+      <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
@@ -5353,118 +5583,120 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
+      <c r="AB73" t="n">
+        <v>1</v>
+      </c>
       <c r="AC73" t="inlineStr"/>
       <c r="AD73" t="inlineStr"/>
       <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="inlineStr"/>
-      <c r="AH73" t="inlineStr"/>
+      <c r="AH73" t="n">
+        <v>1</v>
+      </c>
       <c r="AI73" t="inlineStr"/>
       <c r="AJ73" t="inlineStr"/>
-      <c r="AK73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="n">
+        <v>1</v>
+      </c>
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="n">
         <v>1</v>
       </c>
       <c r="AO73" t="inlineStr"/>
-      <c r="AP73" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP73" t="inlineStr"/>
       <c r="AQ73" t="inlineStr"/>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
       <c r="AT73" t="inlineStr"/>
       <c r="AU73" t="inlineStr"/>
       <c r="AV73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr"/>
+      <c r="AX73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 47mm</t>
+          <t>LED Control Module</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="n">
-        <v>1</v>
-      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="n">
-        <v>2</v>
-      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>3</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>1</v>
+      </c>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
-      <c r="AD74" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD74" t="inlineStr"/>
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr"/>
-      <c r="AG74" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG74" t="inlineStr"/>
       <c r="AH74" t="inlineStr"/>
-      <c r="AI74" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI74" t="inlineStr"/>
       <c r="AJ74" t="inlineStr"/>
-      <c r="AK74" t="inlineStr"/>
+      <c r="AK74" t="n">
+        <v>1</v>
+      </c>
       <c r="AL74" t="inlineStr"/>
       <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="inlineStr"/>
       <c r="AO74" t="inlineStr"/>
-      <c r="AP74" t="inlineStr"/>
+      <c r="AP74" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ74" t="inlineStr"/>
       <c r="AR74" t="inlineStr"/>
-      <c r="AS74" t="inlineStr"/>
-      <c r="AT74" t="inlineStr"/>
+      <c r="AS74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>1</v>
+      </c>
       <c r="AU74" t="inlineStr"/>
       <c r="AV74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr"/>
+      <c r="AX74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>EPIX PRO (Gen 2) 51mm</t>
+          <t>Panoptix PS70 - (SSMB)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="n">
-        <v>1</v>
-      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
@@ -5493,24 +5725,22 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
-      <c r="AE75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="n">
+        <v>1</v>
+      </c>
       <c r="AG75" t="inlineStr"/>
-      <c r="AH75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI75" t="inlineStr"/>
-      <c r="AJ75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK75" t="inlineStr"/>
+      <c r="AH75" t="inlineStr"/>
+      <c r="AI75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ75" t="inlineStr"/>
+      <c r="AK75" t="n">
+        <v>1</v>
+      </c>
       <c r="AL75" t="inlineStr"/>
       <c r="AM75" t="inlineStr"/>
       <c r="AN75" t="inlineStr"/>
@@ -5522,422 +5752,20 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AU75" t="inlineStr"/>
       <c r="AV75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n"/>
-      <c r="B76" s="1" t="inlineStr">
-        <is>
-          <t>Marq (Gen 2)</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="n">
-        <v>5</v>
-      </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
-      <c r="AA76" t="inlineStr"/>
-      <c r="AB76" t="inlineStr"/>
-      <c r="AC76" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD76" t="inlineStr"/>
-      <c r="AE76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF76" t="inlineStr"/>
-      <c r="AG76" t="inlineStr"/>
-      <c r="AH76" t="inlineStr"/>
-      <c r="AI76" t="inlineStr"/>
-      <c r="AJ76" t="inlineStr"/>
-      <c r="AK76" t="inlineStr"/>
-      <c r="AL76" t="inlineStr"/>
-      <c r="AM76" t="inlineStr"/>
-      <c r="AN76" t="inlineStr"/>
-      <c r="AO76" t="inlineStr"/>
-      <c r="AP76" t="inlineStr"/>
-      <c r="AQ76" t="inlineStr"/>
-      <c r="AR76" t="inlineStr"/>
-      <c r="AS76" t="inlineStr"/>
-      <c r="AT76" t="inlineStr"/>
-      <c r="AU76" t="inlineStr"/>
-      <c r="AV76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n"/>
-      <c r="B77" s="1" t="inlineStr">
-        <is>
-          <t>Venu 3</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="n">
-        <v>1</v>
-      </c>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
-      <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG77" t="inlineStr"/>
-      <c r="AH77" t="inlineStr"/>
-      <c r="AI77" t="inlineStr"/>
-      <c r="AJ77" t="inlineStr"/>
-      <c r="AK77" t="inlineStr"/>
-      <c r="AL77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM77" t="inlineStr"/>
-      <c r="AN77" t="inlineStr"/>
-      <c r="AO77" t="inlineStr"/>
-      <c r="AP77" t="inlineStr"/>
-      <c r="AQ77" t="inlineStr"/>
-      <c r="AR77" t="inlineStr"/>
-      <c r="AS77" t="inlineStr"/>
-      <c r="AT77" t="inlineStr"/>
-      <c r="AU77" t="inlineStr"/>
-      <c r="AV77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n"/>
-      <c r="B78" s="1" t="inlineStr">
-        <is>
-          <t>fenix 7S Pro (2022)</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>3</v>
-      </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr"/>
-      <c r="AC78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF78" t="inlineStr"/>
-      <c r="AG78" t="inlineStr"/>
-      <c r="AH78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI78" t="inlineStr"/>
-      <c r="AJ78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK78" t="inlineStr"/>
-      <c r="AL78" t="inlineStr"/>
-      <c r="AM78" t="inlineStr"/>
-      <c r="AN78" t="inlineStr"/>
-      <c r="AO78" t="inlineStr"/>
-      <c r="AP78" t="inlineStr"/>
-      <c r="AQ78" t="inlineStr"/>
-      <c r="AR78" t="inlineStr"/>
-      <c r="AS78" t="inlineStr"/>
-      <c r="AT78" t="inlineStr"/>
-      <c r="AU78" t="inlineStr"/>
-      <c r="AV78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>Wang, Evelyn</t>
-        </is>
-      </c>
-      <c r="B79" s="1" t="inlineStr">
-        <is>
-          <t>GPSMAP 9000 - 19"</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>2</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
-        <v>3</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB79" t="inlineStr"/>
-      <c r="AC79" t="inlineStr"/>
-      <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="inlineStr"/>
-      <c r="AF79" t="inlineStr"/>
-      <c r="AG79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH79" t="inlineStr"/>
-      <c r="AI79" t="inlineStr"/>
-      <c r="AJ79" t="inlineStr"/>
-      <c r="AK79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL79" t="inlineStr"/>
-      <c r="AM79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN79" t="inlineStr"/>
-      <c r="AO79" t="inlineStr"/>
-      <c r="AP79" t="inlineStr"/>
-      <c r="AQ79" t="inlineStr"/>
-      <c r="AR79" t="inlineStr"/>
-      <c r="AS79" t="inlineStr"/>
-      <c r="AT79" t="inlineStr"/>
-      <c r="AU79" t="inlineStr"/>
-      <c r="AV79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n"/>
-      <c r="B80" s="1" t="inlineStr">
-        <is>
-          <t>LED Control Module</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="n">
-        <v>2</v>
-      </c>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="n">
-        <v>3</v>
-      </c>
-      <c r="V80" t="n">
-        <v>1</v>
-      </c>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
-      <c r="AA80" t="inlineStr"/>
-      <c r="AB80" t="inlineStr"/>
-      <c r="AC80" t="inlineStr"/>
-      <c r="AD80" t="inlineStr"/>
-      <c r="AE80" t="inlineStr"/>
-      <c r="AF80" t="inlineStr"/>
-      <c r="AG80" t="inlineStr"/>
-      <c r="AH80" t="inlineStr"/>
-      <c r="AI80" t="inlineStr"/>
-      <c r="AJ80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK80" t="inlineStr"/>
-      <c r="AL80" t="inlineStr"/>
-      <c r="AM80" t="inlineStr"/>
-      <c r="AN80" t="inlineStr"/>
-      <c r="AO80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP80" t="inlineStr"/>
-      <c r="AQ80" t="inlineStr"/>
-      <c r="AR80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT80" t="inlineStr"/>
-      <c r="AU80" t="inlineStr"/>
-      <c r="AV80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n"/>
-      <c r="B81" s="1" t="inlineStr">
-        <is>
-          <t>Panoptix PS70 - (SSMB)</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>3</v>
-      </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
-      <c r="AA81" t="inlineStr"/>
-      <c r="AB81" t="inlineStr"/>
-      <c r="AC81" t="inlineStr"/>
-      <c r="AD81" t="inlineStr"/>
-      <c r="AE81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF81" t="inlineStr"/>
-      <c r="AG81" t="inlineStr"/>
-      <c r="AH81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI81" t="inlineStr"/>
-      <c r="AJ81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK81" t="inlineStr"/>
-      <c r="AL81" t="inlineStr"/>
-      <c r="AM81" t="inlineStr"/>
-      <c r="AN81" t="inlineStr"/>
-      <c r="AO81" t="inlineStr"/>
-      <c r="AP81" t="inlineStr"/>
-      <c r="AQ81" t="inlineStr"/>
-      <c r="AR81" t="inlineStr"/>
-      <c r="AS81" t="inlineStr"/>
-      <c r="AT81" t="inlineStr"/>
-      <c r="AU81" t="inlineStr"/>
-      <c r="AV81" t="inlineStr"/>
+      <c r="AW75" t="inlineStr"/>
+      <c r="AX75" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C1:Y1"/>
-    <mergeCell ref="Z1:AV1"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A13:A28"/>
-    <mergeCell ref="A29:A44"/>
-    <mergeCell ref="A45:A54"/>
-    <mergeCell ref="A55:A69"/>
-    <mergeCell ref="A70:A78"/>
-    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="C1:Z1"/>
+    <mergeCell ref="AA1:AX1"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A14:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A64:A72"/>
+    <mergeCell ref="A73:A75"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6076,22 +5904,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>16499</v>
+        <v>16387</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BMW Motorrad Connectivity unit RFQ</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>GT12M &amp; GT15M Thru-Hull Flush</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44992</v>
+      </c>
       <c r="E2" s="2" t="n">
-        <v>46022</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>45096</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45048</v>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6101,24 +5935,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Concepts</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>16590</v>
+        <v>16499</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PGWW23</t>
+          <t>BMW Motorrad Connectivity unit RFQ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>45194</v>
+        <v>46022</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
@@ -6140,26 +5974,22 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>16456</v>
+        <v>16590</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Descent T2 Transceiver</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>44967</v>
-      </c>
+          <t>PGWW23</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" s="2" t="n">
-        <v>45138</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>45086</v>
-      </c>
+        <v>45194</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6169,7 +5999,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -6248,7 +6078,7 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45082</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="3">
@@ -6312,11 +6142,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>11792</v>
+        <v>16503</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IXWW22</t>
+          <t>TWIN23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6326,12 +6156,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tsai, Cherry;
-Ko, Simon</t>
+          <t>Ko, Simon;
+Hu, Ray</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>44739</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="6">

--- a/GMLA loading analysis/PMsystem_PRweb/(Output) Data.xlsx
+++ b/GMLA loading analysis/PMsystem_PRweb/(Output) Data.xlsx
@@ -11,6 +11,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ww_asia_diff_DPQE" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="projects_wo_DPQE" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="multi_dpqe" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPdate_from_now_count" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPdate_from_now" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPdate_NaT_count" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPdate_NaT" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,9 +23,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -110,12 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -6191,4 +6198,8961 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="48" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Project ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Project Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MP Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Global/Asia</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PDP/Form107</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12983</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Tread XL - Baja Race Edition</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>44851</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13009</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Dash Cam Live (LTE)</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>44858</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>16467</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Drive 53</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>44900</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>15955</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tread 8" OEM - Honda</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>44935</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>16069</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>zumo XT2</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>44991</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>15624</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Catalyst Kart/Moto/Roadster</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>45005</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11778</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Tire Temp Sensor</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>45026</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>16199</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DC-2023 Premium Dash Cameras</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>45138</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13644</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Tacx NEO Bike Plus</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>44823</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10919</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Bounce</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>44858</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14004</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vivomove Trend</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>44879</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>14529</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Forerunner 265</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>16002</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Forerunner 965</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>44935</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14509</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Edge 540 840</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>44956</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15837</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Varia eBike Radar Tail Light (eRTL615)</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>44991</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>15520</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Venu 3</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>45075</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>15519</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Venu 3S</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>45075</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>15808</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Tacx NEO 3M</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>45121</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>15993</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Lily 2</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>45229</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>12408</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>GC 300 (PTZ) Camera</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>44903</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15524</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>FUSION - WB675 Hide Away Stereo</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>13095</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ECHOMAP UHD2 (Touch)</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>44914</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>14554</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Serv+ (7"/10")</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>44977</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>10091</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Panoptix PS70 - (SSMB)</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>44998</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>16246</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>GMR xHD3 Domes (18/24xHD replacement)</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>45005</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>15804</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>GMR xHD3 Magnetron Open Arrays</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>45005</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>15876</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>GSD28</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>45047</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>12789</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Force Kraken Trolling Motor</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>45089</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>16387</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>GT12M &amp; GT15M Thru-Hull Flush</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>45096</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>9756</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>BlueNET Gateway</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>45103</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>9755</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>BlueNET Switch</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>45103</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>9946</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>GPSMAP 9000</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>45103</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>15800</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Fusion - Signature Series 4 Speakers and Subs</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>45135</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>16233</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Prop Drive Cost Down</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>45229</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>13134</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>LED Control Module</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>45299</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>10617</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Force Kayak Propulsion System</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>45502</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>13004</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Marq (Gen 2)</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>44844</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>13084</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Instinct Crossover</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>44845</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>15843</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>eTrex SE</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>44893</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>12253</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Xero C1 Chronograph</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>44900</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>7029</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Alpha Dog Collar</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>14769</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Foretrex 801/901</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>44963</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>15803</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>EPIX PRO (Gen 2) 42mm</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>44970</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>16217</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>EPIX PRO (Gen 2) 47mm</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>44977</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>16218</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>EPIX PRO (Gen 2) 51mm</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>44991</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>14729</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>fenix 7 Pro</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>44998</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>16176</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Approach S70</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>45005</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>15419</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Approach S70S</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>45005</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>16108</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>fenix 7S Pro</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>45005</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>16020</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Instinct 2X Solar</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>45005</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>16112</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>fenix 7X Pro</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>45012</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>12705</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Approach Z50</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>45047</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>12799</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Descent S1 Buoy</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>45138</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>16456</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Descent T2 Transceiver</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>45138</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>10901</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>eTrex Solar</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>45159</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>16095</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Cellular Tracking Module</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>45176</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>16205</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Descent Mk3s</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>45187</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>8510</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Xero L60i Laser Navigator</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>45187</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>12994</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Descent Mk3</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>45201</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>15469</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Descent X1i</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>45474</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>13229</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Xero B60i Laser Navigation Binoculars</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>45551</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Garmin Labs</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G215"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="52" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Project ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Project Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MP Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Global/Asia</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PDP/Form107</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16319</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Aviation Headset -</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16249</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>dezl headset (2nd Gen)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11403</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7.1 SW Features</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6614</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ACO Priority List</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6616</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AvnServices - ACARS</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>15074</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Connected Cockpit</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3767</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HIRF &amp; Lightning System Cert</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6465</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Industrial Design</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6651</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Non-Certified Aviation Software</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>12164</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Product - 1.3\" GTR/GNC</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6539</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Product - AFCS</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13099</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Product - D2 Air</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10496</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Product - GDL 60 (LTE)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7894</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Product - GRA 15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2914</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Product - GTN 6xx/7xx</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8220</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Product - NexGen GPS</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6680</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Product - Transponder</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6810</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Salem Aircraft Cert Status</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6755</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Salem SW LRU Status</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6775</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>STC - G500/G600 P23 AML</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6901</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>STC - G500H P27 AML</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6782</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>STC - GFC 500/600 Management</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>11022</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>STC - GPS 175/375/355 P23 AML</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6779</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>STC - GTX 3x5 P23 AML</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6915</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>STC - GTX 3x5 P27 AML</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>7145</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>STC - TXi P23 AML</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10240</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>System Release Status</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>14925</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Taiwan to US Production Move</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>16242</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5G Rad Alt Solutions/Activities</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>15915</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Aera 660 Screen Replacement</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>16488</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>AFCS SYS REL 5.1.X</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>16490</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>AFCS SYS REL 6.2.X</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>16491</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>AFCS SYS REL 7.2.X</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>16493</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>AFCS SYS REL 7.3.X</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>16348</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Alternate Actuators</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>11043</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ARINC Projects</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>13834</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Aviation inReach</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>15669</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>AvnServices - ACARS Host (Ground Services)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>16027</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>AvnServices - ATSB2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>16290</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>BA TOLD</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>16291</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CA Mobile App</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>16294</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CAP010 New Hardware Reporting</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>15924</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Cert Gain Tool</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>15984</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CJ Autothrottle</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>15932</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Current Development</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>13529</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Custom - 7800 New Sensors</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>7974</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Custom - MechEng Initiatives</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>16293</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>D2 Air X15</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>16292</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>D2 Mach 2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>13584</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ENG-0276</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>10728</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>European UAT Trials</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>14140</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Feature - GTX Mode 1/2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>7961</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Feature - Throttle Quadrant</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>16559</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>GA 26MCX</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>16487</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>GA 26X</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>16579</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>GA 62</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>16397</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>GAD 27 - New CPU</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>15925</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>GADGET</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>16561</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Garmin Display Driver</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>14959</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Garmin OnStar</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>16580</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Garmin Trim Switch</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>16562</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Garmin Yoke</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>13249</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>GBB 40</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>16449</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>GCU 485, Gray, 3 Button</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>16158</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>GDL 60 Chart Streaming</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>15818</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>GDL59 - WiFi Refresh</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>16578</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>GDU 46x KOE-JDI</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>15994</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>GEA 24B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>15927</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>GFC 500/600</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>15664</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>GFC 600 for Part 25 Aircraft</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>16099</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>GI 275 AT Computer</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>16185</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>GI 4700</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>16029</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>GIFD 3.0 SW</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>9196</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>GIFD 3.0 Technologies</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>15826</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Glide Assist</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>16604</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>GMA 35xc Refresh</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>16093</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>GMA x4x BT Redesign</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>16489</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>GMC 605C - AFCS SYS &amp; SW</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>16287</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>GMC 805 IBEX</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>16396</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>GMU 44B New Processor</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>16229</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>GPD 3150</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>16117</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>GPD 3200</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>16306</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>GRA 6500</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>16289</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>GSG - Air Transport</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>15574</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>GSR 56C Services</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>12284</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>GSS Integrated Surveillance System</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>15816</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>GSU 25C/D New Gyro</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>15962</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>GTE 200</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>16220</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>GTN Xi FPGA Replacement</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>16448</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>GTS Processor (ACAS Xa)</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>14194</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>GVM 53</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>16336</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>GWX Interface Unit</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>14960</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Helicopter Emergency Autoland</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>15931</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Helicopter Simulation Environment: A109</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>15926</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>HUD Applications</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>16288</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>IBEX GI 275 Remount Mount Unit</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>15928</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Initial Development</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>16399</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>inReach Fly Max</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>16398</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>inReach Fly Mini</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>16136</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Large Format TXi</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>16036</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Low-End GIFD Trainer</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>15475</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>LTE Outlet</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>15825</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>NX5</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>16066</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>P23 FBW</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>13719</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Probe Heater Coiling and Brazing</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>12910</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Product - FCC Concept</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>11984</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Product - Fixed Mount HUD</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>12717</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Product - G3X/G500TXi Hybrid</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>16086</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Product - GAT 89</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>11825</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Product - GCD 1600</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>13126</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Product - GDL 59 Replace</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>13759</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Product - GDL 5X Redesign</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>12509</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Product - GDU147XW</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>12510</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Product - GDU77XW</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>15436</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Product - GIFD3 Controller</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>15435</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Product - GIFD3 Data Loader</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>7891</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Product - GIN 6000</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>12539</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Product - GSR 56C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>13913</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Product - GTE 1x0</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>11249</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Product - GTX Miniaturized</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>10341</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Product - GVS 2020</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>11577</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Product - Head Mounted Display</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>8227</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Product - MEMS INS</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>12258</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Product - Scanning DME</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>16335</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>SafeTaxi 3.0</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>16204</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Secure Config Module</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>15884</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>15939</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Smart Glide (GIFD)</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>15665</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Smart Rudder Bias</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>15938</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Smart Rudder Bias (GIFD)</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>16495</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Software - GDU 7xx - SW v3.15</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>16455</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>STC - GTN Xi GDL 60 Installation</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>16046</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>STC - TXi v3.4x P23 AML</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>16087</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>STC - TXi v3.5x P23 AML</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>16447</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>T1-Tx adapter</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>15464</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Touchscreen Technologies</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>11088</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>UAS Products</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>15654</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Waveguide HUD</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>16054</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Wingtip Proximity Sensor</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>15798</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>X.3/G3X Power Module</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>16437</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Forerunner 165 and 165 Music</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>16197</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Edge 1050</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>16345</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Elevate Accessory</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>16061</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Fitness Gamification</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>16005</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>HRM6-Advanced</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>16555</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>HRM6-Basic</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>16248</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Lily Athlete</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>13749</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Postpartum Tracking</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>16349</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Rally X10 Family</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>10693</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>SaMD PPG Atrial Fibrillation Detection</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>10692</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>SaMD Sleep Apnea Risk Assessment</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>16250</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Tacx FLUX 3M</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>16183</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Varia Headlight Camera</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>16388</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>vivoactive 5</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>Garmin Labs</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>16230</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Dive Light with Sonar</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>Garmin Labs</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>16053</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>HRM-Her</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>Garmin Labs</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>16279</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Thin Watch</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>12844</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Cartography - Chart Subscriptions</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>16616</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>GPSMAP 9500</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>16483</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>ECHOMAP Ultra 2</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>16300</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Flush Mount Stainless Steel Camera</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>16411</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Fusion - RA800</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>16405</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>GMI 50 (Next Gen)</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>16588</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>GPSMAP 16X3 Chartplotters</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>16094</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>inReach Fishing Scale (Major League Fishing)</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>16554</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Mid-Market Trolling Motor</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>16198</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>MOB/ECOS System</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>16501</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Panoptix Ice Fishing Transducer</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>16365</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Surface Mount Camera</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>13479</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Honda MLFA</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>16500</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>ACADIA</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>14879</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Android Automotive Research AOEM</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>15841</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Aquarius</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>16275</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Audi Oneinfotainment BtP RFQ</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>16412</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Blue Jay</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>14374</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>BMW Motorrad Cluster RFI</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>12264</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>BMW NAV X</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>13149</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>BRP Cluster Head Unit</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>16077</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>CES/Roadmap 2022 AOEM</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>11922</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>CES2021/Roadmap</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>15465</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Ford ADAS RFI/RFQ</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>12549</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Ford Off-Road App RFI</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>16392</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Honda PowerSports Capacitive Touch Dev</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>15634</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Honda RSE</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>11979</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Honda Talon HU RFQ</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>16373</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>IDC23vo</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>12141</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>JLR NAV SW Solution - RFI</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>15285</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Kenwood SW-Only 2022 Truck</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>15284</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Kenwood SW-Only 2023 DNX&amp;Truck</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>10926</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Approach R50</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>16152</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Garmin Wallet</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>11252</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>MARQ Carbon (Gen 2)</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>14704</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Next Gen Fenix Dev Platform</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>7011</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Xero G2i SatCom Scouting Camera</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>16592</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Alpha 5</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>15619</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Approach G20</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>13034</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Companion Dog Tracking Collar</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>10016</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Connect IQ 3.x</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>15987</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Descent Subwave Solar</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>16244</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>EPIX (Gen 3)</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>16215</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>eTrex Touch Gen 2</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>16514</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>fenix 8 Series</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>16137</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>GPSMAP 68</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>14739</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>inReach Certus IoT</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>16216</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>inReach Messenger XL</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>16298</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Instinct 3 Series</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>16134</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Instinct Lite</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>16044</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>K60i Compact Laser Navigation Binocular 8/10x32mm</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>14604</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>L20 Laser Range Finder</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>16037</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>M60i Laser Navigation Binoculars 15/18x56mm</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>16212</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Marq (Gen 3)</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>12279</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Marq Hybrid</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>15988</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Xero A2i Bow Sight</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>15990</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Xero X20 Crossbow Scope</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/GMLA loading analysis/PMsystem_PRweb/(Output) Data.xlsx
+++ b/GMLA loading analysis/PMsystem_PRweb/(Output) Data.xlsx
@@ -13,8 +13,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="multi_dpqe" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPdate_from_now_count" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPdate_from_now" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPdate_NaT_count" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPdate_NaT" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No_MPdate_count" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No_MPdate" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aviation_PRweb" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8359,7 +8360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8367,7 +8368,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -8396,60 +8397,40 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fitness</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Garmin Labs</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
         <v>25</v>
       </c>
     </row>
@@ -8464,7 +8445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G215"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8472,7 +8453,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="52" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
@@ -8583,15 +8564,15 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11403</v>
+        <v>16437</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7.1 SW Features</t>
+          <t>Forerunner 165 and 165 Music</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -8614,15 +8595,15 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6614</v>
+        <v>16197</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ACO Priority List</t>
+          <t>Edge 1050</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -8638,22 +8619,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6616</v>
+        <v>16345</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AvnServices - ACARS</t>
+          <t>Elevate Accessory</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -8669,22 +8650,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15074</v>
+        <v>16061</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Connected Cockpit</t>
+          <t>Fitness Gamification</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -8700,22 +8681,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3767</v>
+        <v>16005</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HIRF &amp; Lightning System Cert</t>
+          <t>HRM6-Advanced</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -8731,22 +8712,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6465</v>
+        <v>16555</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Industrial Design</t>
+          <t>HRM6-Basic</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -8762,22 +8743,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6651</v>
+        <v>16248</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Non-Certified Aviation Software</t>
+          <t>Lily Athlete</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -8793,22 +8774,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12164</v>
+        <v>13749</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Product - 1.3\" GTR/GNC</t>
+          <t>Postpartum Tracking</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -8824,22 +8805,22 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6539</v>
+        <v>16349</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Product - AFCS</t>
+          <t>Rally X10 Family</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -8855,22 +8836,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13099</v>
+        <v>10693</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Product - D2 Air</t>
+          <t>SaMD PPG Atrial Fibrillation Detection</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -8886,22 +8867,22 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10496</v>
+        <v>10692</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Product - GDL 60 (LTE)</t>
+          <t>SaMD Sleep Apnea Risk Assessment</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -8917,22 +8898,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7894</v>
+        <v>16250</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Product - GRA 15</t>
+          <t>Tacx FLUX 3M</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -8948,22 +8929,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2914</v>
+        <v>16183</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Product - GTN 6xx/7xx</t>
+          <t>Varia Headlight Camera</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -8979,22 +8960,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8220</v>
+        <v>16388</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Product - NexGen GPS</t>
+          <t>vivoactive 5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -9010,22 +8991,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6680</v>
+        <v>12844</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Product - Transponder</t>
+          <t>Cartography - Chart Subscriptions</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -9048,15 +9029,15 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6810</v>
+        <v>16616</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Salem Aircraft Cert Status</t>
+          <t>GPSMAP 9500</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -9079,15 +9060,15 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6755</v>
+        <v>16483</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Salem SW LRU Status</t>
+          <t>ECHOMAP Ultra 2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -9103,22 +9084,22 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6775</v>
+        <v>16300</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>STC - G500/G600 P23 AML</t>
+          <t>Flush Mount Stainless Steel Camera</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -9134,22 +9115,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6901</v>
+        <v>16411</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>STC - G500H P27 AML</t>
+          <t>Fusion - RA800</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -9165,22 +9146,22 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6782</v>
+        <v>16405</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>STC - GFC 500/600 Management</t>
+          <t>GMI 50 (Next Gen)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -9196,22 +9177,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11022</v>
+        <v>16588</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>STC - GPS 175/375/355 P23 AML</t>
+          <t>GPSMAP 16X3 Chartplotters</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -9227,22 +9208,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6779</v>
+        <v>16094</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>STC - GTX 3x5 P23 AML</t>
+          <t>inReach Fishing Scale (Major League Fishing)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -9258,22 +9239,22 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6915</v>
+        <v>16554</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>STC - GTX 3x5 P27 AML</t>
+          <t>Mid-Market Trolling Motor</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -9289,22 +9270,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7145</v>
+        <v>16198</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>STC - TXi P23 AML</t>
+          <t>MOB/ECOS System</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -9320,22 +9301,22 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10240</v>
+        <v>16501</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>System Release Status</t>
+          <t>Panoptix Ice Fishing Transducer</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -9351,22 +9332,22 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Marine</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14925</v>
+        <v>16365</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Taiwan to US Production Move</t>
+          <t>Surface Mount Camera</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -9382,22 +9363,22 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Concepts</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16242</v>
+        <v>13479</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5G Rad Alt Solutions/Activities</t>
+          <t>Honda MLFA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -9413,22 +9394,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Concepts</t>
+          <t>Development</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15915</v>
+        <v>16500</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Aera 660 Screen Replacement</t>
+          <t>ACADIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -9451,15 +9432,15 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16488</v>
+        <v>14879</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AFCS SYS REL 5.1.X</t>
+          <t>Android Automotive Research AOEM</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -9482,15 +9463,15 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>16490</v>
+        <v>15841</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AFCS SYS REL 6.2.X</t>
+          <t>Aquarius</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -9513,15 +9494,15 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16491</v>
+        <v>16275</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AFCS SYS REL 7.2.X</t>
+          <t>Audi Oneinfotainment BtP RFQ</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -9544,15 +9525,15 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16493</v>
+        <v>16412</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AFCS SYS REL 7.3.X</t>
+          <t>Blue Jay</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -9575,15 +9556,15 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>16348</v>
+        <v>14374</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Alternate Actuators</t>
+          <t>BMW Motorrad Cluster RFI</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -9606,15 +9587,15 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11043</v>
+        <v>12264</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ARINC Projects</t>
+          <t>BMW NAV X</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -9637,15 +9618,15 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13834</v>
+        <v>13149</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Aviation inReach</t>
+          <t>BRP Cluster Head Unit</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -9668,15 +9649,15 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15669</v>
+        <v>16077</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AvnServices - ACARS Host (Ground Services)</t>
+          <t>CES/Roadmap 2022 AOEM</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -9699,15 +9680,15 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16027</v>
+        <v>11922</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AvnServices - ATSB2</t>
+          <t>CES2021/Roadmap</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -9730,15 +9711,15 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16290</v>
+        <v>15465</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BA TOLD</t>
+          <t>Ford ADAS RFI/RFQ</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -9761,15 +9742,15 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16291</v>
+        <v>12549</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CA Mobile App</t>
+          <t>Ford Off-Road App RFI</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -9792,15 +9773,15 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16294</v>
+        <v>16392</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CAP010 New Hardware Reporting</t>
+          <t>Honda PowerSports Capacitive Touch Dev</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -9823,15 +9804,15 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15924</v>
+        <v>15634</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cert Gain Tool</t>
+          <t>Honda RSE</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -9854,15 +9835,15 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>15984</v>
+        <v>11979</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CJ Autothrottle</t>
+          <t>Honda Talon HU RFQ</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -9885,15 +9866,15 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15932</v>
+        <v>16373</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Current Development</t>
+          <t>IDC23vo</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -9916,15 +9897,15 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>13529</v>
+        <v>12141</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Custom - 7800 New Sensors</t>
+          <t>JLR NAV SW Solution - RFI</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -9947,15 +9928,15 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7974</v>
+        <v>15285</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Custom - MechEng Initiatives</t>
+          <t>Kenwood SW-Only 2022 Truck</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -9978,15 +9959,15 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>OEM Auto</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>16293</v>
+        <v>15284</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>D2 Air X15</t>
+          <t>Kenwood SW-Only 2023 DNX&amp;Truck</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -10009,15 +9990,15 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>16292</v>
+        <v>10926</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>D2 Mach 2</t>
+          <t>Approach R50</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -10033,22 +10014,22 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Concepts</t>
+          <t>Development</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>13584</v>
+        <v>16152</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ENG-0276</t>
+          <t>Garmin Wallet</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -10064,22 +10045,22 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Concepts</t>
+          <t>Development</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>10728</v>
+        <v>11252</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>European UAT Trials</t>
+          <t>MARQ Carbon (Gen 2)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -10095,22 +10076,22 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Concepts</t>
+          <t>Development</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>14140</v>
+        <v>14704</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Feature - GTX Mode 1/2</t>
+          <t>Next Gen Fenix Dev Platform</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -10126,22 +10107,22 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Concepts</t>
+          <t>Development</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>7961</v>
+        <v>7011</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Feature - Throttle Quadrant</t>
+          <t>Xero G2i SatCom Scouting Camera</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -10157,22 +10138,22 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Concepts</t>
+          <t>Development</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>16559</v>
+        <v>16592</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GA 26MCX</t>
+          <t>Alpha 5</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -10195,15 +10176,15 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>16487</v>
+        <v>15619</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GA 26X</t>
+          <t>Approach G20</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -10226,15 +10207,15 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>16579</v>
+        <v>13034</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GA 62</t>
+          <t>Companion Dog Tracking Collar</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -10257,15 +10238,15 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>16397</v>
+        <v>10016</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GAD 27 - New CPU</t>
+          <t>Connect IQ 3.x</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -10288,15 +10269,15 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15925</v>
+        <v>15987</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GADGET</t>
+          <t>Descent Subwave Solar</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -10319,15 +10300,15 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>16561</v>
+        <v>16244</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Garmin Display Driver</t>
+          <t>EPIX (Gen 3)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -10350,15 +10331,15 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>14959</v>
+        <v>16215</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Garmin OnStar</t>
+          <t>eTrex Touch Gen 2</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -10381,15 +10362,15 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>16580</v>
+        <v>16514</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Garmin Trim Switch</t>
+          <t>fenix 8 Series</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -10412,15 +10393,15 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>16562</v>
+        <v>16137</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Garmin Yoke</t>
+          <t>GPSMAP 68</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -10443,15 +10424,15 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>13249</v>
+        <v>14739</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GBB 40</t>
+          <t>inReach Certus IoT</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -10474,15 +10455,15 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>16449</v>
+        <v>16216</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>GCU 485, Gray, 3 Button</t>
+          <t>inReach Messenger XL</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -10505,15 +10486,15 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>16158</v>
+        <v>16298</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>GDL 60 Chart Streaming</t>
+          <t>Instinct 3 Series</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -10536,15 +10517,15 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>15818</v>
+        <v>16134</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>GDL59 - WiFi Refresh</t>
+          <t>Instinct Lite</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -10567,15 +10548,15 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>16578</v>
+        <v>16044</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>GDU 46x KOE-JDI</t>
+          <t>K60i Compact Laser Navigation Binocular 8/10x32mm</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -10598,15 +10579,15 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>15994</v>
+        <v>14604</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>GEA 24B</t>
+          <t>L20 Laser Range Finder</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -10629,15 +10610,15 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>15927</v>
+        <v>16037</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GFC 500/600</t>
+          <t>M60i Laser Navigation Binoculars 15/18x56mm</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -10660,15 +10641,15 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>15664</v>
+        <v>16212</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GFC 600 for Part 25 Aircraft</t>
+          <t>Marq (Gen 3)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -10691,15 +10672,15 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>16099</v>
+        <v>12279</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>GI 275 AT Computer</t>
+          <t>Marq Hybrid</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -10722,15 +10703,15 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>16185</v>
+        <v>15988</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GI 4700</t>
+          <t>Xero A2i Bow Sight</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -10753,15 +10734,15 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Aviation</t>
+          <t>Outdoor</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>16029</v>
+        <v>15990</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>GIFD 3.0 SW</t>
+          <t>Xero X20 Crossbow Scope</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -10781,4376 +10762,160 @@
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Project Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Project Id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MP Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Product - G3X/G500TXi Hybrid</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Aviation</t>
         </is>
       </c>
-      <c r="B75" t="n">
-        <v>9196</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>GIFD 3.0 Technologies</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2023-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Product - 1.3\" GTR/GNC</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>984</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Aviation</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>15826</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Glide Assist</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Product - GDU147XW</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Aviation</t>
         </is>
       </c>
-      <c r="B77" t="n">
-        <v>16604</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>GMA 35xc Refresh</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Product - Flight Stream Redesign</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>977</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Aviation</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>16093</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>GMA x4x BT Redesign</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Product - GDU77XW</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1048</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Aviation</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>16489</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>GMC 605C - AFCS SYS &amp; SW</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>16287</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>GMC 805 IBEX</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>16396</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>GMU 44B New Processor</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>16229</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>GPD 3150</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>16117</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>GPD 3200</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>16306</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>GRA 6500</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>16289</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>GSG - Air Transport</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>15574</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>GSR 56C Services</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>12284</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>GSS Integrated Surveillance System</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>15816</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>GSU 25C/D New Gyro</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>15962</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>GTE 200</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>16220</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>GTN Xi FPGA Replacement</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>16448</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>GTS Processor (ACAS Xa)</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>14194</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>GVM 53</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>16336</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>GWX Interface Unit</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>14960</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Helicopter Emergency Autoland</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>15931</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Helicopter Simulation Environment: A109</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>15926</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>HUD Applications</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>16288</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>IBEX GI 275 Remount Mount Unit</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>15928</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Initial Development</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>16399</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>inReach Fly Max</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>16398</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>inReach Fly Mini</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>16136</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Large Format TXi</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>16036</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Low-End GIFD Trainer</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>15475</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>LTE Outlet</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>15825</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>NX5</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>16066</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>P23 FBW</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>13719</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Probe Heater Coiling and Brazing</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>12910</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Product - FCC Concept</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>11984</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Product - Fixed Mount HUD</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>12717</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Product - G3X/G500TXi Hybrid</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>16086</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Product - GAT 89</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>11825</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Product - GCD 1600</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>13126</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Product - GDL 59 Replace</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>13759</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Product - GDL 5X Redesign</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>12509</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Product - GDU147XW</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>12510</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Product - GDU77XW</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>15436</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Product - GIFD3 Controller</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>15435</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Product - GIFD3 Data Loader</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>7891</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Product - GIN 6000</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>12539</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Product - GSR 56C</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>13913</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Product - GTE 1x0</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>11249</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Product - GTX Miniaturized</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>10341</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Product - GVS 2020</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>11577</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Product - Head Mounted Display</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>8227</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Product - MEMS INS</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>12258</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Product - Scanning DME</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>16335</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>SafeTaxi 3.0</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>16204</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Secure Config Module</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>15884</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>15939</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Smart Glide (GIFD)</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>15665</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Smart Rudder Bias</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>15938</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Smart Rudder Bias (GIFD)</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>16495</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Software - GDU 7xx - SW v3.15</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>16455</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>STC - GTN Xi GDL 60 Installation</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>16046</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>STC - TXi v3.4x P23 AML</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>16087</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>STC - TXi v3.5x P23 AML</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>16447</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>T1-Tx adapter</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>15464</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Touchscreen Technologies</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>11088</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>UAS Products</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>15654</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Waveguide HUD</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>16054</v>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Wingtip Proximity Sensor</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>15798</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>X.3/G3X Power Module</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>16437</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Forerunner 165 and 165 Music</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>16197</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Edge 1050</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>16345</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Elevate Accessory</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>16061</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Fitness Gamification</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>16005</v>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>HRM6-Advanced</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>16555</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>HRM6-Basic</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>16248</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Lily Athlete</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>13749</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Postpartum Tracking</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>16349</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Rally X10 Family</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>10693</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>SaMD PPG Atrial Fibrillation Detection</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>10692</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>SaMD Sleep Apnea Risk Assessment</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>16250</v>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Tacx FLUX 3M</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>16183</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Varia Headlight Camera</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>16388</v>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>vivoactive 5</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>Garmin Labs</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>16230</v>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Dive Light with Sonar</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="inlineStr">
-        <is>
-          <t>Garmin Labs</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>16053</v>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>HRM-Her</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="inlineStr">
-        <is>
-          <t>Garmin Labs</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>16279</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Thin Watch</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>12844</v>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Cartography - Chart Subscriptions</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>16616</v>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>GPSMAP 9500</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>16483</v>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>ECHOMAP Ultra 2</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>16300</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Flush Mount Stainless Steel Camera</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>16411</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Fusion - RA800</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>16405</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>GMI 50 (Next Gen)</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>16588</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>GPSMAP 16X3 Chartplotters</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>16094</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>inReach Fishing Scale (Major League Fishing)</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>16554</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Mid-Market Trolling Motor</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>16198</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>MOB/ECOS System</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>16501</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Panoptix Ice Fishing Transducer</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>16365</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Surface Mount Camera</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>13479</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Honda MLFA</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>16500</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>ACADIA</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>14879</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Android Automotive Research AOEM</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>15841</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Aquarius</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>16275</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Audi Oneinfotainment BtP RFQ</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>16412</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Blue Jay</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>14374</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>BMW Motorrad Cluster RFI</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>12264</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>BMW NAV X</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>13149</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>BRP Cluster Head Unit</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>16077</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>CES/Roadmap 2022 AOEM</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>11922</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>CES2021/Roadmap</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>15465</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Ford ADAS RFI/RFQ</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>12549</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Ford Off-Road App RFI</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>16392</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Honda PowerSports Capacitive Touch Dev</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>15634</v>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Honda RSE</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>11979</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Honda Talon HU RFQ</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>16373</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>IDC23vo</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>12141</v>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>JLR NAV SW Solution - RFI</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>15285</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Kenwood SW-Only 2022 Truck</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>15284</v>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Kenwood SW-Only 2023 DNX&amp;Truck</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>10926</v>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Approach R50</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>16152</v>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Garmin Wallet</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>11252</v>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>MARQ Carbon (Gen 2)</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>14704</v>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Next Gen Fenix Dev Platform</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>7011</v>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Xero G2i SatCom Scouting Camera</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>16592</v>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Alpha 5</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>15619</v>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Approach G20</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>13034</v>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Companion Dog Tracking Collar</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>10016</v>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Connect IQ 3.x</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>15987</v>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Descent Subwave Solar</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>16244</v>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>EPIX (Gen 3)</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr"/>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>16215</v>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>eTrex Touch Gen 2</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>16514</v>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>fenix 8 Series</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr"/>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>16137</v>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>GPSMAP 68</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>14739</v>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>inReach Certus IoT</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>16216</v>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>inReach Messenger XL</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>16298</v>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Instinct 3 Series</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>16134</v>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Instinct Lite</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>16044</v>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>K60i Compact Laser Navigation Binocular 8/10x32mm</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>14604</v>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>L20 Laser Range Finder</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>16037</v>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>M60i Laser Navigation Binoculars 15/18x56mm</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>16212</v>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Marq (Gen 3)</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr"/>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>12279</v>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Marq Hybrid</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>15988</v>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Xero A2i Bow Sight</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>15990</v>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Xero X20 Crossbow Scope</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr"/>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/GMLA loading analysis/PMsystem_PRweb/(Output) Data.xlsx
+++ b/GMLA loading analysis/PMsystem_PRweb/(Output) Data.xlsx
@@ -7,15 +7,17 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Overall" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ww_asia_diff_DPQE" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="projects_wo_DPQE" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="multi_dpqe" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPdate_from_now_count" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPdate_from_now" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No_MPdate_count" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No_MPdate" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aviation_PRweb" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="overview" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="overview_weighted" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="detail" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ww_asia_diff_DPQE" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="projects_wo_DPQE" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="multi_dpqe" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPdate_from_now_count" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPdate_from_now" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No_MPdate_count" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No_MPdate" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aviation_PRweb" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30,7 +32,7 @@
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -41,13 +43,194 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <color rgb="00000000"/>
+    </font>
+    <font>
+      <color rgb="00F1F1F1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="37">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF7EC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007F0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDD49E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC8C59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE8C8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D62F1E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7533A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDC38D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F26D4B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C91D13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDB27B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDDCAF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEEBD0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEEDD4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDD09A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC9E69"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEECD2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDA872"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE5C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DE3F2B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BE0F0A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A80000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0442F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE2BB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDDBAC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE3BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ED6145"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C3150E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEDFB5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDD9A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CE2417"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEEACC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEE7C5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEEFD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDBA83"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -117,11 +300,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -489,6 +707,3887 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Y8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DPQE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Fu, Ernest</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Hsu, Jason(PQE)</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Kuo, Chris</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lo, Aalto</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Ni, Wendy</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Wang, Cooper</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Wang, Evelyn</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="52" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Project ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Project Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MP Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Global/Asia</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PDP/Form107</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16319</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Aviation Headset -</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16249</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>dezl headset (2nd Gen)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>16437</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Forerunner 165 and 165 Music</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>16197</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Edge 1050</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>16345</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Elevate Accessory</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>16061</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Fitness Gamification</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>16005</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HRM6-Advanced</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>16555</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>HRM6-Basic</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>16248</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Lily Athlete</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>13749</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Postpartum Tracking</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>16349</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Rally X10 Family</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10693</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SaMD PPG Atrial Fibrillation Detection</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10692</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SaMD Sleep Apnea Risk Assessment</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>16250</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Tacx FLUX 3M</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16183</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Varia Headlight Camera</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16388</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vivoactive 5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>12844</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Cartography - Chart Subscriptions</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>16616</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>GPSMAP 9500</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>16483</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ECHOMAP Ultra 2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>16300</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Flush Mount Stainless Steel Camera</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>16411</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fusion - RA800</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16405</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>GMI 50 (Next Gen)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>16588</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>GPSMAP 16X3 Chartplotters</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16094</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>inReach Fishing Scale (Major League Fishing)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>16554</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Mid-Market Trolling Motor</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>16198</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MOB/ECOS System</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>16501</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Panoptix Ice Fishing Transducer</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>16365</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Surface Mount Camera</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>13479</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Honda MLFA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>16500</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ACADIA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>14879</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Android Automotive Research AOEM</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>15841</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Aquarius</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>16275</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Audi Oneinfotainment BtP RFQ</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>16412</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Blue Jay</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>14374</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BMW Motorrad Cluster RFI</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>12264</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>BMW NAV X</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>13149</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>BRP Cluster Head Unit</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>16077</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CES/Roadmap 2022 AOEM</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>11922</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CES2021/Roadmap</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>15465</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ford ADAS RFI/RFQ</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>12549</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ford Off-Road App RFI</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>16392</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Honda PowerSports Capacitive Touch Dev</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>15634</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Honda RSE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>11979</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Honda Talon HU RFQ</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>16373</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>IDC23vo</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>12141</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>JLR NAV SW Solution - RFI</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>15285</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Kenwood SW-Only 2022 Truck</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>OEM Auto</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>15284</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Kenwood SW-Only 2023 DNX&amp;Truck</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>10926</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Approach R50</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>16152</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Garmin Wallet</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>11252</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MARQ Carbon (Gen 2)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>14704</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Next Gen Fenix Dev Platform</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>7011</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Xero G2i SatCom Scouting Camera</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>16592</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Alpha 5</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>15619</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Approach G20</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>13034</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Companion Dog Tracking Collar</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>10016</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Connect IQ 3.x</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>15987</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Descent Subwave Solar</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>16244</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>EPIX (Gen 3)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>16215</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>eTrex Touch Gen 2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>16514</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>fenix 8 Series</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>16137</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>GPSMAP 68</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>14739</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>inReach Certus IoT</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>16216</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>inReach Messenger XL</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>16298</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Instinct 3 Series</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>16134</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Instinct Lite</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>16044</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>K60i Compact Laser Navigation Binocular 8/10x32mm</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>14604</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>L20 Laser Range Finder</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>16037</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>M60i Laser Navigation Binoculars 15/18x56mm</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>16212</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Marq (Gen 3)</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>12279</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Marq Hybrid</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>15988</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Xero A2i Bow Sight</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>15990</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Xero X20 Crossbow Scope</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>PDP</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Project Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Project Id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MP Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Product - G3X/G500TXi Hybrid</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2023-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Product - 1.3\" GTR/GNC</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>984</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Product - GDU147XW</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Product - Flight Stream Redesign</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>977</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Product - GDU77XW</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1048</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DPQE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Fu, Ernest</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Hsu, Jason(PQE)</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="J3" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="N3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="X3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Kuo, Chris</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="H4" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lo, Aalto</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="30" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" s="31" t="n">
+        <v>7</v>
+      </c>
+      <c r="L5" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Ni, Wendy</t>
+        </is>
+      </c>
+      <c r="B6" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O6" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Wang, Cooper</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="34" t="n">
+        <v>9</v>
+      </c>
+      <c r="H7" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="K7" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Wang, Evelyn</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AX75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5779,7 +9878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5832,7 +9931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5919,16 +10018,16 @@
           <t>GT12M &amp; GT15M Thru-Hull Flush</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="37" t="n">
         <v>44893</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="37" t="n">
         <v>44992</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="37" t="n">
         <v>45096</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="37" t="n">
         <v>45048</v>
       </c>
       <c r="G2" t="inlineStr">
@@ -5959,7 +10058,7 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="37" t="n">
         <v>46022</v>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -5991,7 +10090,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="37" t="n">
         <v>45194</v>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -6017,7 +10116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6085,7 +10184,7 @@
 Wang, Evelyn</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="37" t="n">
         <v>45103</v>
       </c>
     </row>
@@ -6120,7 +10219,7 @@
 Lee, Lewis</t>
         </is>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="37" t="n">
         <v>44732</v>
       </c>
     </row>
@@ -6144,7 +10243,7 @@
 Ko, Simon</t>
         </is>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="37" t="n">
         <v>45187</v>
       </c>
     </row>
@@ -6168,7 +10267,7 @@
 Hu, Ray</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="37" t="n">
         <v>45026</v>
       </c>
     </row>
@@ -6192,7 +10291,7 @@
 Ko, Simon</t>
         </is>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="37" t="n">
         <v>44797</v>
       </c>
     </row>
@@ -6201,7 +10300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6276,7 +10375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6350,7 +10449,7 @@
           <t>Tread XL - Baja Race Edition</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="38" t="n">
         <v>44851</v>
       </c>
       <c r="E2" t="inlineStr">
@@ -6383,7 +10482,7 @@
           <t>Dash Cam Live (LTE)</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="38" t="n">
         <v>44858</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -6416,7 +10515,7 @@
           <t>Drive 53</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="38" t="n">
         <v>44900</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -6449,7 +10548,7 @@
           <t>Tread 8" OEM - Honda</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="38" t="n">
         <v>44935</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -6482,7 +10581,7 @@
           <t>zumo XT2</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="38" t="n">
         <v>44991</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -6515,7 +10614,7 @@
           <t>Catalyst Kart/Moto/Roadster</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="38" t="n">
         <v>45005</v>
       </c>
       <c r="E7" t="inlineStr">
@@ -6548,7 +10647,7 @@
           <t>Tire Temp Sensor</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="38" t="n">
         <v>45026</v>
       </c>
       <c r="E8" t="inlineStr">
@@ -6581,7 +10680,7 @@
           <t>DC-2023 Premium Dash Cameras</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="38" t="n">
         <v>45138</v>
       </c>
       <c r="E9" t="inlineStr">
@@ -6614,7 +10713,7 @@
           <t>Tacx NEO Bike Plus</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="38" t="n">
         <v>44823</v>
       </c>
       <c r="E10" t="inlineStr">
@@ -6647,7 +10746,7 @@
           <t>Bounce</t>
         </is>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="38" t="n">
         <v>44858</v>
       </c>
       <c r="E11" t="inlineStr">
@@ -6680,7 +10779,7 @@
           <t>vivomove Trend</t>
         </is>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="38" t="n">
         <v>44879</v>
       </c>
       <c r="E12" t="inlineStr">
@@ -6713,7 +10812,7 @@
           <t>Forerunner 265</t>
         </is>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="38" t="n">
         <v>44929</v>
       </c>
       <c r="E13" t="inlineStr">
@@ -6746,7 +10845,7 @@
           <t>Forerunner 965</t>
         </is>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="38" t="n">
         <v>44935</v>
       </c>
       <c r="E14" t="inlineStr">
@@ -6779,7 +10878,7 @@
           <t>Edge 540 840</t>
         </is>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="38" t="n">
         <v>44956</v>
       </c>
       <c r="E15" t="inlineStr">
@@ -6812,7 +10911,7 @@
           <t>Varia eBike Radar Tail Light (eRTL615)</t>
         </is>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="38" t="n">
         <v>44991</v>
       </c>
       <c r="E16" t="inlineStr">
@@ -6845,7 +10944,7 @@
           <t>Venu 3</t>
         </is>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="38" t="n">
         <v>45075</v>
       </c>
       <c r="E17" t="inlineStr">
@@ -6878,7 +10977,7 @@
           <t>Venu 3S</t>
         </is>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="38" t="n">
         <v>45075</v>
       </c>
       <c r="E18" t="inlineStr">
@@ -6911,7 +11010,7 @@
           <t>Tacx NEO 3M</t>
         </is>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="38" t="n">
         <v>45121</v>
       </c>
       <c r="E19" t="inlineStr">
@@ -6944,7 +11043,7 @@
           <t>Lily 2</t>
         </is>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="38" t="n">
         <v>45229</v>
       </c>
       <c r="E20" t="inlineStr">
@@ -6977,7 +11076,7 @@
           <t>GC 300 (PTZ) Camera</t>
         </is>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="38" t="n">
         <v>44903</v>
       </c>
       <c r="E21" t="inlineStr">
@@ -7010,7 +11109,7 @@
           <t>FUSION - WB675 Hide Away Stereo</t>
         </is>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="38" t="n">
         <v>44911</v>
       </c>
       <c r="E22" t="inlineStr">
@@ -7043,7 +11142,7 @@
           <t>ECHOMAP UHD2 (Touch)</t>
         </is>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="38" t="n">
         <v>44914</v>
       </c>
       <c r="E23" t="inlineStr">
@@ -7076,7 +11175,7 @@
           <t>Serv+ (7"/10")</t>
         </is>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" s="38" t="n">
         <v>44977</v>
       </c>
       <c r="E24" t="inlineStr">
@@ -7109,7 +11208,7 @@
           <t>Panoptix PS70 - (SSMB)</t>
         </is>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="D25" s="38" t="n">
         <v>44998</v>
       </c>
       <c r="E25" t="inlineStr">
@@ -7142,7 +11241,7 @@
           <t>GMR xHD3 Domes (18/24xHD replacement)</t>
         </is>
       </c>
-      <c r="D26" s="3" t="n">
+      <c r="D26" s="38" t="n">
         <v>45005</v>
       </c>
       <c r="E26" t="inlineStr">
@@ -7175,7 +11274,7 @@
           <t>GMR xHD3 Magnetron Open Arrays</t>
         </is>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="38" t="n">
         <v>45005</v>
       </c>
       <c r="E27" t="inlineStr">
@@ -7208,7 +11307,7 @@
           <t>GSD28</t>
         </is>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="38" t="n">
         <v>45047</v>
       </c>
       <c r="E28" t="inlineStr">
@@ -7241,7 +11340,7 @@
           <t>Force Kraken Trolling Motor</t>
         </is>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" s="38" t="n">
         <v>45089</v>
       </c>
       <c r="E29" t="inlineStr">
@@ -7274,7 +11373,7 @@
           <t>GT12M &amp; GT15M Thru-Hull Flush</t>
         </is>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="D30" s="38" t="n">
         <v>45096</v>
       </c>
       <c r="E30" t="inlineStr">
@@ -7307,7 +11406,7 @@
           <t>BlueNET Gateway</t>
         </is>
       </c>
-      <c r="D31" s="3" t="n">
+      <c r="D31" s="38" t="n">
         <v>45103</v>
       </c>
       <c r="E31" t="inlineStr">
@@ -7340,7 +11439,7 @@
           <t>BlueNET Switch</t>
         </is>
       </c>
-      <c r="D32" s="3" t="n">
+      <c r="D32" s="38" t="n">
         <v>45103</v>
       </c>
       <c r="E32" t="inlineStr">
@@ -7373,7 +11472,7 @@
           <t>GPSMAP 9000</t>
         </is>
       </c>
-      <c r="D33" s="3" t="n">
+      <c r="D33" s="38" t="n">
         <v>45103</v>
       </c>
       <c r="E33" t="inlineStr">
@@ -7406,7 +11505,7 @@
           <t>Fusion - Signature Series 4 Speakers and Subs</t>
         </is>
       </c>
-      <c r="D34" s="3" t="n">
+      <c r="D34" s="38" t="n">
         <v>45135</v>
       </c>
       <c r="E34" t="inlineStr">
@@ -7439,7 +11538,7 @@
           <t>Prop Drive Cost Down</t>
         </is>
       </c>
-      <c r="D35" s="3" t="n">
+      <c r="D35" s="38" t="n">
         <v>45229</v>
       </c>
       <c r="E35" t="inlineStr">
@@ -7472,7 +11571,7 @@
           <t>LED Control Module</t>
         </is>
       </c>
-      <c r="D36" s="3" t="n">
+      <c r="D36" s="38" t="n">
         <v>45299</v>
       </c>
       <c r="E36" t="inlineStr">
@@ -7505,7 +11604,7 @@
           <t>Force Kayak Propulsion System</t>
         </is>
       </c>
-      <c r="D37" s="3" t="n">
+      <c r="D37" s="38" t="n">
         <v>45502</v>
       </c>
       <c r="E37" t="inlineStr">
@@ -7538,7 +11637,7 @@
           <t>Marq (Gen 2)</t>
         </is>
       </c>
-      <c r="D38" s="3" t="n">
+      <c r="D38" s="38" t="n">
         <v>44844</v>
       </c>
       <c r="E38" t="inlineStr">
@@ -7571,7 +11670,7 @@
           <t>Instinct Crossover</t>
         </is>
       </c>
-      <c r="D39" s="3" t="n">
+      <c r="D39" s="38" t="n">
         <v>44845</v>
       </c>
       <c r="E39" t="inlineStr">
@@ -7604,7 +11703,7 @@
           <t>eTrex SE</t>
         </is>
       </c>
-      <c r="D40" s="3" t="n">
+      <c r="D40" s="38" t="n">
         <v>44893</v>
       </c>
       <c r="E40" t="inlineStr">
@@ -7637,7 +11736,7 @@
           <t>Xero C1 Chronograph</t>
         </is>
       </c>
-      <c r="D41" s="3" t="n">
+      <c r="D41" s="38" t="n">
         <v>44900</v>
       </c>
       <c r="E41" t="inlineStr">
@@ -7670,7 +11769,7 @@
           <t>Alpha Dog Collar</t>
         </is>
       </c>
-      <c r="D42" s="3" t="n">
+      <c r="D42" s="38" t="n">
         <v>44929</v>
       </c>
       <c r="E42" t="inlineStr">
@@ -7703,7 +11802,7 @@
           <t>Foretrex 801/901</t>
         </is>
       </c>
-      <c r="D43" s="3" t="n">
+      <c r="D43" s="38" t="n">
         <v>44963</v>
       </c>
       <c r="E43" t="inlineStr">
@@ -7736,7 +11835,7 @@
           <t>EPIX PRO (Gen 2) 42mm</t>
         </is>
       </c>
-      <c r="D44" s="3" t="n">
+      <c r="D44" s="38" t="n">
         <v>44970</v>
       </c>
       <c r="E44" t="inlineStr">
@@ -7769,7 +11868,7 @@
           <t>EPIX PRO (Gen 2) 47mm</t>
         </is>
       </c>
-      <c r="D45" s="3" t="n">
+      <c r="D45" s="38" t="n">
         <v>44977</v>
       </c>
       <c r="E45" t="inlineStr">
@@ -7802,7 +11901,7 @@
           <t>EPIX PRO (Gen 2) 51mm</t>
         </is>
       </c>
-      <c r="D46" s="3" t="n">
+      <c r="D46" s="38" t="n">
         <v>44991</v>
       </c>
       <c r="E46" t="inlineStr">
@@ -7835,7 +11934,7 @@
           <t>fenix 7 Pro</t>
         </is>
       </c>
-      <c r="D47" s="3" t="n">
+      <c r="D47" s="38" t="n">
         <v>44998</v>
       </c>
       <c r="E47" t="inlineStr">
@@ -7868,7 +11967,7 @@
           <t>Approach S70</t>
         </is>
       </c>
-      <c r="D48" s="3" t="n">
+      <c r="D48" s="38" t="n">
         <v>45005</v>
       </c>
       <c r="E48" t="inlineStr">
@@ -7901,7 +12000,7 @@
           <t>Approach S70S</t>
         </is>
       </c>
-      <c r="D49" s="3" t="n">
+      <c r="D49" s="38" t="n">
         <v>45005</v>
       </c>
       <c r="E49" t="inlineStr">
@@ -7934,7 +12033,7 @@
           <t>fenix 7S Pro</t>
         </is>
       </c>
-      <c r="D50" s="3" t="n">
+      <c r="D50" s="38" t="n">
         <v>45005</v>
       </c>
       <c r="E50" t="inlineStr">
@@ -7967,7 +12066,7 @@
           <t>Instinct 2X Solar</t>
         </is>
       </c>
-      <c r="D51" s="3" t="n">
+      <c r="D51" s="38" t="n">
         <v>45005</v>
       </c>
       <c r="E51" t="inlineStr">
@@ -8000,7 +12099,7 @@
           <t>fenix 7X Pro</t>
         </is>
       </c>
-      <c r="D52" s="3" t="n">
+      <c r="D52" s="38" t="n">
         <v>45012</v>
       </c>
       <c r="E52" t="inlineStr">
@@ -8033,7 +12132,7 @@
           <t>Approach Z50</t>
         </is>
       </c>
-      <c r="D53" s="3" t="n">
+      <c r="D53" s="38" t="n">
         <v>45047</v>
       </c>
       <c r="E53" t="inlineStr">
@@ -8066,7 +12165,7 @@
           <t>Descent S1 Buoy</t>
         </is>
       </c>
-      <c r="D54" s="3" t="n">
+      <c r="D54" s="38" t="n">
         <v>45138</v>
       </c>
       <c r="E54" t="inlineStr">
@@ -8099,7 +12198,7 @@
           <t>Descent T2 Transceiver</t>
         </is>
       </c>
-      <c r="D55" s="3" t="n">
+      <c r="D55" s="38" t="n">
         <v>45138</v>
       </c>
       <c r="E55" t="inlineStr">
@@ -8132,7 +12231,7 @@
           <t>eTrex Solar</t>
         </is>
       </c>
-      <c r="D56" s="3" t="n">
+      <c r="D56" s="38" t="n">
         <v>45159</v>
       </c>
       <c r="E56" t="inlineStr">
@@ -8165,7 +12264,7 @@
           <t>Cellular Tracking Module</t>
         </is>
       </c>
-      <c r="D57" s="3" t="n">
+      <c r="D57" s="38" t="n">
         <v>45176</v>
       </c>
       <c r="E57" t="inlineStr">
@@ -8198,7 +12297,7 @@
           <t>Descent Mk3s</t>
         </is>
       </c>
-      <c r="D58" s="3" t="n">
+      <c r="D58" s="38" t="n">
         <v>45187</v>
       </c>
       <c r="E58" t="inlineStr">
@@ -8231,7 +12330,7 @@
           <t>Xero L60i Laser Navigator</t>
         </is>
       </c>
-      <c r="D59" s="3" t="n">
+      <c r="D59" s="38" t="n">
         <v>45187</v>
       </c>
       <c r="E59" t="inlineStr">
@@ -8264,7 +12363,7 @@
           <t>Descent Mk3</t>
         </is>
       </c>
-      <c r="D60" s="3" t="n">
+      <c r="D60" s="38" t="n">
         <v>45201</v>
       </c>
       <c r="E60" t="inlineStr">
@@ -8297,7 +12396,7 @@
           <t>Descent X1i</t>
         </is>
       </c>
-      <c r="D61" s="3" t="n">
+      <c r="D61" s="38" t="n">
         <v>45474</v>
       </c>
       <c r="E61" t="inlineStr">
@@ -8330,7 +12429,7 @@
           <t>Xero B60i Laser Navigation Binoculars</t>
         </is>
       </c>
-      <c r="D62" s="3" t="n">
+      <c r="D62" s="38" t="n">
         <v>45551</v>
       </c>
       <c r="E62" t="inlineStr">
@@ -8354,7 +12453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8437,2487 +12536,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G74"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="52" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Project ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Project Name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MP Date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Global/Asia</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PDP/Form107</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Automotive</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>16319</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Aviation Headset -</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Automotive</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>16249</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>dezl headset (2nd Gen)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>16437</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Forerunner 165 and 165 Music</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>16197</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Edge 1050</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>16345</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Elevate Accessory</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>16061</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Fitness Gamification</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>16005</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>HRM6-Advanced</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>16555</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>HRM6-Basic</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>16248</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Lily Athlete</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>13749</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Postpartum Tracking</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>16349</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Rally X10 Family</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10693</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SaMD PPG Atrial Fibrillation Detection</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10692</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>SaMD Sleep Apnea Risk Assessment</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>16250</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Tacx FLUX 3M</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>16183</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Varia Headlight Camera</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Fitness</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16388</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>vivoactive 5</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>12844</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Cartography - Chart Subscriptions</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>16616</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>GPSMAP 9500</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>16483</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>ECHOMAP Ultra 2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>16300</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Flush Mount Stainless Steel Camera</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>16411</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Fusion - RA800</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>16405</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>GMI 50 (Next Gen)</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>16588</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>GPSMAP 16X3 Chartplotters</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>16094</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>inReach Fishing Scale (Major League Fishing)</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>16554</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Mid-Market Trolling Motor</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>16198</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>MOB/ECOS System</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>16501</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Panoptix Ice Fishing Transducer</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Marine</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>16365</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Surface Mount Camera</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>13479</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Honda MLFA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>16500</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>ACADIA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>14879</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Android Automotive Research AOEM</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>15841</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Aquarius</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>16275</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Audi Oneinfotainment BtP RFQ</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>16412</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Blue Jay</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>14374</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>BMW Motorrad Cluster RFI</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>12264</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>BMW NAV X</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>13149</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>BRP Cluster Head Unit</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>16077</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>CES/Roadmap 2022 AOEM</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>11922</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>CES2021/Roadmap</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>15465</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Ford ADAS RFI/RFQ</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>12549</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Ford Off-Road App RFI</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>16392</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Honda PowerSports Capacitive Touch Dev</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>15634</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Honda RSE</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>11979</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Honda Talon HU RFQ</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>16373</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>IDC23vo</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>12141</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>JLR NAV SW Solution - RFI</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>15285</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Kenwood SW-Only 2022 Truck</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>OEM Auto</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>15284</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Kenwood SW-Only 2023 DNX&amp;Truck</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>10926</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Approach R50</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>16152</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Garmin Wallet</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>11252</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>MARQ Carbon (Gen 2)</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>14704</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Next Gen Fenix Dev Platform</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>7011</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Xero G2i SatCom Scouting Camera</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>16592</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Alpha 5</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>15619</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Approach G20</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>13034</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Companion Dog Tracking Collar</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>10016</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Connect IQ 3.x</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>15987</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Descent Subwave Solar</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>16244</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>EPIX (Gen 3)</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>16215</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>eTrex Touch Gen 2</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>16514</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>fenix 8 Series</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>16137</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>GPSMAP 68</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>14739</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>inReach Certus IoT</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>16216</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>inReach Messenger XL</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>16298</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Instinct 3 Series</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>16134</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Instinct Lite</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>16044</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>K60i Compact Laser Navigation Binocular 8/10x32mm</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>14604</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>L20 Laser Range Finder</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>16037</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>M60i Laser Navigation Binoculars 15/18x56mm</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>16212</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Marq (Gen 3)</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>12279</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Marq Hybrid</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>15988</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Xero A2i Bow Sight</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Outdoor</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>15990</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Xero X20 Crossbow Scope</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>PDP</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Concepts</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Project Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Project Id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>MP Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Product - G3X/G500TXi Hybrid</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Product - 1.3\" GTR/GNC</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>984</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Product - GDU147XW</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1049</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024-01-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Product - Flight Stream Redesign</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>977</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Product - GDU77XW</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1048</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>